--- a/Code/Data/DAX30/Efficient Portfolios with Prediction/Manual Recurrence/input 30/DAX30_efficient_portfolios_and_returns_with_prediction_semester.xlsx
+++ b/Code/Data/DAX30/Efficient Portfolios with Prediction/Manual Recurrence/input 30/DAX30_efficient_portfolios_and_returns_with_prediction_semester.xlsx
@@ -595,79 +595,79 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>0.1573711530266761</v>
+        <v>0.1563930956378764</v>
       </c>
       <c r="F2" t="n">
-        <v>0.08926288298645518</v>
+        <v>0.08175716551023816</v>
       </c>
       <c r="G2" t="n">
-        <v>0.06928784040457338</v>
+        <v>0.08378342405700466</v>
       </c>
       <c r="H2" t="n">
-        <v>0.01596906679082439</v>
+        <v>0.04281392562712736</v>
       </c>
       <c r="I2" t="n">
-        <v>0.01466073115385965</v>
+        <v>0.0006055834258817626</v>
       </c>
       <c r="J2" t="n">
-        <v>0.08673789421564833</v>
+        <v>0.06326956854071332</v>
       </c>
       <c r="K2" t="n">
-        <v>0.06925372750416106</v>
+        <v>0.08262119511189596</v>
       </c>
       <c r="L2" t="n">
-        <v>0.07041541825618704</v>
+        <v>0.07838876269091255</v>
       </c>
       <c r="M2" t="n">
-        <v>0.04779533568928396</v>
+        <v>0.05988544565465784</v>
       </c>
       <c r="N2" t="n">
-        <v>0.02262278934762893</v>
+        <v>0.03029404525306004</v>
       </c>
       <c r="O2" t="n">
-        <v>0.05962989948125918</v>
+        <v>0.06647104509179506</v>
       </c>
       <c r="P2" t="n">
-        <v>0.04909567947426643</v>
+        <v>0.04487512363080742</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.02331730410966818</v>
+        <v>0.004457273714695444</v>
       </c>
       <c r="R2" t="n">
-        <v>0.03879654758239854</v>
+        <v>0.03156007474131826</v>
       </c>
       <c r="S2" t="n">
-        <v>0.07834569336670354</v>
+        <v>0.0294711987481005</v>
       </c>
       <c r="T2" t="n">
-        <v>0.001968828386771756</v>
+        <v>0.05047020417448245</v>
       </c>
       <c r="U2" t="n">
-        <v>0.001246752174741278</v>
+        <v>0.01304117754821232</v>
       </c>
       <c r="V2" t="n">
-        <v>0.02762682648409011</v>
+        <v>0.02473723060406945</v>
       </c>
       <c r="W2" t="n">
-        <v>0.08062494600596125</v>
+        <v>0.07385369539093065</v>
       </c>
       <c r="X2" t="n">
-        <v>0.06192432758124384</v>
+        <v>0.05346775356338387</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.005825727298433713</v>
+        <v>0.00228313599853305</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.03713508438813042</v>
+        <v>0.0620925868626254</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.03695774644371141</v>
+        <v>0.003739761237935299</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.01149895087399829</v>
+        <v>0.0160606228216193</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.1109549823966849</v>
+        <v>0.0886444015517949</v>
       </c>
     </row>
     <row r="3">
@@ -690,79 +690,79 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>0.343883707738139</v>
+        <v>0.376295666339183</v>
       </c>
       <c r="F3" t="n">
-        <v>0.05580303924995272</v>
+        <v>0.0002573310886869409</v>
       </c>
       <c r="G3" t="n">
-        <v>0.05827967728949347</v>
+        <v>0.03910422119175257</v>
       </c>
       <c r="H3" t="n">
-        <v>0.04027463915198463</v>
+        <v>0.07799377310709719</v>
       </c>
       <c r="I3" t="n">
-        <v>0.001256846631399031</v>
+        <v>0.002694750781572063</v>
       </c>
       <c r="J3" t="n">
-        <v>0.01993938763540321</v>
+        <v>0.04468497106818252</v>
       </c>
       <c r="K3" t="n">
-        <v>0.09712072528291293</v>
+        <v>0.0763992971868596</v>
       </c>
       <c r="L3" t="n">
-        <v>0.05708882150865768</v>
+        <v>0.009046344480474979</v>
       </c>
       <c r="M3" t="n">
-        <v>0.03895730953872635</v>
+        <v>0.09129056452375943</v>
       </c>
       <c r="N3" t="n">
-        <v>0.01389543419365781</v>
+        <v>0.06961072335407185</v>
       </c>
       <c r="O3" t="n">
-        <v>0.05740906378494556</v>
+        <v>0.01446718347333763</v>
       </c>
       <c r="P3" t="n">
-        <v>0.02439154085769603</v>
+        <v>0.02745333401779336</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.001283735982862745</v>
+        <v>0.01985802257743461</v>
       </c>
       <c r="R3" t="n">
-        <v>0.0780378540441167</v>
+        <v>0.006457512193702199</v>
       </c>
       <c r="S3" t="n">
-        <v>0.07850855164922937</v>
+        <v>0.06775579966024922</v>
       </c>
       <c r="T3" t="n">
-        <v>0.07523334045096762</v>
+        <v>0.05224293196478167</v>
       </c>
       <c r="U3" t="n">
-        <v>0.04187698647375507</v>
+        <v>0.03276189628341528</v>
       </c>
       <c r="V3" t="n">
-        <v>0.03873623307066559</v>
+        <v>0.04252155317937901</v>
       </c>
       <c r="W3" t="n">
-        <v>0.009077297426193084</v>
+        <v>0.08521177584978358</v>
       </c>
       <c r="X3" t="n">
-        <v>0.02442042467931347</v>
+        <v>0.09325496562195495</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.03972334559304509</v>
+        <v>0.04708948831339665</v>
       </c>
       <c r="Z3" t="n">
-        <v>0.06444114853955317</v>
+        <v>0.009946077887309454</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.004874575936552581</v>
+        <v>0.01721549209861757</v>
       </c>
       <c r="AB3" t="n">
-        <v>0.07937002102891601</v>
+        <v>0.07268199009638783</v>
       </c>
       <c r="AC3" t="n">
-        <v>0.08933503053600127</v>
+        <v>0.06874065249478947</v>
       </c>
     </row>
     <row r="4">
@@ -785,79 +785,79 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>0.2295350922124102</v>
+        <v>0.2451452733540448</v>
       </c>
       <c r="F4" t="n">
-        <v>0.05992164647545105</v>
+        <v>0.0784006955222655</v>
       </c>
       <c r="G4" t="n">
-        <v>0.01337548054056671</v>
+        <v>0.024860458096599</v>
       </c>
       <c r="H4" t="n">
-        <v>0.009953117398846124</v>
+        <v>0.009164030170385744</v>
       </c>
       <c r="I4" t="n">
-        <v>0.007464406396961464</v>
+        <v>0.06619897076361664</v>
       </c>
       <c r="J4" t="n">
-        <v>0.002860309430695651</v>
+        <v>0.004249893773943869</v>
       </c>
       <c r="K4" t="n">
-        <v>0.06864616133901806</v>
+        <v>0.08253434138965619</v>
       </c>
       <c r="L4" t="n">
-        <v>0.01034184098979055</v>
+        <v>0.02156208759983344</v>
       </c>
       <c r="M4" t="n">
-        <v>0.09401718754015928</v>
+        <v>0.05258142007849535</v>
       </c>
       <c r="N4" t="n">
-        <v>0.01574547747860017</v>
+        <v>0.08026251925907887</v>
       </c>
       <c r="O4" t="n">
-        <v>0.09847240061687725</v>
+        <v>0.05709451861010437</v>
       </c>
       <c r="P4" t="n">
-        <v>0.07124143692952691</v>
+        <v>0.02826347963192951</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.01115672892543848</v>
+        <v>0.01325998536362114</v>
       </c>
       <c r="R4" t="n">
-        <v>0.02249622642336399</v>
+        <v>0.07201076180647291</v>
       </c>
       <c r="S4" t="n">
-        <v>0.0304190954578477</v>
+        <v>0.01916446699143878</v>
       </c>
       <c r="T4" t="n">
-        <v>0.08248030229168822</v>
+        <v>0.05828640623130033</v>
       </c>
       <c r="U4" t="n">
-        <v>0.03969339288013599</v>
+        <v>0.07688527028806864</v>
       </c>
       <c r="V4" t="n">
-        <v>0.06188045460702404</v>
+        <v>0.03121723295780365</v>
       </c>
       <c r="W4" t="n">
-        <v>0.08395382681660614</v>
+        <v>0.03259568871679266</v>
       </c>
       <c r="X4" t="n">
-        <v>0.06097439914655015</v>
+        <v>0.07865538535197203</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.07419929017088137</v>
+        <v>0.0412149685889871</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.07083064523739241</v>
+        <v>0.05095738338944315</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.008743079727205168</v>
+        <v>0.0006292424338493315</v>
       </c>
       <c r="AB4" t="n">
-        <v>0.001133093179373217</v>
+        <v>0.01995079298434183</v>
       </c>
       <c r="AC4" t="n">
-        <v>0.00767079610830574</v>
+        <v>0.003288705913968952</v>
       </c>
     </row>
     <row r="5">
@@ -880,79 +880,79 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>0.7060457991002723</v>
+        <v>0.8605568338443353</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0618922612630836</v>
+        <v>0.001821619679868014</v>
       </c>
       <c r="G5" t="n">
-        <v>0.07730748980715936</v>
+        <v>0.05095650147812879</v>
       </c>
       <c r="H5" t="n">
-        <v>0.004780422020366413</v>
+        <v>0.0003998461093171067</v>
       </c>
       <c r="I5" t="n">
-        <v>0.04029141194469162</v>
+        <v>0.1010472471478468</v>
       </c>
       <c r="J5" t="n">
-        <v>0.006257099222064648</v>
+        <v>0.001211691006596091</v>
       </c>
       <c r="K5" t="n">
-        <v>0.05457625367252228</v>
+        <v>0.005329874114532318</v>
       </c>
       <c r="L5" t="n">
-        <v>0.001627186460963748</v>
+        <v>0.05920491852104309</v>
       </c>
       <c r="M5" t="n">
-        <v>0.03553183770402584</v>
+        <v>0.01819565105154949</v>
       </c>
       <c r="N5" t="n">
-        <v>0.05782623425569734</v>
+        <v>0.08009182807837849</v>
       </c>
       <c r="O5" t="n">
-        <v>0.0808541532662387</v>
+        <v>0.08554891063693455</v>
       </c>
       <c r="P5" t="n">
-        <v>0.05271135329520586</v>
+        <v>0.02517826541192846</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.08242600405218652</v>
+        <v>0.09768433154546412</v>
       </c>
       <c r="R5" t="n">
-        <v>0.06686393669564597</v>
+        <v>0.0778169070421094</v>
       </c>
       <c r="S5" t="n">
-        <v>0.01875743792324144</v>
+        <v>0.06456079283221677</v>
       </c>
       <c r="T5" t="n">
-        <v>0.0373793410387596</v>
+        <v>0.0351372058475277</v>
       </c>
       <c r="U5" t="n">
-        <v>0.0668207759715834</v>
+        <v>0.06986833375316728</v>
       </c>
       <c r="V5" t="n">
-        <v>0.03407693192185568</v>
+        <v>0.03629879961408775</v>
       </c>
       <c r="W5" t="n">
-        <v>0.02682406706545644</v>
+        <v>0.02578218904515304</v>
       </c>
       <c r="X5" t="n">
-        <v>0.002200672724183124</v>
+        <v>0.03095483471790329</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.07540945841987183</v>
+        <v>0.07395269772577021</v>
       </c>
       <c r="Z5" t="n">
-        <v>0.04261151658696371</v>
+        <v>0.03995673697281971</v>
       </c>
       <c r="AA5" t="n">
-        <v>0.00395564328184021</v>
+        <v>0.003699920830285287</v>
       </c>
       <c r="AB5" t="n">
-        <v>0.06901851140639297</v>
+        <v>0.01530089683737232</v>
       </c>
       <c r="AC5" t="n">
-        <v>0.02765023288554477</v>
+        <v>0.008997070971942561</v>
       </c>
     </row>
     <row r="6">
@@ -975,79 +975,79 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>0.1475466803499903</v>
+        <v>0.1498952844497401</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0224992499288378</v>
+        <v>0.07943674614224636</v>
       </c>
       <c r="G6" t="n">
-        <v>0.07714088632483231</v>
+        <v>0.07629775135025448</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0166036222516762</v>
+        <v>0.01877382960605976</v>
       </c>
       <c r="I6" t="n">
-        <v>0.008424766559869089</v>
+        <v>0.003491660576738843</v>
       </c>
       <c r="J6" t="n">
-        <v>0.0569092899095095</v>
+        <v>0.02428105566744504</v>
       </c>
       <c r="K6" t="n">
-        <v>0.008111636928945554</v>
+        <v>0.04390848827394891</v>
       </c>
       <c r="L6" t="n">
-        <v>0.02999466871845985</v>
+        <v>0.01496300961889982</v>
       </c>
       <c r="M6" t="n">
-        <v>0.002929215521653644</v>
+        <v>0.0259473617895465</v>
       </c>
       <c r="N6" t="n">
-        <v>0.009542654338963917</v>
+        <v>0.001725169373472742</v>
       </c>
       <c r="O6" t="n">
-        <v>0.07984480592093325</v>
+        <v>0.06980258076389043</v>
       </c>
       <c r="P6" t="n">
-        <v>0.08097829792077607</v>
+        <v>0.06241853644243866</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.00197744312855818</v>
+        <v>0.001197765566962503</v>
       </c>
       <c r="R6" t="n">
-        <v>0.07560318606832633</v>
+        <v>0.07272385359810346</v>
       </c>
       <c r="S6" t="n">
-        <v>0.07997047489121017</v>
+        <v>0.07501384037505962</v>
       </c>
       <c r="T6" t="n">
-        <v>0.00847893183491478</v>
+        <v>0.04907732540103053</v>
       </c>
       <c r="U6" t="n">
-        <v>0.0608388830000705</v>
+        <v>0.04558437939996082</v>
       </c>
       <c r="V6" t="n">
-        <v>0.02780420236001458</v>
+        <v>0.05933778226597086</v>
       </c>
       <c r="W6" t="n">
-        <v>0.08282259366101166</v>
+        <v>0.07398508509234956</v>
       </c>
       <c r="X6" t="n">
-        <v>0.05092294466425598</v>
+        <v>0.05582427596260128</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.07998802805005092</v>
+        <v>0.04515053193115933</v>
       </c>
       <c r="Z6" t="n">
-        <v>0.04186742937670659</v>
+        <v>0.05402501168985462</v>
       </c>
       <c r="AA6" t="n">
-        <v>0.03180693875019309</v>
+        <v>0.02717275019485331</v>
       </c>
       <c r="AB6" t="n">
-        <v>0.06493984989023008</v>
+        <v>0.01986120891715268</v>
       </c>
       <c r="AC6" t="n">
-        <v>-0.2190144173237844</v>
+        <v>-0.2316342529534376</v>
       </c>
     </row>
     <row r="7">
@@ -1070,79 +1070,79 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>0.4618320845103522</v>
+        <v>0.3436341223303609</v>
       </c>
       <c r="F7" t="n">
-        <v>0.09516943079645021</v>
+        <v>0.04594956064747047</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03144682006263615</v>
+        <v>0.02359439761689011</v>
       </c>
       <c r="H7" t="n">
-        <v>0.09702963099957114</v>
+        <v>0.09285839694247389</v>
       </c>
       <c r="I7" t="n">
-        <v>0.07011245847549877</v>
+        <v>0.03717924714846945</v>
       </c>
       <c r="J7" t="n">
-        <v>0.06215937883061041</v>
+        <v>0.01092891948349635</v>
       </c>
       <c r="K7" t="n">
-        <v>0.01719042518064808</v>
+        <v>0.07413504976978098</v>
       </c>
       <c r="L7" t="n">
-        <v>0.02770243346677003</v>
+        <v>0.09404831327907777</v>
       </c>
       <c r="M7" t="n">
-        <v>0.01981329264375325</v>
+        <v>0.01767674659527649</v>
       </c>
       <c r="N7" t="n">
-        <v>0.01122229725913196</v>
+        <v>0.01233581298857144</v>
       </c>
       <c r="O7" t="n">
-        <v>0.06210937095143546</v>
+        <v>0.01127423872295012</v>
       </c>
       <c r="P7" t="n">
-        <v>0.02153754491371317</v>
+        <v>0.0483128075935525</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.01772965393962424</v>
+        <v>0.0826958897689014</v>
       </c>
       <c r="R7" t="n">
-        <v>0.007511123670925567</v>
+        <v>0.05543832032167578</v>
       </c>
       <c r="S7" t="n">
-        <v>0.08040029039289685</v>
+        <v>0.01018023494906205</v>
       </c>
       <c r="T7" t="n">
-        <v>0.004438660015578951</v>
+        <v>0.01945023815112094</v>
       </c>
       <c r="U7" t="n">
-        <v>0.05095132046947248</v>
+        <v>0.009758574611713157</v>
       </c>
       <c r="V7" t="n">
-        <v>0.001705288736863072</v>
+        <v>0.002933362479297098</v>
       </c>
       <c r="W7" t="n">
-        <v>0.09709866055579199</v>
+        <v>0.08326025995878254</v>
       </c>
       <c r="X7" t="n">
-        <v>0.01379915070875999</v>
+        <v>0.01816530774240984</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.02409891155631704</v>
+        <v>0.07416897441827568</v>
       </c>
       <c r="Z7" t="n">
-        <v>0.08400512198244509</v>
+        <v>0.01050802051311869</v>
       </c>
       <c r="AA7" t="n">
-        <v>0.00042998266866519</v>
+        <v>0.07311357339138619</v>
       </c>
       <c r="AB7" t="n">
-        <v>0.1023387517224408</v>
+        <v>0.09203375290624716</v>
       </c>
       <c r="AC7" t="n">
-        <v>-0.1925101757889281</v>
+        <v>-0.2262178667003966</v>
       </c>
     </row>
     <row r="8">
@@ -1165,79 +1165,79 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>0.1499474877935993</v>
+        <v>0.1452540599956543</v>
       </c>
       <c r="F8" t="n">
-        <v>0.04855463761058205</v>
+        <v>0.07928905427551085</v>
       </c>
       <c r="G8" t="n">
-        <v>0.06352548738218015</v>
+        <v>0.02224465295522547</v>
       </c>
       <c r="H8" t="n">
-        <v>0.06795803052104238</v>
+        <v>0.06121645524460165</v>
       </c>
       <c r="I8" t="n">
-        <v>0.03100274835293878</v>
+        <v>0.08987437354990978</v>
       </c>
       <c r="J8" t="n">
-        <v>0.02614326818280821</v>
+        <v>0.01590912421523711</v>
       </c>
       <c r="K8" t="n">
-        <v>0.01229483358911186</v>
+        <v>0.003939126752081841</v>
       </c>
       <c r="L8" t="n">
-        <v>0.01702251927218</v>
+        <v>0.0124478129555844</v>
       </c>
       <c r="M8" t="n">
-        <v>0.02608715948919562</v>
+        <v>0.01748429716327335</v>
       </c>
       <c r="N8" t="n">
-        <v>0.03320991745605987</v>
+        <v>0.04415456061751909</v>
       </c>
       <c r="O8" t="n">
-        <v>0.01138127094734181</v>
+        <v>0.01235523126906797</v>
       </c>
       <c r="P8" t="n">
-        <v>0.04181695809381525</v>
+        <v>0.04482111534767975</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.04736899074727257</v>
+        <v>0.04573223524920632</v>
       </c>
       <c r="R8" t="n">
-        <v>0.07042770740053825</v>
+        <v>0.07960714425295363</v>
       </c>
       <c r="S8" t="n">
-        <v>0.08375497653659562</v>
+        <v>0.07550959059324663</v>
       </c>
       <c r="T8" t="n">
-        <v>0.05312206984999355</v>
+        <v>0.04318301818838439</v>
       </c>
       <c r="U8" t="n">
-        <v>0.04241970579411419</v>
+        <v>0.06161942660952757</v>
       </c>
       <c r="V8" t="n">
-        <v>0.00951332871335254</v>
+        <v>0.001059927715324548</v>
       </c>
       <c r="W8" t="n">
-        <v>0.06476814484303453</v>
+        <v>0.07284167514650229</v>
       </c>
       <c r="X8" t="n">
-        <v>0.06137012709661335</v>
+        <v>0.01161586307063464</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.01442642048790816</v>
+        <v>0.03194896634535364</v>
       </c>
       <c r="Z8" t="n">
-        <v>0.07571079804874227</v>
+        <v>0.06581128736284522</v>
       </c>
       <c r="AA8" t="n">
-        <v>0.03123414493022736</v>
+        <v>0.03354613382066542</v>
       </c>
       <c r="AB8" t="n">
-        <v>0.06688675465435158</v>
+        <v>0.07378892729966441</v>
       </c>
       <c r="AC8" t="n">
-        <v>-0.3780024316048352</v>
+        <v>-0.3641012972977667</v>
       </c>
     </row>
     <row r="9">
@@ -1260,79 +1260,79 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>0.151612010288267</v>
+        <v>0.1605994814075346</v>
       </c>
       <c r="F9" t="n">
-        <v>0.01645134250264025</v>
+        <v>0.06563404501051912</v>
       </c>
       <c r="G9" t="n">
-        <v>0.04804255473856463</v>
+        <v>0.0994021452467148</v>
       </c>
       <c r="H9" t="n">
-        <v>0.09366992553492652</v>
+        <v>0.06047147787058321</v>
       </c>
       <c r="I9" t="n">
-        <v>0.08291015008873548</v>
+        <v>0.0671803446151102</v>
       </c>
       <c r="J9" t="n">
-        <v>0.004428943637470919</v>
+        <v>0.01503019167059976</v>
       </c>
       <c r="K9" t="n">
-        <v>0.008350079179579971</v>
+        <v>0.02322648845440866</v>
       </c>
       <c r="L9" t="n">
-        <v>0.01942653597986194</v>
+        <v>0.04107444673122827</v>
       </c>
       <c r="M9" t="n">
-        <v>0.01633631206243401</v>
+        <v>0.02490552324686694</v>
       </c>
       <c r="N9" t="n">
-        <v>0.005162596170614306</v>
+        <v>0.04887334716403102</v>
       </c>
       <c r="O9" t="n">
-        <v>0.0008139234455841562</v>
+        <v>0.001438868440495162</v>
       </c>
       <c r="P9" t="n">
-        <v>0.01958103593534283</v>
+        <v>0.0002053033080675084</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.07089532608760769</v>
+        <v>0.04571128307259125</v>
       </c>
       <c r="R9" t="n">
-        <v>0.09626738088703428</v>
+        <v>0.1002176205815416</v>
       </c>
       <c r="S9" t="n">
-        <v>0.03369524955941837</v>
+        <v>0.05801614275720668</v>
       </c>
       <c r="T9" t="n">
-        <v>0.02549498099480988</v>
+        <v>0.01442049160784149</v>
       </c>
       <c r="U9" t="n">
-        <v>0.06231994140731281</v>
+        <v>0.06088209242882021</v>
       </c>
       <c r="V9" t="n">
-        <v>0.01811391331863107</v>
+        <v>0.01269598230623635</v>
       </c>
       <c r="W9" t="n">
-        <v>0.0547097139179198</v>
+        <v>0.08545808857102825</v>
       </c>
       <c r="X9" t="n">
-        <v>0.0466037247852007</v>
+        <v>0.01084373697515128</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.06752219394332482</v>
+        <v>0.04014882972982507</v>
       </c>
       <c r="Z9" t="n">
-        <v>0.09093676486864338</v>
+        <v>0.0003024430558266684</v>
       </c>
       <c r="AA9" t="n">
-        <v>0.01551407348675459</v>
+        <v>0.02491762784324398</v>
       </c>
       <c r="AB9" t="n">
-        <v>0.1027533374675875</v>
+        <v>0.09894347931206267</v>
       </c>
       <c r="AC9" t="n">
-        <v>-0.3703065264929728</v>
+        <v>-0.4015886391308283</v>
       </c>
     </row>
     <row r="10">
@@ -1355,79 +1355,79 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>0.2820299021895527</v>
+        <v>0.268496436105257</v>
       </c>
       <c r="F10" t="n">
-        <v>0.01372255012200575</v>
+        <v>0.07038895934777918</v>
       </c>
       <c r="G10" t="n">
-        <v>0.009897619557519763</v>
+        <v>0.007396721155002807</v>
       </c>
       <c r="H10" t="n">
-        <v>0.03904272785954509</v>
+        <v>0.01225796787950836</v>
       </c>
       <c r="I10" t="n">
-        <v>0.06343923341082794</v>
+        <v>0.07121500346267237</v>
       </c>
       <c r="J10" t="n">
-        <v>0.03800966807087222</v>
+        <v>0.0006888396512304844</v>
       </c>
       <c r="K10" t="n">
-        <v>0.01201914490900969</v>
+        <v>0.0187982421591138</v>
       </c>
       <c r="L10" t="n">
-        <v>0.0508919493440015</v>
+        <v>0.01018300673217038</v>
       </c>
       <c r="M10" t="n">
-        <v>0.04424776811225445</v>
+        <v>0.02640109348437884</v>
       </c>
       <c r="N10" t="n">
-        <v>0.002097655191021581</v>
+        <v>0.01230352611547742</v>
       </c>
       <c r="O10" t="n">
-        <v>0.01703073313921591</v>
+        <v>0.05535206278049342</v>
       </c>
       <c r="P10" t="n">
-        <v>0.0741463511679239</v>
+        <v>0.07669788241907773</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.07276678108308676</v>
+        <v>0.08355495529503916</v>
       </c>
       <c r="R10" t="n">
-        <v>0.06994295451206663</v>
+        <v>0.08469121659932334</v>
       </c>
       <c r="S10" t="n">
-        <v>0.08342192548798279</v>
+        <v>0.08996312172820387</v>
       </c>
       <c r="T10" t="n">
-        <v>0.02584836843029561</v>
+        <v>0.006581479889671562</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0746703382356364</v>
+        <v>0.04584455093055436</v>
       </c>
       <c r="V10" t="n">
-        <v>0.001950684041361304</v>
+        <v>0.008172326811784418</v>
       </c>
       <c r="W10" t="n">
-        <v>0.02598836987545715</v>
+        <v>0.04164505435823609</v>
       </c>
       <c r="X10" t="n">
-        <v>0.07577013241228323</v>
+        <v>0.06658000355383487</v>
       </c>
       <c r="Y10" t="n">
-        <v>0.07311903566181102</v>
+        <v>0.06176729111037846</v>
       </c>
       <c r="Z10" t="n">
-        <v>0.06937078884722887</v>
+        <v>0.03444220217606941</v>
       </c>
       <c r="AA10" t="n">
-        <v>0.05960551683445596</v>
+        <v>0.04453127936604892</v>
       </c>
       <c r="AB10" t="n">
-        <v>0.002999703694136402</v>
+        <v>0.07054321299395071</v>
       </c>
       <c r="AC10" t="n">
-        <v>-0.06416738284277629</v>
+        <v>-0.05770561978316782</v>
       </c>
     </row>
     <row r="11">
@@ -1450,79 +1450,79 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>0.4763641549496306</v>
+        <v>0.4321569149833079</v>
       </c>
       <c r="F11" t="n">
-        <v>0.02673598151723533</v>
+        <v>0.0594578740869582</v>
       </c>
       <c r="G11" t="n">
-        <v>0.09159900609275264</v>
+        <v>0.01761109023544759</v>
       </c>
       <c r="H11" t="n">
-        <v>0.1058940392950231</v>
+        <v>0.01823446455949356</v>
       </c>
       <c r="I11" t="n">
-        <v>0.05950536103108098</v>
+        <v>0.001034529582248803</v>
       </c>
       <c r="J11" t="n">
-        <v>0.05493603847705882</v>
+        <v>0.03030834469938306</v>
       </c>
       <c r="K11" t="n">
-        <v>0.001875725179804967</v>
+        <v>0.008470729197827718</v>
       </c>
       <c r="L11" t="n">
-        <v>0.02238350216510929</v>
+        <v>0.009346030794022367</v>
       </c>
       <c r="M11" t="n">
-        <v>0.04990540855982078</v>
+        <v>0.1117065832894079</v>
       </c>
       <c r="N11" t="n">
-        <v>0.1011787876161936</v>
+        <v>0.05958066295281163</v>
       </c>
       <c r="O11" t="n">
-        <v>0.04691799607303063</v>
+        <v>0.0005353098675330335</v>
       </c>
       <c r="P11" t="n">
-        <v>0.02258122980578711</v>
+        <v>0.005094087110362327</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.008404688224196584</v>
+        <v>0.0004975970857274024</v>
       </c>
       <c r="R11" t="n">
-        <v>0.040298099367515</v>
+        <v>0.05109036105576845</v>
       </c>
       <c r="S11" t="n">
-        <v>0.02491118806268391</v>
+        <v>0.05461544243676932</v>
       </c>
       <c r="T11" t="n">
-        <v>0.01139579945294976</v>
+        <v>0.08558233183658855</v>
       </c>
       <c r="U11" t="n">
-        <v>0.01994697277418529</v>
+        <v>0.01989531447795093</v>
       </c>
       <c r="V11" t="n">
-        <v>0.1178708710694188</v>
+        <v>0.103964728868003</v>
       </c>
       <c r="W11" t="n">
-        <v>0.01054185173257272</v>
+        <v>0.02003208948174033</v>
       </c>
       <c r="X11" t="n">
-        <v>0.05253973953834688</v>
+        <v>0.07631259279197519</v>
       </c>
       <c r="Y11" t="n">
-        <v>0.02065686349206153</v>
+        <v>0.06019919242367453</v>
       </c>
       <c r="Z11" t="n">
-        <v>0.007468053182437265</v>
+        <v>0.08713783638327924</v>
       </c>
       <c r="AA11" t="n">
-        <v>0.001979442563559419</v>
+        <v>0.03079318983163323</v>
       </c>
       <c r="AB11" t="n">
-        <v>0.1004733547271755</v>
+        <v>0.08849961695139377</v>
       </c>
       <c r="AC11" t="n">
-        <v>0.1391922966507254</v>
+        <v>0.1140495497016929</v>
       </c>
     </row>
     <row r="12">
@@ -1545,79 +1545,79 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>0.2723645082368745</v>
+        <v>0.2714171553006691</v>
       </c>
       <c r="F12" t="n">
-        <v>0.03028929618457593</v>
+        <v>0.001514880296562787</v>
       </c>
       <c r="G12" t="n">
-        <v>0.001828530321931445</v>
+        <v>0.009829911440300338</v>
       </c>
       <c r="H12" t="n">
-        <v>0.125115406957328</v>
+        <v>0.0347091351991635</v>
       </c>
       <c r="I12" t="n">
-        <v>0.000358749385756246</v>
+        <v>0.03423678374954527</v>
       </c>
       <c r="J12" t="n">
-        <v>0.01819560349721539</v>
+        <v>0.03677308980396279</v>
       </c>
       <c r="K12" t="n">
-        <v>0.00270130657413003</v>
+        <v>0.0004600193845338742</v>
       </c>
       <c r="L12" t="n">
-        <v>0.006048815657593489</v>
+        <v>0.04016330259271135</v>
       </c>
       <c r="M12" t="n">
-        <v>0.0436242691677696</v>
+        <v>0.03102043264975891</v>
       </c>
       <c r="N12" t="n">
-        <v>0.004769061037225442</v>
+        <v>0.01956383511196574</v>
       </c>
       <c r="O12" t="n">
-        <v>0.09876845209150649</v>
+        <v>0.06738962968793938</v>
       </c>
       <c r="P12" t="n">
-        <v>0.1005325295210676</v>
+        <v>0.06281086557553678</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.007222826523263485</v>
+        <v>0.06904193096907936</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1162829419519776</v>
+        <v>0.07552866359701482</v>
       </c>
       <c r="S12" t="n">
-        <v>0.02178633791168561</v>
+        <v>0.07085574180926417</v>
       </c>
       <c r="T12" t="n">
-        <v>0.07313019610996632</v>
+        <v>0.02709005058736869</v>
       </c>
       <c r="U12" t="n">
-        <v>0.05858544717219436</v>
+        <v>0.0251465255397144</v>
       </c>
       <c r="V12" t="n">
-        <v>0.002731195805817497</v>
+        <v>0.002467844139173618</v>
       </c>
       <c r="W12" t="n">
-        <v>0.07082380375123873</v>
+        <v>0.0451443683335832</v>
       </c>
       <c r="X12" t="n">
-        <v>0.02221469061648196</v>
+        <v>0.09185532085598595</v>
       </c>
       <c r="Y12" t="n">
-        <v>0.1044419484819407</v>
+        <v>0.1037075873851868</v>
       </c>
       <c r="Z12" t="n">
-        <v>0.04784799175451228</v>
+        <v>0.01886423745571862</v>
       </c>
       <c r="AA12" t="n">
-        <v>0.02774197112938074</v>
+        <v>0.02589776014516997</v>
       </c>
       <c r="AB12" t="n">
-        <v>0.01495862839544101</v>
+        <v>0.1059280836907599</v>
       </c>
       <c r="AC12" t="n">
-        <v>0.242150181052476</v>
+        <v>0.2143321659924274</v>
       </c>
     </row>
     <row r="13">
@@ -1640,79 +1640,79 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>0.4474698022108239</v>
+        <v>0.4786224522134918</v>
       </c>
       <c r="F13" t="n">
-        <v>0.04869778054862545</v>
+        <v>0.0871213733531174</v>
       </c>
       <c r="G13" t="n">
-        <v>0.01999668307823765</v>
+        <v>0.01425499413326523</v>
       </c>
       <c r="H13" t="n">
-        <v>0.006851580652030215</v>
+        <v>0.0001912146024188782</v>
       </c>
       <c r="I13" t="n">
-        <v>0.007301184457423114</v>
+        <v>0.1189271314648884</v>
       </c>
       <c r="J13" t="n">
-        <v>0.04943958280492393</v>
+        <v>0.01644405483392816</v>
       </c>
       <c r="K13" t="n">
-        <v>0.001116231696531249</v>
+        <v>0.006808915429631876</v>
       </c>
       <c r="L13" t="n">
-        <v>0.03294038871244136</v>
+        <v>0.08038512094304603</v>
       </c>
       <c r="M13" t="n">
-        <v>0.03641530023609538</v>
+        <v>0.01954117570954149</v>
       </c>
       <c r="N13" t="n">
-        <v>0.1097416879528126</v>
+        <v>0.04239554800044246</v>
       </c>
       <c r="O13" t="n">
-        <v>0.03532202453929387</v>
+        <v>0.02174119208311563</v>
       </c>
       <c r="P13" t="n">
-        <v>0.04913521585550353</v>
+        <v>0.01570545562665483</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.02267776642237117</v>
+        <v>0.1337272624120769</v>
       </c>
       <c r="R13" t="n">
-        <v>0.05349742988252894</v>
+        <v>0.05160721277473063</v>
       </c>
       <c r="S13" t="n">
-        <v>0.009966077267508313</v>
+        <v>0.05842439029536942</v>
       </c>
       <c r="T13" t="n">
-        <v>0.07069116999489587</v>
+        <v>0.05483111145275891</v>
       </c>
       <c r="U13" t="n">
-        <v>0.03834810257831001</v>
+        <v>0.003499960674048021</v>
       </c>
       <c r="V13" t="n">
-        <v>0.1089027013643089</v>
+        <v>0.133201150394458</v>
       </c>
       <c r="W13" t="n">
-        <v>0.06230850503057991</v>
+        <v>0.03181653440022748</v>
       </c>
       <c r="X13" t="n">
-        <v>0.09485160392040896</v>
+        <v>0.02497906861041314</v>
       </c>
       <c r="Y13" t="n">
-        <v>0.09018336999870316</v>
+        <v>0.01633875293820765</v>
       </c>
       <c r="Z13" t="n">
-        <v>0.03368498795075193</v>
+        <v>0.03177661981258658</v>
       </c>
       <c r="AA13" t="n">
-        <v>0.0007856647695847307</v>
+        <v>0.01865598000210797</v>
       </c>
       <c r="AB13" t="n">
-        <v>0.01714496028612949</v>
+        <v>0.01762578005296481</v>
       </c>
       <c r="AC13" t="n">
-        <v>0.234664287181096</v>
+        <v>0.2808933758141552</v>
       </c>
     </row>
     <row r="14">
@@ -1735,79 +1735,79 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>0.281178010027281</v>
+        <v>0.2891365229495351</v>
       </c>
       <c r="F14" t="n">
-        <v>0.06978625899552347</v>
+        <v>0.007128037239526095</v>
       </c>
       <c r="G14" t="n">
-        <v>0.01500934840073633</v>
+        <v>0.04999575040181331</v>
       </c>
       <c r="H14" t="n">
-        <v>0.0700408194824827</v>
+        <v>0.08128695330990265</v>
       </c>
       <c r="I14" t="n">
-        <v>0.07567643305261056</v>
+        <v>0.06282599405642589</v>
       </c>
       <c r="J14" t="n">
-        <v>0.0004014276002498336</v>
+        <v>0.01288287369313252</v>
       </c>
       <c r="K14" t="n">
-        <v>0.03225642035999062</v>
+        <v>0.009123848429496192</v>
       </c>
       <c r="L14" t="n">
-        <v>0.009063924421922588</v>
+        <v>0.06648446933636326</v>
       </c>
       <c r="M14" t="n">
-        <v>0.04667843498214357</v>
+        <v>0.02955309224944407</v>
       </c>
       <c r="N14" t="n">
-        <v>0.005076934739412612</v>
+        <v>0.006649125642723896</v>
       </c>
       <c r="O14" t="n">
-        <v>0.004728407233470126</v>
+        <v>0.003479205804602456</v>
       </c>
       <c r="P14" t="n">
-        <v>0.0953966063666344</v>
+        <v>0.09862619270052787</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.09706343683145091</v>
+        <v>0.02542019468783295</v>
       </c>
       <c r="R14" t="n">
-        <v>0.01035158352090565</v>
+        <v>0.06367178983067898</v>
       </c>
       <c r="S14" t="n">
-        <v>0.09319300262984181</v>
+        <v>0.0448086338875411</v>
       </c>
       <c r="T14" t="n">
-        <v>0.02214228273745498</v>
+        <v>0.02871278219258204</v>
       </c>
       <c r="U14" t="n">
-        <v>0.01145038299032444</v>
+        <v>0.04580157802798201</v>
       </c>
       <c r="V14" t="n">
-        <v>0.01281550202848133</v>
+        <v>0.003632466456552747</v>
       </c>
       <c r="W14" t="n">
-        <v>0.09742220988108412</v>
+        <v>0.080698965303263</v>
       </c>
       <c r="X14" t="n">
-        <v>0.08191441690743777</v>
+        <v>0.0921468594151072</v>
       </c>
       <c r="Y14" t="n">
-        <v>0.01313034341145177</v>
+        <v>0.08350495172101882</v>
       </c>
       <c r="Z14" t="n">
-        <v>0.07073506649058807</v>
+        <v>0.05639506348974395</v>
       </c>
       <c r="AA14" t="n">
-        <v>0.04529985830288361</v>
+        <v>0.002426321423584686</v>
       </c>
       <c r="AB14" t="n">
-        <v>0.02036689863291889</v>
+        <v>0.04474485070015415</v>
       </c>
       <c r="AC14" t="n">
-        <v>-0.04866838671271664</v>
+        <v>-0.04638896380487877</v>
       </c>
     </row>
     <row r="15">
@@ -1830,79 +1830,79 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>0.3950952994330428</v>
+        <v>0.3966528681204628</v>
       </c>
       <c r="F15" t="n">
-        <v>0.06685996055070194</v>
+        <v>0.08618411718433155</v>
       </c>
       <c r="G15" t="n">
-        <v>0.006409520469193889</v>
+        <v>0.05746893775550994</v>
       </c>
       <c r="H15" t="n">
-        <v>0.03949566552882063</v>
+        <v>0.05592555612343191</v>
       </c>
       <c r="I15" t="n">
-        <v>0.003002114205993901</v>
+        <v>0.03788962264673408</v>
       </c>
       <c r="J15" t="n">
-        <v>0.09823598551485636</v>
+        <v>0.1051997852453101</v>
       </c>
       <c r="K15" t="n">
-        <v>0.01481924283528392</v>
+        <v>0.0364809168742519</v>
       </c>
       <c r="L15" t="n">
-        <v>0.1114437657867132</v>
+        <v>0.0354445287152625</v>
       </c>
       <c r="M15" t="n">
-        <v>0.0004228226425548598</v>
+        <v>0.03440821127570396</v>
       </c>
       <c r="N15" t="n">
-        <v>0.0181954277907825</v>
+        <v>0.005943482163195241</v>
       </c>
       <c r="O15" t="n">
-        <v>0.06438248305624707</v>
+        <v>0.001037103705251529</v>
       </c>
       <c r="P15" t="n">
-        <v>0.02171243290657741</v>
+        <v>0.004543695957638946</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.04580947170319538</v>
+        <v>0.01978296720499301</v>
       </c>
       <c r="R15" t="n">
-        <v>0.08285506371676324</v>
+        <v>0.04316045107955416</v>
       </c>
       <c r="S15" t="n">
-        <v>0.007920288066105235</v>
+        <v>0.02945715119959558</v>
       </c>
       <c r="T15" t="n">
-        <v>0.03019678063849297</v>
+        <v>0.04321059978580838</v>
       </c>
       <c r="U15" t="n">
-        <v>2.205238039635857e-05</v>
+        <v>0.03527315817928746</v>
       </c>
       <c r="V15" t="n">
-        <v>0.1114601244252676</v>
+        <v>0.1142755033202947</v>
       </c>
       <c r="W15" t="n">
-        <v>0.06476293005721571</v>
+        <v>0.03403417868616321</v>
       </c>
       <c r="X15" t="n">
-        <v>0.04034678679130581</v>
+        <v>0.003847252519425296</v>
       </c>
       <c r="Y15" t="n">
-        <v>0.003422558455625422</v>
+        <v>0.04916111725349949</v>
       </c>
       <c r="Z15" t="n">
-        <v>0.03360317502325011</v>
+        <v>0.0434056087988898</v>
       </c>
       <c r="AA15" t="n">
-        <v>0.08728286096702804</v>
+        <v>0.0647562427430151</v>
       </c>
       <c r="AB15" t="n">
-        <v>0.04733848648762864</v>
+        <v>0.05910981158285207</v>
       </c>
       <c r="AC15" t="n">
-        <v>0.02677132243999429</v>
+        <v>0.01633438544050347</v>
       </c>
     </row>
     <row r="16">
@@ -1925,79 +1925,79 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>0.284106745050974</v>
+        <v>0.2960611275987388</v>
       </c>
       <c r="F16" t="n">
-        <v>0.008560081433722156</v>
+        <v>0.01561136538485873</v>
       </c>
       <c r="G16" t="n">
-        <v>0.06066718981277254</v>
+        <v>0.06016558047136944</v>
       </c>
       <c r="H16" t="n">
-        <v>0.07061864955282818</v>
+        <v>0.02655341437886796</v>
       </c>
       <c r="I16" t="n">
-        <v>0.0850029806021004</v>
+        <v>0.07986380139277313</v>
       </c>
       <c r="J16" t="n">
-        <v>0.0007470873323549695</v>
+        <v>0.007166185054353845</v>
       </c>
       <c r="K16" t="n">
-        <v>0.02208655196556703</v>
+        <v>0.06732684449648123</v>
       </c>
       <c r="L16" t="n">
-        <v>0.01101414856850702</v>
+        <v>0.00619946102612232</v>
       </c>
       <c r="M16" t="n">
-        <v>0.0222804974343686</v>
+        <v>0.02665878430845539</v>
       </c>
       <c r="N16" t="n">
-        <v>0.07041997981267691</v>
+        <v>0.03074236417211387</v>
       </c>
       <c r="O16" t="n">
-        <v>0.05326834226219385</v>
+        <v>0.02778142795855308</v>
       </c>
       <c r="P16" t="n">
-        <v>0.05947479296609809</v>
+        <v>0.06349759813282028</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.01244665166947437</v>
+        <v>0.06499122683279544</v>
       </c>
       <c r="R16" t="n">
-        <v>0.08075545812907133</v>
+        <v>0.08952455839525722</v>
       </c>
       <c r="S16" t="n">
-        <v>0.0556991293903039</v>
+        <v>0.06375857077845833</v>
       </c>
       <c r="T16" t="n">
-        <v>0.001722391087824007</v>
+        <v>0.07777320535504537</v>
       </c>
       <c r="U16" t="n">
-        <v>0.004835826555846526</v>
+        <v>0.02145197133007574</v>
       </c>
       <c r="V16" t="n">
-        <v>0.0214841014277516</v>
+        <v>0.004288392541466015</v>
       </c>
       <c r="W16" t="n">
-        <v>0.0887477450244043</v>
+        <v>0.08882020175150361</v>
       </c>
       <c r="X16" t="n">
-        <v>0.05763820478432299</v>
+        <v>0.0599149651757737</v>
       </c>
       <c r="Y16" t="n">
-        <v>0.03804443096364492</v>
+        <v>0.01109164372540507</v>
       </c>
       <c r="Z16" t="n">
-        <v>0.07433490189954386</v>
+        <v>0.02628406409322001</v>
       </c>
       <c r="AA16" t="n">
-        <v>0.01136023611520563</v>
+        <v>0.02013432406883526</v>
       </c>
       <c r="AB16" t="n">
-        <v>0.08879062120941694</v>
+        <v>0.0604000491753949</v>
       </c>
       <c r="AC16" t="n">
-        <v>0.135540234814099</v>
+        <v>0.1438630100107573</v>
       </c>
     </row>
     <row r="17">
@@ -2020,79 +2020,79 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>0.7135483375478184</v>
+        <v>0.7886116002653487</v>
       </c>
       <c r="F17" t="n">
-        <v>0.005544411200354908</v>
+        <v>0.008727138047762921</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03688193979430297</v>
+        <v>0.004728616784689163</v>
       </c>
       <c r="H17" t="n">
-        <v>0.06997042576658902</v>
+        <v>0.005037412375833584</v>
       </c>
       <c r="I17" t="n">
-        <v>0.06868165164477877</v>
+        <v>0.03872761000788325</v>
       </c>
       <c r="J17" t="n">
-        <v>0.1053105225200049</v>
+        <v>0.1161002969647529</v>
       </c>
       <c r="K17" t="n">
-        <v>0.06328857434814388</v>
+        <v>0.01182361673258347</v>
       </c>
       <c r="L17" t="n">
-        <v>0.02423317935439025</v>
+        <v>0.07747948253308569</v>
       </c>
       <c r="M17" t="n">
-        <v>0.007760609166179198</v>
+        <v>0.1274293873099068</v>
       </c>
       <c r="N17" t="n">
-        <v>0.01401428967178451</v>
+        <v>0.01369299621854846</v>
       </c>
       <c r="O17" t="n">
-        <v>0.003962380054037781</v>
+        <v>0.03632125558085957</v>
       </c>
       <c r="P17" t="n">
-        <v>0.09004904244207228</v>
+        <v>0.004606178550506642</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.02445861252907754</v>
+        <v>0.005192453029869284</v>
       </c>
       <c r="R17" t="n">
-        <v>0.06209857203186486</v>
+        <v>0.04579050679465072</v>
       </c>
       <c r="S17" t="n">
-        <v>0.004470957391058608</v>
+        <v>0.13011348231045</v>
       </c>
       <c r="T17" t="n">
-        <v>0.1075090157217674</v>
+        <v>0.0077399710664869</v>
       </c>
       <c r="U17" t="n">
-        <v>0.01986696519150433</v>
+        <v>0.006805885361163176</v>
       </c>
       <c r="V17" t="n">
-        <v>0.02743707126463914</v>
+        <v>0.1033300633659238</v>
       </c>
       <c r="W17" t="n">
-        <v>0.03209807589903296</v>
+        <v>0.1181723846932654</v>
       </c>
       <c r="X17" t="n">
-        <v>0.02320364195204093</v>
+        <v>0.08215145270305939</v>
       </c>
       <c r="Y17" t="n">
-        <v>0.0707477972262405</v>
+        <v>0.000805248239595653</v>
       </c>
       <c r="Z17" t="n">
-        <v>0.1027266918689783</v>
+        <v>0.0238494600072958</v>
       </c>
       <c r="AA17" t="n">
-        <v>0.02451319707992149</v>
+        <v>0.01270006731350319</v>
       </c>
       <c r="AB17" t="n">
-        <v>0.01117237588123544</v>
+        <v>0.01867503400832397</v>
       </c>
       <c r="AC17" t="n">
-        <v>0.1665765715871963</v>
+        <v>0.1807597067886283</v>
       </c>
     </row>
     <row r="18">
@@ -2115,79 +2115,79 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>0.3959817530037419</v>
+        <v>0.3306407549593809</v>
       </c>
       <c r="F18" t="n">
-        <v>0.03706488344162823</v>
+        <v>0.08891941410597963</v>
       </c>
       <c r="G18" t="n">
-        <v>0.07094660626720357</v>
+        <v>0.08122090513223798</v>
       </c>
       <c r="H18" t="n">
-        <v>0.004267919581344204</v>
+        <v>0.01274504389430424</v>
       </c>
       <c r="I18" t="n">
-        <v>0.004396140899223392</v>
+        <v>0.08434270498704929</v>
       </c>
       <c r="J18" t="n">
-        <v>0.01073526039645897</v>
+        <v>0.003940259249227623</v>
       </c>
       <c r="K18" t="n">
-        <v>0.0740160901775733</v>
+        <v>0.05488454658483502</v>
       </c>
       <c r="L18" t="n">
-        <v>0.01046805149611749</v>
+        <v>0.01089248636702431</v>
       </c>
       <c r="M18" t="n">
-        <v>0.002374697544566966</v>
+        <v>0.05569129481701941</v>
       </c>
       <c r="N18" t="n">
-        <v>0.04903628200119655</v>
+        <v>0.05756348000815349</v>
       </c>
       <c r="O18" t="n">
-        <v>0.06718096864589114</v>
+        <v>0.03049115942758974</v>
       </c>
       <c r="P18" t="n">
-        <v>0.07356767598342054</v>
+        <v>0.04263307018983663</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.01862125671760012</v>
+        <v>0.0009663309087724139</v>
       </c>
       <c r="R18" t="n">
-        <v>0.07306888394970766</v>
+        <v>0.06852912715939423</v>
       </c>
       <c r="S18" t="n">
-        <v>0.02440051394860363</v>
+        <v>0.006896962422992767</v>
       </c>
       <c r="T18" t="n">
-        <v>0.08379518009054332</v>
+        <v>0.08026703530240677</v>
       </c>
       <c r="U18" t="n">
-        <v>0.06470595301104025</v>
+        <v>0.02676750163799116</v>
       </c>
       <c r="V18" t="n">
-        <v>0.006979524077885381</v>
+        <v>0.004158714133294509</v>
       </c>
       <c r="W18" t="n">
-        <v>0.06596253040773419</v>
+        <v>0.0836959757586586</v>
       </c>
       <c r="X18" t="n">
-        <v>0.0585640793909615</v>
+        <v>0.07465809052098038</v>
       </c>
       <c r="Y18" t="n">
-        <v>0.06237204996437275</v>
+        <v>0.04251819001044811</v>
       </c>
       <c r="Z18" t="n">
-        <v>0.04696310374866089</v>
+        <v>0.07192745575730958</v>
       </c>
       <c r="AA18" t="n">
-        <v>0.01083625937623144</v>
+        <v>0.002193942066716072</v>
       </c>
       <c r="AB18" t="n">
-        <v>0.07967608888203426</v>
+        <v>0.01409630955777809</v>
       </c>
       <c r="AC18" t="n">
-        <v>0.05668147855641685</v>
+        <v>0.05838078500473245</v>
       </c>
     </row>
     <row r="19">
@@ -2210,79 +2210,79 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>0.6704183489509138</v>
+        <v>0.5724097629319836</v>
       </c>
       <c r="F19" t="n">
-        <v>0.08494631171794395</v>
+        <v>0.04254663974091842</v>
       </c>
       <c r="G19" t="n">
-        <v>0.04831821688426358</v>
+        <v>0.05710629492524655</v>
       </c>
       <c r="H19" t="n">
-        <v>0.01113751022975697</v>
+        <v>0.02326079539914711</v>
       </c>
       <c r="I19" t="n">
-        <v>0.06599107965478741</v>
+        <v>0.0124964220507613</v>
       </c>
       <c r="J19" t="n">
-        <v>0.09847519558248419</v>
+        <v>0.06770157209870373</v>
       </c>
       <c r="K19" t="n">
-        <v>0.09376274493998879</v>
+        <v>0.07118045608498501</v>
       </c>
       <c r="L19" t="n">
-        <v>0.0005450081595788057</v>
+        <v>0.009144083568513116</v>
       </c>
       <c r="M19" t="n">
-        <v>0.00187560856456368</v>
+        <v>0.06978791950934207</v>
       </c>
       <c r="N19" t="n">
-        <v>0.03395697851108825</v>
+        <v>0.01996430472176209</v>
       </c>
       <c r="O19" t="n">
-        <v>0.01585806174534883</v>
+        <v>0.005292546180292859</v>
       </c>
       <c r="P19" t="n">
-        <v>0.04637469370234996</v>
+        <v>0.0494842507981083</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.05297942137468205</v>
+        <v>0.06814728255756623</v>
       </c>
       <c r="R19" t="n">
-        <v>0.05299261942436287</v>
+        <v>0.07941350865868656</v>
       </c>
       <c r="S19" t="n">
-        <v>0.03604597083665144</v>
+        <v>0.06487917084592025</v>
       </c>
       <c r="T19" t="n">
-        <v>0.07968462274269254</v>
+        <v>0.08242458376152914</v>
       </c>
       <c r="U19" t="n">
-        <v>0.06138942275957395</v>
+        <v>0.06343872950327864</v>
       </c>
       <c r="V19" t="n">
-        <v>0.02096289782263779</v>
+        <v>0.002340607012639333</v>
       </c>
       <c r="W19" t="n">
-        <v>0.09699459073967408</v>
+        <v>0.04621333463622072</v>
       </c>
       <c r="X19" t="n">
-        <v>0.002596283548217676</v>
+        <v>0.02118416134482736</v>
       </c>
       <c r="Y19" t="n">
-        <v>0.005185564360655499</v>
+        <v>0.01383301930087464</v>
       </c>
       <c r="Z19" t="n">
-        <v>0.02478659258421076</v>
+        <v>0.02164552641430891</v>
       </c>
       <c r="AA19" t="n">
-        <v>0.001174344508101553</v>
+        <v>0.02072892508178203</v>
       </c>
       <c r="AB19" t="n">
-        <v>0.06396625960638559</v>
+        <v>0.08778586580458572</v>
       </c>
       <c r="AC19" t="n">
-        <v>0.08571658106501845</v>
+        <v>0.067394658579482</v>
       </c>
     </row>
     <row r="20">
@@ -2305,79 +2305,79 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>0.1582202647364151</v>
+        <v>0.1527885280522045</v>
       </c>
       <c r="F20" t="n">
-        <v>0.06447603756235012</v>
+        <v>0.08739340747327741</v>
       </c>
       <c r="G20" t="n">
-        <v>0.004485272466148214</v>
+        <v>0.02327715092314824</v>
       </c>
       <c r="H20" t="n">
-        <v>0.009171664737583879</v>
+        <v>0.01572844120492001</v>
       </c>
       <c r="I20" t="n">
-        <v>0.008244954146562298</v>
+        <v>0.01442787829606753</v>
       </c>
       <c r="J20" t="n">
-        <v>0.05394316968963544</v>
+        <v>0.02703806035869769</v>
       </c>
       <c r="K20" t="n">
-        <v>0.06895142017455094</v>
+        <v>0.02275926687789244</v>
       </c>
       <c r="L20" t="n">
-        <v>0.01355884253110525</v>
+        <v>0.03102549726624563</v>
       </c>
       <c r="M20" t="n">
-        <v>0.05235615847354423</v>
+        <v>0.04654323969152958</v>
       </c>
       <c r="N20" t="n">
-        <v>0.08575645336903048</v>
+        <v>0.06127738697960759</v>
       </c>
       <c r="O20" t="n">
-        <v>0.06144600775608926</v>
+        <v>0.05365096575818887</v>
       </c>
       <c r="P20" t="n">
-        <v>0.06966788447367968</v>
+        <v>0.06109734367151145</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.03827924437549098</v>
+        <v>0.02544350105625816</v>
       </c>
       <c r="R20" t="n">
-        <v>0.01804434447161797</v>
+        <v>0.08228471320483709</v>
       </c>
       <c r="S20" t="n">
-        <v>0.06135254258306141</v>
+        <v>0.02347990443510527</v>
       </c>
       <c r="T20" t="n">
-        <v>0.004891431432208169</v>
+        <v>0.06108141152620472</v>
       </c>
       <c r="U20" t="n">
-        <v>0.04886632018618729</v>
+        <v>0.04243606182247657</v>
       </c>
       <c r="V20" t="n">
-        <v>0.0101689307202469</v>
+        <v>0.01065508502010991</v>
       </c>
       <c r="W20" t="n">
-        <v>0.09471883508793139</v>
+        <v>0.08204854597004911</v>
       </c>
       <c r="X20" t="n">
-        <v>0.0925975977121745</v>
+        <v>0.09199324217898527</v>
       </c>
       <c r="Y20" t="n">
-        <v>0.06062713089978876</v>
+        <v>0.03839463990352803</v>
       </c>
       <c r="Z20" t="n">
-        <v>0.05841638680061949</v>
+        <v>0.09017557386848561</v>
       </c>
       <c r="AA20" t="n">
-        <v>0.01421238118260106</v>
+        <v>0.006937011236224861</v>
       </c>
       <c r="AB20" t="n">
-        <v>0.005766989167792352</v>
+        <v>0.0008516712766490025</v>
       </c>
       <c r="AC20" t="n">
-        <v>-0.1698409635960946</v>
+        <v>-0.1527120297921342</v>
       </c>
     </row>
     <row r="21">
@@ -2400,79 +2400,79 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>0.20853669674888</v>
+        <v>0.2025983380260874</v>
       </c>
       <c r="F21" t="n">
-        <v>0.08921041446423908</v>
+        <v>0.05232191898051211</v>
       </c>
       <c r="G21" t="n">
-        <v>0.07050079847826614</v>
+        <v>0.05295928275485101</v>
       </c>
       <c r="H21" t="n">
-        <v>0.05463824434920959</v>
+        <v>0.07021753305515541</v>
       </c>
       <c r="I21" t="n">
-        <v>0.006047320929265442</v>
+        <v>0.02898953724799205</v>
       </c>
       <c r="J21" t="n">
-        <v>0.07510907410419654</v>
+        <v>0.07190639221052063</v>
       </c>
       <c r="K21" t="n">
-        <v>0.07877076878654277</v>
+        <v>0.08187593743409277</v>
       </c>
       <c r="L21" t="n">
-        <v>0.04248943362473389</v>
+        <v>0.009908747549236197</v>
       </c>
       <c r="M21" t="n">
-        <v>0.002676452059430448</v>
+        <v>0.01919981743120367</v>
       </c>
       <c r="N21" t="n">
-        <v>0.03414134746552056</v>
+        <v>0.03514386374472513</v>
       </c>
       <c r="O21" t="n">
-        <v>0.02717442483999518</v>
+        <v>0.03110388172546919</v>
       </c>
       <c r="P21" t="n">
-        <v>0.02371917236242433</v>
+        <v>0.04792058382387809</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.0111387962709799</v>
+        <v>0.01012070424922188</v>
       </c>
       <c r="R21" t="n">
-        <v>0.0521845975684457</v>
+        <v>0.07342715621069319</v>
       </c>
       <c r="S21" t="n">
-        <v>0.1003761361778324</v>
+        <v>0.02359856834133624</v>
       </c>
       <c r="T21" t="n">
-        <v>0.003116978819708089</v>
+        <v>0.01722934743445619</v>
       </c>
       <c r="U21" t="n">
-        <v>0.02118953371546562</v>
+        <v>0.09192153893331662</v>
       </c>
       <c r="V21" t="n">
-        <v>0.01345518581969387</v>
+        <v>0.04201567871398267</v>
       </c>
       <c r="W21" t="n">
-        <v>0.03640923083660304</v>
+        <v>0.04918585352155826</v>
       </c>
       <c r="X21" t="n">
-        <v>0.03148815395580088</v>
+        <v>0.03358831171747755</v>
       </c>
       <c r="Y21" t="n">
-        <v>0.05622401932751166</v>
+        <v>0.01167179884894436</v>
       </c>
       <c r="Z21" t="n">
-        <v>0.03500079135326803</v>
+        <v>0.09029521032988953</v>
       </c>
       <c r="AA21" t="n">
-        <v>0.04042865228772804</v>
+        <v>0.003808366744891979</v>
       </c>
       <c r="AB21" t="n">
-        <v>0.09451047240313898</v>
+        <v>0.05158996899659542</v>
       </c>
       <c r="AC21" t="n">
-        <v>-0.1921421217685526</v>
+        <v>-0.1709671241885869</v>
       </c>
     </row>
     <row r="22">
@@ -2495,79 +2495,79 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>0.1896095783543965</v>
+        <v>0.1860999524895419</v>
       </c>
       <c r="F22" t="n">
-        <v>0.06930533560145145</v>
+        <v>0.04894506177942288</v>
       </c>
       <c r="G22" t="n">
-        <v>0.02978293010015098</v>
+        <v>0.0543262129740396</v>
       </c>
       <c r="H22" t="n">
-        <v>0.04768271506756752</v>
+        <v>0.003898307583687749</v>
       </c>
       <c r="I22" t="n">
-        <v>0.03256128184463554</v>
+        <v>0.04103250637029104</v>
       </c>
       <c r="J22" t="n">
-        <v>0.02810059347108307</v>
+        <v>0.04103415627071271</v>
       </c>
       <c r="K22" t="n">
-        <v>0.01476601173997654</v>
+        <v>0.03504793242140584</v>
       </c>
       <c r="L22" t="n">
-        <v>0.008304554782059192</v>
+        <v>0.06536178732650186</v>
       </c>
       <c r="M22" t="n">
-        <v>0.02796402242675911</v>
+        <v>0.01487821698198921</v>
       </c>
       <c r="N22" t="n">
-        <v>0.002495065797354474</v>
+        <v>0.01201290316168043</v>
       </c>
       <c r="O22" t="n">
-        <v>0.004599692689042134</v>
+        <v>0.01327863529274529</v>
       </c>
       <c r="P22" t="n">
-        <v>0.04287750108184693</v>
+        <v>0.05890504938829384</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.08010650860918053</v>
+        <v>0.02908267628555427</v>
       </c>
       <c r="R22" t="n">
-        <v>0.05656665944280866</v>
+        <v>0.08068881087526598</v>
       </c>
       <c r="S22" t="n">
-        <v>0.09297371712355611</v>
+        <v>0.03138384504823268</v>
       </c>
       <c r="T22" t="n">
-        <v>0.01935739099491767</v>
+        <v>0.02570221241267464</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08736868082565157</v>
+        <v>0.1113868016741118</v>
       </c>
       <c r="V22" t="n">
-        <v>0.021056959498215</v>
+        <v>0.003584391337740095</v>
       </c>
       <c r="W22" t="n">
-        <v>0.07071794187254563</v>
+        <v>0.09205605238610541</v>
       </c>
       <c r="X22" t="n">
-        <v>0.05703596325778812</v>
+        <v>0.1081159944458652</v>
       </c>
       <c r="Y22" t="n">
-        <v>0.02124928514567796</v>
+        <v>0.01213497694498364</v>
       </c>
       <c r="Z22" t="n">
-        <v>0.05034088740698139</v>
+        <v>0.1081468547475067</v>
       </c>
       <c r="AA22" t="n">
-        <v>0.0860300215635708</v>
+        <v>0.006149704335068385</v>
       </c>
       <c r="AB22" t="n">
-        <v>0.04875627965717962</v>
+        <v>0.002846909956120551</v>
       </c>
       <c r="AC22" t="n">
-        <v>0.04182933031425062</v>
+        <v>0.07051987772539384</v>
       </c>
     </row>
     <row r="23">
@@ -2590,79 +2590,79 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>0.2002993201838355</v>
+        <v>0.2107438905621054</v>
       </c>
       <c r="F23" t="n">
-        <v>0.02566654141184306</v>
+        <v>0.02282002283026376</v>
       </c>
       <c r="G23" t="n">
-        <v>0.09012463495353923</v>
+        <v>0.03501734409501934</v>
       </c>
       <c r="H23" t="n">
-        <v>0.07196979375998763</v>
+        <v>0.08515590206848228</v>
       </c>
       <c r="I23" t="n">
-        <v>0.007786872683649219</v>
+        <v>0.0151944785276192</v>
       </c>
       <c r="J23" t="n">
-        <v>0.02422487646198415</v>
+        <v>0.07847792970604632</v>
       </c>
       <c r="K23" t="n">
-        <v>0.03532416496924629</v>
+        <v>0.009731336776966927</v>
       </c>
       <c r="L23" t="n">
-        <v>0.06930619899443846</v>
+        <v>0.05604895285629117</v>
       </c>
       <c r="M23" t="n">
-        <v>0.001026924627781617</v>
+        <v>0.02788703031198779</v>
       </c>
       <c r="N23" t="n">
-        <v>0.01896325889335674</v>
+        <v>0.06971842070904867</v>
       </c>
       <c r="O23" t="n">
-        <v>0.0263457170925436</v>
+        <v>0.06410792299796349</v>
       </c>
       <c r="P23" t="n">
-        <v>0.01332178523895629</v>
+        <v>0.006176909083778609</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.02927916953796456</v>
+        <v>0.02122124625226573</v>
       </c>
       <c r="R23" t="n">
-        <v>0.08491275434306787</v>
+        <v>0.07677178311014364</v>
       </c>
       <c r="S23" t="n">
-        <v>0.09503028561866869</v>
+        <v>0.08728174036747492</v>
       </c>
       <c r="T23" t="n">
-        <v>0.01175938232992825</v>
+        <v>0.03100273614295391</v>
       </c>
       <c r="U23" t="n">
-        <v>0.06103234146637595</v>
+        <v>0.01866132938116308</v>
       </c>
       <c r="V23" t="n">
-        <v>0.08624364298028053</v>
+        <v>0.08359746053736224</v>
       </c>
       <c r="W23" t="n">
-        <v>0.0717446546672431</v>
+        <v>0.08818266905478485</v>
       </c>
       <c r="X23" t="n">
-        <v>0.03709736648928546</v>
+        <v>0.01984654488835846</v>
       </c>
       <c r="Y23" t="n">
-        <v>0.02407661462143592</v>
+        <v>0.00697290169536246</v>
       </c>
       <c r="Z23" t="n">
-        <v>0.09758577611324906</v>
+        <v>0.05901589902669056</v>
       </c>
       <c r="AA23" t="n">
-        <v>0.009042366918224749</v>
+        <v>0.03473398911697614</v>
       </c>
       <c r="AB23" t="n">
-        <v>0.008134875826949724</v>
+        <v>0.002375450462996406</v>
       </c>
       <c r="AC23" t="n">
-        <v>0.04773966497313991</v>
+        <v>0.02956814685209262</v>
       </c>
     </row>
     <row r="24">
@@ -2685,79 +2685,79 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>0.190869183567622</v>
+        <v>0.1905059908223093</v>
       </c>
       <c r="F24" t="n">
-        <v>0.07401287569227637</v>
+        <v>0.06681700605963167</v>
       </c>
       <c r="G24" t="n">
-        <v>0.01067703675349198</v>
+        <v>0.04564855883403784</v>
       </c>
       <c r="H24" t="n">
-        <v>0.03045781675205162</v>
+        <v>0.03224097628433992</v>
       </c>
       <c r="I24" t="n">
-        <v>0.0559648685891881</v>
+        <v>0.01697670239275298</v>
       </c>
       <c r="J24" t="n">
-        <v>0.0006510669081380275</v>
+        <v>0.003595434500077307</v>
       </c>
       <c r="K24" t="n">
-        <v>0.01803538614408161</v>
+        <v>0.009515845623445854</v>
       </c>
       <c r="L24" t="n">
-        <v>0.04160861432765078</v>
+        <v>0.0751129454476656</v>
       </c>
       <c r="M24" t="n">
-        <v>0.07856293854969568</v>
+        <v>0.05898870846980565</v>
       </c>
       <c r="N24" t="n">
-        <v>0.01964432909607329</v>
+        <v>0.008839492348439702</v>
       </c>
       <c r="O24" t="n">
-        <v>0.04372166637544107</v>
+        <v>0.07013708117926334</v>
       </c>
       <c r="P24" t="n">
-        <v>0.06993979420940129</v>
+        <v>0.07825983692831577</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.03101492821331488</v>
+        <v>0.005103792429750004</v>
       </c>
       <c r="R24" t="n">
-        <v>0.08422705654963272</v>
+        <v>0.06635972161969068</v>
       </c>
       <c r="S24" t="n">
-        <v>0.08409411223623502</v>
+        <v>0.0279667190313411</v>
       </c>
       <c r="T24" t="n">
-        <v>0.02945745409509033</v>
+        <v>0.003582418142634715</v>
       </c>
       <c r="U24" t="n">
-        <v>0.0710309606952509</v>
+        <v>0.06911347023094458</v>
       </c>
       <c r="V24" t="n">
-        <v>0.0005276161525124323</v>
+        <v>0.04910765112888531</v>
       </c>
       <c r="W24" t="n">
-        <v>0.05067057682358157</v>
+        <v>0.08015810331207091</v>
       </c>
       <c r="X24" t="n">
-        <v>0.03442516858946586</v>
+        <v>0.06053025606647481</v>
       </c>
       <c r="Y24" t="n">
-        <v>0.0850379100232532</v>
+        <v>0.0570641268307759</v>
       </c>
       <c r="Z24" t="n">
-        <v>0.007030787463291714</v>
+        <v>0.06624356938414667</v>
       </c>
       <c r="AA24" t="n">
-        <v>0.06553481186837871</v>
+        <v>0.04726059258760625</v>
       </c>
       <c r="AB24" t="n">
-        <v>0.01367222389250286</v>
+        <v>0.001376991167903332</v>
       </c>
       <c r="AC24" t="n">
-        <v>0.1017485557586177</v>
+        <v>0.1301955247480747</v>
       </c>
     </row>
     <row r="25">
@@ -2780,79 +2780,79 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>0.2149379861636769</v>
+        <v>0.2211852171224477</v>
       </c>
       <c r="F25" t="n">
-        <v>0.03453573293802513</v>
+        <v>5.190874285187294e-05</v>
       </c>
       <c r="G25" t="n">
-        <v>0.006159206400453982</v>
+        <v>0.003802439999917868</v>
       </c>
       <c r="H25" t="n">
-        <v>0.04723457300931326</v>
+        <v>0.04611821022017252</v>
       </c>
       <c r="I25" t="n">
-        <v>0.1030432216379783</v>
+        <v>0.09753113903260666</v>
       </c>
       <c r="J25" t="n">
-        <v>0.07259281559713143</v>
+        <v>0.08648552460273556</v>
       </c>
       <c r="K25" t="n">
-        <v>0.01709167996552781</v>
+        <v>0.02925661992085653</v>
       </c>
       <c r="L25" t="n">
-        <v>0.003683999461046156</v>
+        <v>0.01652095892404765</v>
       </c>
       <c r="M25" t="n">
-        <v>0.02847226085616281</v>
+        <v>0.04624319384649732</v>
       </c>
       <c r="N25" t="n">
-        <v>0.04658765469304537</v>
+        <v>0.06331759298284972</v>
       </c>
       <c r="O25" t="n">
-        <v>0.02287850473905693</v>
+        <v>0.0400047631149908</v>
       </c>
       <c r="P25" t="n">
-        <v>0.0908807014906805</v>
+        <v>0.02578065719285142</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.001913541316131741</v>
+        <v>0.05639800319065429</v>
       </c>
       <c r="R25" t="n">
-        <v>0.1070781159759609</v>
+        <v>0.1009175802008481</v>
       </c>
       <c r="S25" t="n">
-        <v>0.07036081330011737</v>
+        <v>0.0573389761899304</v>
       </c>
       <c r="T25" t="n">
-        <v>0.03832695844800523</v>
+        <v>0.06329393100017233</v>
       </c>
       <c r="U25" t="n">
-        <v>0.009939157091059454</v>
+        <v>0.0492470196205119</v>
       </c>
       <c r="V25" t="n">
-        <v>0.1037238745620861</v>
+        <v>0.03328201538313239</v>
       </c>
       <c r="W25" t="n">
-        <v>0.06338907766352442</v>
+        <v>0.1113880620020847</v>
       </c>
       <c r="X25" t="n">
-        <v>0.01282227785388648</v>
+        <v>0.0150547932686132</v>
       </c>
       <c r="Y25" t="n">
-        <v>0.05867575610224939</v>
+        <v>0.003013144865471047</v>
       </c>
       <c r="Z25" t="n">
-        <v>0.03626581316495643</v>
+        <v>0.006271044230976081</v>
       </c>
       <c r="AA25" t="n">
-        <v>0.01956180783307562</v>
+        <v>0.006990643982641146</v>
       </c>
       <c r="AB25" t="n">
-        <v>0.004782455900524914</v>
+        <v>0.04169177748458651</v>
       </c>
       <c r="AC25" t="n">
-        <v>0.119201504951575</v>
+        <v>0.1343131301266305</v>
       </c>
     </row>
     <row r="26">
@@ -2875,79 +2875,79 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>0.2213972947136812</v>
+        <v>0.2294608239295036</v>
       </c>
       <c r="F26" t="n">
-        <v>0.008993635160443327</v>
+        <v>7.875976390938555e-05</v>
       </c>
       <c r="G26" t="n">
-        <v>0.01974752798413138</v>
+        <v>0.09441486611933898</v>
       </c>
       <c r="H26" t="n">
-        <v>0.0732218369135111</v>
+        <v>0.02982990256977477</v>
       </c>
       <c r="I26" t="n">
-        <v>0.0009511723740459054</v>
+        <v>0.01584030565860325</v>
       </c>
       <c r="J26" t="n">
-        <v>0.07081528467170721</v>
+        <v>0.05556405177950148</v>
       </c>
       <c r="K26" t="n">
-        <v>0.03057890580849693</v>
+        <v>0.006583901664712099</v>
       </c>
       <c r="L26" t="n">
-        <v>0.0294693310610012</v>
+        <v>0.01496307116234648</v>
       </c>
       <c r="M26" t="n">
-        <v>0.07263688917337233</v>
+        <v>0.07542664194848411</v>
       </c>
       <c r="N26" t="n">
-        <v>0.05817103422972127</v>
+        <v>0.01953735714109855</v>
       </c>
       <c r="O26" t="n">
-        <v>0.005044717675439207</v>
+        <v>0.03591114747663255</v>
       </c>
       <c r="P26" t="n">
-        <v>0.08590830968625647</v>
+        <v>0.06903347274166753</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.100160788089387</v>
+        <v>0.00732455835619524</v>
       </c>
       <c r="R26" t="n">
-        <v>0.07197456667204549</v>
+        <v>0.08775413193967077</v>
       </c>
       <c r="S26" t="n">
-        <v>0.05528462024129722</v>
+        <v>0.05742665642286124</v>
       </c>
       <c r="T26" t="n">
-        <v>0.003231370535316839</v>
+        <v>0.01073007942593427</v>
       </c>
       <c r="U26" t="n">
-        <v>0.09573855043987532</v>
+        <v>0.09117102980601294</v>
       </c>
       <c r="V26" t="n">
-        <v>0.0005861456200163391</v>
+        <v>0.06419000308072081</v>
       </c>
       <c r="W26" t="n">
-        <v>0.002390701217999694</v>
+        <v>0.01967851593880033</v>
       </c>
       <c r="X26" t="n">
-        <v>0.001404788435415204</v>
+        <v>0.005789843024243391</v>
       </c>
       <c r="Y26" t="n">
-        <v>0.06110137185874643</v>
+        <v>0.07417748762114201</v>
       </c>
       <c r="Z26" t="n">
-        <v>0.02655066398744001</v>
+        <v>0.05373860653925387</v>
       </c>
       <c r="AA26" t="n">
-        <v>0.04275588383474765</v>
+        <v>0.02968549356816854</v>
       </c>
       <c r="AB26" t="n">
-        <v>0.0832819043295864</v>
+        <v>0.08115011625092738</v>
       </c>
       <c r="AC26" t="n">
-        <v>-0.02440658648569748</v>
+        <v>-0.00479430540158214</v>
       </c>
     </row>
     <row r="27">
@@ -2970,79 +2970,79 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>0.3073790826499307</v>
+        <v>0.2710932798781874</v>
       </c>
       <c r="F27" t="n">
-        <v>0.07577959340396193</v>
+        <v>0.02776703261772872</v>
       </c>
       <c r="G27" t="n">
-        <v>0.06880306173696009</v>
+        <v>0.04108109977890566</v>
       </c>
       <c r="H27" t="n">
-        <v>0.06565296732877615</v>
+        <v>0.05310756582414022</v>
       </c>
       <c r="I27" t="n">
-        <v>0.04072552783045472</v>
+        <v>0.04244648918636755</v>
       </c>
       <c r="J27" t="n">
-        <v>0.09451533026295651</v>
+        <v>0.09500778496948829</v>
       </c>
       <c r="K27" t="n">
-        <v>0.1048110290850574</v>
+        <v>0.08181618906574681</v>
       </c>
       <c r="L27" t="n">
-        <v>0.03733401113106399</v>
+        <v>0.06002499201185206</v>
       </c>
       <c r="M27" t="n">
-        <v>0.05300569202287984</v>
+        <v>0.01765941761340501</v>
       </c>
       <c r="N27" t="n">
-        <v>0.01411370629253792</v>
+        <v>0.0402261183940124</v>
       </c>
       <c r="O27" t="n">
-        <v>0.02035507845808145</v>
+        <v>0.02368335026138589</v>
       </c>
       <c r="P27" t="n">
-        <v>0.009717164083088304</v>
+        <v>0.022926764898727</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.004483179425687115</v>
+        <v>0.0268302565516409</v>
       </c>
       <c r="R27" t="n">
-        <v>0.08328980303857463</v>
+        <v>0.09260620092838374</v>
       </c>
       <c r="S27" t="n">
-        <v>0.04955883427557504</v>
+        <v>0.05642410662404301</v>
       </c>
       <c r="T27" t="n">
-        <v>0.03716203450077925</v>
+        <v>0.08024078473242249</v>
       </c>
       <c r="U27" t="n">
-        <v>0.07828595356794125</v>
+        <v>0.09200384419538708</v>
       </c>
       <c r="V27" t="n">
-        <v>0.018022751508825</v>
+        <v>0.001230909995825806</v>
       </c>
       <c r="W27" t="n">
-        <v>0.01956594178516617</v>
+        <v>0.01485846868329524</v>
       </c>
       <c r="X27" t="n">
-        <v>0.02118285182830581</v>
+        <v>0.01678637985241367</v>
       </c>
       <c r="Y27" t="n">
-        <v>0.01899468159523789</v>
+        <v>0.0002324603860528872</v>
       </c>
       <c r="Z27" t="n">
-        <v>0.05855437365192724</v>
+        <v>0.09730165410868355</v>
       </c>
       <c r="AA27" t="n">
-        <v>0.004907425796230674</v>
+        <v>0.00294510841662505</v>
       </c>
       <c r="AB27" t="n">
-        <v>0.02117900738993137</v>
+        <v>0.01279302090346682</v>
       </c>
       <c r="AC27" t="n">
-        <v>0.04398145420056535</v>
+        <v>0.03343570931646109</v>
       </c>
     </row>
     <row r="28">
@@ -3065,79 +3065,79 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>0.1963638924363675</v>
+        <v>0.2055637524298855</v>
       </c>
       <c r="F28" t="n">
-        <v>0.02824152813630061</v>
+        <v>0.06906142007717579</v>
       </c>
       <c r="G28" t="n">
-        <v>0.02657138439295625</v>
+        <v>0.02890666274211226</v>
       </c>
       <c r="H28" t="n">
-        <v>0.01690243677641553</v>
+        <v>0.07076219619857971</v>
       </c>
       <c r="I28" t="n">
-        <v>0.01548430764723894</v>
+        <v>0.04673173237632428</v>
       </c>
       <c r="J28" t="n">
-        <v>0.002380383354466878</v>
+        <v>0.004140860140891192</v>
       </c>
       <c r="K28" t="n">
-        <v>0.003540395937223246</v>
+        <v>0.00952727970146261</v>
       </c>
       <c r="L28" t="n">
-        <v>0.01207975998517603</v>
+        <v>0.05037483928976575</v>
       </c>
       <c r="M28" t="n">
-        <v>0.08815974069560524</v>
+        <v>0.01628459842816092</v>
       </c>
       <c r="N28" t="n">
-        <v>0.002695454099538697</v>
+        <v>0.04188558446464133</v>
       </c>
       <c r="O28" t="n">
-        <v>0.01175102056059043</v>
+        <v>0.01024285287404053</v>
       </c>
       <c r="P28" t="n">
-        <v>0.07204636646382032</v>
+        <v>0.04759221870930985</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.02818898934449733</v>
+        <v>0.05926244445161963</v>
       </c>
       <c r="R28" t="n">
-        <v>0.07252339738275092</v>
+        <v>0.06179277249513387</v>
       </c>
       <c r="S28" t="n">
-        <v>0.09945714069437693</v>
+        <v>0.09700981435556481</v>
       </c>
       <c r="T28" t="n">
-        <v>0.004647650417261459</v>
+        <v>0.01424922593234581</v>
       </c>
       <c r="U28" t="n">
-        <v>0.09564590398971609</v>
+        <v>0.03550748788428294</v>
       </c>
       <c r="V28" t="n">
-        <v>0.05146318217952325</v>
+        <v>0.05734412861161534</v>
       </c>
       <c r="W28" t="n">
-        <v>0.07101545054726803</v>
+        <v>0.0970029857548026</v>
       </c>
       <c r="X28" t="n">
-        <v>0.09439779735408527</v>
+        <v>0.03293124037870911</v>
       </c>
       <c r="Y28" t="n">
-        <v>0.0409020178464266</v>
+        <v>0.02426058247352107</v>
       </c>
       <c r="Z28" t="n">
-        <v>0.0434970054776608</v>
+        <v>0.07176889633917172</v>
       </c>
       <c r="AA28" t="n">
-        <v>0.03984414682997894</v>
+        <v>0.02406651845798888</v>
       </c>
       <c r="AB28" t="n">
-        <v>0.07856453988712211</v>
+        <v>0.02929365786277998</v>
       </c>
       <c r="AC28" t="n">
-        <v>0.1571906559160828</v>
+        <v>0.1470176520617906</v>
       </c>
     </row>
     <row r="29">
@@ -3160,79 +3160,79 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>0.5623017561390117</v>
+        <v>0.458695646830623</v>
       </c>
       <c r="F29" t="n">
-        <v>0.00706822643922264</v>
+        <v>0.002693545553805602</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04828930396917697</v>
+        <v>0.08901884296722178</v>
       </c>
       <c r="H29" t="n">
-        <v>0.01427895164812312</v>
+        <v>0.002457700890038432</v>
       </c>
       <c r="I29" t="n">
-        <v>0.1059415800633961</v>
+        <v>0.01432291673201341</v>
       </c>
       <c r="J29" t="n">
-        <v>0.02167966732758565</v>
+        <v>0.02167920588003451</v>
       </c>
       <c r="K29" t="n">
-        <v>0.1246865526057019</v>
+        <v>0.1048472926105941</v>
       </c>
       <c r="L29" t="n">
-        <v>0.04301446591958282</v>
+        <v>0.0001060583000225507</v>
       </c>
       <c r="M29" t="n">
-        <v>0.008557145570865935</v>
+        <v>0.0243587811713816</v>
       </c>
       <c r="N29" t="n">
-        <v>0.05637398783704462</v>
+        <v>0.007080820566098061</v>
       </c>
       <c r="O29" t="n">
-        <v>0.07037081066433941</v>
+        <v>0.1178425668562458</v>
       </c>
       <c r="P29" t="n">
-        <v>0.0104851805612502</v>
+        <v>0.1122433653131701</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.09675680758794371</v>
+        <v>0.00966326574154072</v>
       </c>
       <c r="R29" t="n">
-        <v>0.01660832880796386</v>
+        <v>0.0502600932928039</v>
       </c>
       <c r="S29" t="n">
-        <v>0.07462026158485509</v>
+        <v>0.07831393295792059</v>
       </c>
       <c r="T29" t="n">
-        <v>0.02485133594834976</v>
+        <v>0.02355066024712497</v>
       </c>
       <c r="U29" t="n">
-        <v>0.01430972612271755</v>
+        <v>0.03129535480030458</v>
       </c>
       <c r="V29" t="n">
-        <v>0.109945248390153</v>
+        <v>0.06950852945138407</v>
       </c>
       <c r="W29" t="n">
-        <v>0.06947913911745592</v>
+        <v>0.06839300154687016</v>
       </c>
       <c r="X29" t="n">
-        <v>0.02540412294252433</v>
+        <v>0.04291938420263067</v>
       </c>
       <c r="Y29" t="n">
-        <v>0.0005063879911583498</v>
+        <v>0.02004566857783168</v>
       </c>
       <c r="Z29" t="n">
-        <v>0.01892407125245416</v>
+        <v>0.01130380020999145</v>
       </c>
       <c r="AA29" t="n">
-        <v>0.03471532409587453</v>
+        <v>0.04469840151527998</v>
       </c>
       <c r="AB29" t="n">
-        <v>0.003133373552260265</v>
+        <v>0.05339681061569116</v>
       </c>
       <c r="AC29" t="n">
-        <v>0.2011895141060664</v>
+        <v>0.2177131728358107</v>
       </c>
     </row>
     <row r="30">
@@ -3255,79 +3255,79 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>0.1598409565638368</v>
+        <v>0.1601813247543319</v>
       </c>
       <c r="F30" t="n">
-        <v>0.04101521297967172</v>
+        <v>0.06863848463342793</v>
       </c>
       <c r="G30" t="n">
-        <v>0.06022408354462603</v>
+        <v>0.02507138138093002</v>
       </c>
       <c r="H30" t="n">
-        <v>0.06695802925366949</v>
+        <v>0.04737122491835899</v>
       </c>
       <c r="I30" t="n">
-        <v>0.009804696791705654</v>
+        <v>0.005217981831555415</v>
       </c>
       <c r="J30" t="n">
-        <v>0.02421031520054122</v>
+        <v>0.07846640361446748</v>
       </c>
       <c r="K30" t="n">
-        <v>0.00092570526669852</v>
+        <v>0.003477734068200919</v>
       </c>
       <c r="L30" t="n">
-        <v>0.06056604513452662</v>
+        <v>0.04248413625525514</v>
       </c>
       <c r="M30" t="n">
-        <v>0.0543431807394737</v>
+        <v>0.06649901249678525</v>
       </c>
       <c r="N30" t="n">
-        <v>0.04440832739395852</v>
+        <v>0.08480091723895263</v>
       </c>
       <c r="O30" t="n">
-        <v>0.01301237072644355</v>
+        <v>0.008538714140435147</v>
       </c>
       <c r="P30" t="n">
-        <v>0.07477260939745059</v>
+        <v>0.02185470111083979</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.07506091865589402</v>
+        <v>0.06308746356182737</v>
       </c>
       <c r="R30" t="n">
-        <v>0.06440149818452161</v>
+        <v>0.08360512885323131</v>
       </c>
       <c r="S30" t="n">
-        <v>0.07325147477047476</v>
+        <v>0.01877900924435007</v>
       </c>
       <c r="T30" t="n">
-        <v>0.02789199564893306</v>
+        <v>0.02136466636086821</v>
       </c>
       <c r="U30" t="n">
-        <v>0.008058403894385627</v>
+        <v>0.04960422982775818</v>
       </c>
       <c r="V30" t="n">
-        <v>0.06917151561013031</v>
+        <v>0.03883871287814215</v>
       </c>
       <c r="W30" t="n">
-        <v>0.01387804542183615</v>
+        <v>0.02813677920058643</v>
       </c>
       <c r="X30" t="n">
-        <v>0.03068998829412017</v>
+        <v>0.06698356998793545</v>
       </c>
       <c r="Y30" t="n">
-        <v>0.07438746502316666</v>
+        <v>0.05417251656206311</v>
       </c>
       <c r="Z30" t="n">
-        <v>0.08166892998931137</v>
+        <v>0.02615796276757116</v>
       </c>
       <c r="AA30" t="n">
-        <v>0.02693298873937516</v>
+        <v>0.09070682633342676</v>
       </c>
       <c r="AB30" t="n">
-        <v>0.004366199339085489</v>
+        <v>0.006142442733030898</v>
       </c>
       <c r="AC30" t="n">
-        <v>0.03219186172491109</v>
+        <v>0.009390998057026095</v>
       </c>
     </row>
     <row r="31">
@@ -3350,79 +3350,79 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>0.1838186881571947</v>
+        <v>0.1956745807257464</v>
       </c>
       <c r="F31" t="n">
-        <v>0.0547680056436687</v>
+        <v>0.04913658995890896</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03919966674204054</v>
+        <v>0.006785217133088547</v>
       </c>
       <c r="H31" t="n">
-        <v>0.1234954525658665</v>
+        <v>0.07685631491418729</v>
       </c>
       <c r="I31" t="n">
-        <v>0.007540956579567592</v>
+        <v>0.01923610712761053</v>
       </c>
       <c r="J31" t="n">
-        <v>0.03138101889686946</v>
+        <v>0.05284877232128665</v>
       </c>
       <c r="K31" t="n">
-        <v>0.01098632246787062</v>
+        <v>0.01654650294104792</v>
       </c>
       <c r="L31" t="n">
-        <v>0.04014503371257799</v>
+        <v>0.04175876919933902</v>
       </c>
       <c r="M31" t="n">
-        <v>0.1098378161432084</v>
+        <v>0.02641286292891878</v>
       </c>
       <c r="N31" t="n">
-        <v>0.004996139329538664</v>
+        <v>0.009659314760782902</v>
       </c>
       <c r="O31" t="n">
-        <v>0.01827255686821902</v>
+        <v>0.0526601481434076</v>
       </c>
       <c r="P31" t="n">
-        <v>0.009663344670039833</v>
+        <v>0.02420524763717285</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.04241283490720513</v>
+        <v>0.03687975785790574</v>
       </c>
       <c r="R31" t="n">
-        <v>0.008632967056658426</v>
+        <v>0.05003414181113928</v>
       </c>
       <c r="S31" t="n">
-        <v>0.05073262487058088</v>
+        <v>0.05576752745711917</v>
       </c>
       <c r="T31" t="n">
-        <v>0.0589701791076656</v>
+        <v>0.1093897693035327</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08612721697301758</v>
+        <v>0.01337190783305129</v>
       </c>
       <c r="V31" t="n">
-        <v>0.1178905849247257</v>
+        <v>0.1090047829057113</v>
       </c>
       <c r="W31" t="n">
-        <v>0.01894845555201738</v>
+        <v>0.001456595493162023</v>
       </c>
       <c r="X31" t="n">
-        <v>0.02489205690841589</v>
+        <v>0.08236238646390626</v>
       </c>
       <c r="Y31" t="n">
-        <v>0.07693797546474397</v>
+        <v>0.04105994398578428</v>
       </c>
       <c r="Z31" t="n">
-        <v>0.02368906842009797</v>
+        <v>0.01404541417042265</v>
       </c>
       <c r="AA31" t="n">
-        <v>0.02248845676184705</v>
+        <v>0.05310227257085873</v>
       </c>
       <c r="AB31" t="n">
-        <v>0.01799126543355719</v>
+        <v>0.05741965308165532</v>
       </c>
       <c r="AC31" t="n">
-        <v>0.05619126172602187</v>
+        <v>0.05560221833922227</v>
       </c>
     </row>
     <row r="32">
@@ -3445,79 +3445,79 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>0.1363668781439698</v>
+        <v>0.1390668282380595</v>
       </c>
       <c r="F32" t="n">
-        <v>0.07310085354716411</v>
+        <v>0.08233802091704603</v>
       </c>
       <c r="G32" t="n">
-        <v>0.0331640751289603</v>
+        <v>0.01074749265110125</v>
       </c>
       <c r="H32" t="n">
-        <v>0.001127784619956469</v>
+        <v>0.009315961774587586</v>
       </c>
       <c r="I32" t="n">
-        <v>0.07617170590172379</v>
+        <v>0.009596390619622797</v>
       </c>
       <c r="J32" t="n">
-        <v>0.02572111351094369</v>
+        <v>0.02734207936558589</v>
       </c>
       <c r="K32" t="n">
-        <v>0.02150592741212962</v>
+        <v>0.04477985336898706</v>
       </c>
       <c r="L32" t="n">
-        <v>0.01613534619703994</v>
+        <v>0.02811094183376096</v>
       </c>
       <c r="M32" t="n">
-        <v>0.05276272330514868</v>
+        <v>0.08787990918174864</v>
       </c>
       <c r="N32" t="n">
-        <v>0.06831096761023989</v>
+        <v>0.07769402269733713</v>
       </c>
       <c r="O32" t="n">
-        <v>0.02563360889383759</v>
+        <v>0.01662491890983491</v>
       </c>
       <c r="P32" t="n">
-        <v>0.03895036970414313</v>
+        <v>0.01708643327213739</v>
       </c>
       <c r="Q32" t="n">
-        <v>0.06919615071335512</v>
+        <v>0.07094465787497473</v>
       </c>
       <c r="R32" t="n">
-        <v>0.08855052770036227</v>
+        <v>0.08858510043128666</v>
       </c>
       <c r="S32" t="n">
-        <v>0.07089805294868977</v>
+        <v>0.02806134184495136</v>
       </c>
       <c r="T32" t="n">
-        <v>0.02438576531044262</v>
+        <v>0.03973999631106506</v>
       </c>
       <c r="U32" t="n">
-        <v>0.009432908110708986</v>
+        <v>0.03864218360682899</v>
       </c>
       <c r="V32" t="n">
-        <v>0.001117119520405663</v>
+        <v>0.001131930244389793</v>
       </c>
       <c r="W32" t="n">
-        <v>0.02049880616209158</v>
+        <v>0.06966060150730026</v>
       </c>
       <c r="X32" t="n">
-        <v>0.08856330095867665</v>
+        <v>0.01126206779615185</v>
       </c>
       <c r="Y32" t="n">
-        <v>0.09769485136125194</v>
+        <v>0.04792818217439811</v>
       </c>
       <c r="Z32" t="n">
-        <v>0.08097288258764906</v>
+        <v>0.05542214335691755</v>
       </c>
       <c r="AA32" t="n">
-        <v>0.0130013975151893</v>
+        <v>0.08620356954997374</v>
       </c>
       <c r="AB32" t="n">
-        <v>0.003103761279889903</v>
+        <v>0.05090220071001238</v>
       </c>
       <c r="AC32" t="n">
-        <v>0.005589712583486022</v>
+        <v>0.002485560239313358</v>
       </c>
     </row>
     <row r="33">
@@ -3540,79 +3540,79 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>0.148142265206819</v>
+        <v>0.1561983602730282</v>
       </c>
       <c r="F33" t="n">
-        <v>0.04141548566775518</v>
+        <v>0.01948653398595262</v>
       </c>
       <c r="G33" t="n">
-        <v>0.06752601449048205</v>
+        <v>0.03768910245422066</v>
       </c>
       <c r="H33" t="n">
-        <v>0.002982979192128206</v>
+        <v>0.05429675553441932</v>
       </c>
       <c r="I33" t="n">
-        <v>0.0960483412935098</v>
+        <v>0.00695161448647729</v>
       </c>
       <c r="J33" t="n">
-        <v>0.07762198162653748</v>
+        <v>0.005585368868891914</v>
       </c>
       <c r="K33" t="n">
-        <v>0.02477168797747845</v>
+        <v>0.06398932856170673</v>
       </c>
       <c r="L33" t="n">
-        <v>0.04291484768913413</v>
+        <v>0.01762734139315199</v>
       </c>
       <c r="M33" t="n">
-        <v>0.07793709537807178</v>
+        <v>0.03280346557775975</v>
       </c>
       <c r="N33" t="n">
-        <v>0.03295664556094682</v>
+        <v>0.08949879534492897</v>
       </c>
       <c r="O33" t="n">
-        <v>0.05021259485591677</v>
+        <v>0.04024506762237445</v>
       </c>
       <c r="P33" t="n">
-        <v>0.0220918239187174</v>
+        <v>0.02123528046787029</v>
       </c>
       <c r="Q33" t="n">
-        <v>0.007651962931192411</v>
+        <v>0.02393843999596496</v>
       </c>
       <c r="R33" t="n">
-        <v>0.05612910202731994</v>
+        <v>0.07664868900585339</v>
       </c>
       <c r="S33" t="n">
-        <v>0.0655923790608972</v>
+        <v>0.02947517993380033</v>
       </c>
       <c r="T33" t="n">
-        <v>0.005852711161079906</v>
+        <v>0.08908916754265959</v>
       </c>
       <c r="U33" t="n">
-        <v>0.04411478521121227</v>
+        <v>0.06783154124724795</v>
       </c>
       <c r="V33" t="n">
-        <v>5.250068828359693e-06</v>
+        <v>2.790622694263478e-06</v>
       </c>
       <c r="W33" t="n">
-        <v>0.02526113690355658</v>
+        <v>0.05933223556710406</v>
       </c>
       <c r="X33" t="n">
-        <v>0.02185030794072329</v>
+        <v>0.08042695089918492</v>
       </c>
       <c r="Y33" t="n">
-        <v>0.07102236839020729</v>
+        <v>0.01076344071778066</v>
       </c>
       <c r="Z33" t="n">
-        <v>0.01681087352509499</v>
+        <v>0.03238647887380829</v>
       </c>
       <c r="AA33" t="n">
-        <v>0.0923731389233443</v>
+        <v>0.08555641086499101</v>
       </c>
       <c r="AB33" t="n">
-        <v>0.05685648620586534</v>
+        <v>0.05514002043115674</v>
       </c>
       <c r="AC33" t="n">
-        <v>0.01637742691335304</v>
+        <v>0.01640260904322053</v>
       </c>
     </row>
     <row r="34">
@@ -3635,79 +3635,79 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>0.1951353182682191</v>
+        <v>0.1696323458121267</v>
       </c>
       <c r="F34" t="n">
-        <v>0.09795059649150221</v>
+        <v>0.08765883021881629</v>
       </c>
       <c r="G34" t="n">
-        <v>0.01883160420246243</v>
+        <v>0.02776003316117393</v>
       </c>
       <c r="H34" t="n">
-        <v>0.05998253526475251</v>
+        <v>0.05729795268257638</v>
       </c>
       <c r="I34" t="n">
-        <v>0.03001604628182324</v>
+        <v>0.009107553931569883</v>
       </c>
       <c r="J34" t="n">
-        <v>0.07678348772244779</v>
+        <v>0.05908264827912132</v>
       </c>
       <c r="K34" t="n">
-        <v>0.0108938037015814</v>
+        <v>0.0482087898143386</v>
       </c>
       <c r="L34" t="n">
-        <v>0.07317241191819664</v>
+        <v>0.06021807385803709</v>
       </c>
       <c r="M34" t="n">
-        <v>0.004892515860889676</v>
+        <v>0.07848481500039507</v>
       </c>
       <c r="N34" t="n">
-        <v>0.02723446813556584</v>
+        <v>0.01952883504653528</v>
       </c>
       <c r="O34" t="n">
-        <v>0.009715953477176598</v>
+        <v>0.08992773406839294</v>
       </c>
       <c r="P34" t="n">
-        <v>0.0754293172605548</v>
+        <v>0.01001965738722936</v>
       </c>
       <c r="Q34" t="n">
-        <v>0.03211329310037282</v>
+        <v>0.006009605003414575</v>
       </c>
       <c r="R34" t="n">
-        <v>0.001979919709608193</v>
+        <v>0.003322755230158556</v>
       </c>
       <c r="S34" t="n">
-        <v>0.001756807288372439</v>
+        <v>0.003254137435293924</v>
       </c>
       <c r="T34" t="n">
-        <v>0.08455451394465031</v>
+        <v>0.08916070638260704</v>
       </c>
       <c r="U34" t="n">
-        <v>0.03175859575236086</v>
+        <v>0.04858986411117645</v>
       </c>
       <c r="V34" t="n">
-        <v>0.0756321106160782</v>
+        <v>0.002555861109439365</v>
       </c>
       <c r="W34" t="n">
-        <v>0.007161131715433873</v>
+        <v>0.001316580102388943</v>
       </c>
       <c r="X34" t="n">
-        <v>0.02117832340500463</v>
+        <v>0.0562622811597665</v>
       </c>
       <c r="Y34" t="n">
-        <v>0.0732117371255066</v>
+        <v>0.04828360225460882</v>
       </c>
       <c r="Z34" t="n">
-        <v>0.02535528604169519</v>
+        <v>0.08870920416048569</v>
       </c>
       <c r="AA34" t="n">
-        <v>0.09142666281283629</v>
+        <v>0.07397730126883863</v>
       </c>
       <c r="AB34" t="n">
-        <v>0.06896887817112747</v>
+        <v>0.03126317833363509</v>
       </c>
       <c r="AC34" t="n">
-        <v>0.1092208485742319</v>
+        <v>0.1085003627584462</v>
       </c>
     </row>
     <row r="35">
@@ -3730,79 +3730,79 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>0.3218056095289427</v>
+        <v>0.4706768831449391</v>
       </c>
       <c r="F35" t="n">
-        <v>0.02295865384363246</v>
+        <v>0.02164399277189865</v>
       </c>
       <c r="G35" t="n">
-        <v>0.0001088016559036353</v>
+        <v>0.01556368715005796</v>
       </c>
       <c r="H35" t="n">
-        <v>0.02677151685837072</v>
+        <v>0.00588187033271517</v>
       </c>
       <c r="I35" t="n">
-        <v>0.04559838819167138</v>
+        <v>0.08951233512357759</v>
       </c>
       <c r="J35" t="n">
-        <v>0.06752034187153164</v>
+        <v>0.05220866980105751</v>
       </c>
       <c r="K35" t="n">
-        <v>0.07472750895989688</v>
+        <v>0.007579055986935492</v>
       </c>
       <c r="L35" t="n">
-        <v>0.0555347531560734</v>
+        <v>0.09054864478316502</v>
       </c>
       <c r="M35" t="n">
-        <v>0.09966913402909131</v>
+        <v>0.0992056054282423</v>
       </c>
       <c r="N35" t="n">
-        <v>0.05622553014440053</v>
+        <v>0.004483779032386022</v>
       </c>
       <c r="O35" t="n">
-        <v>0.04356943031944192</v>
+        <v>0.04281974115771574</v>
       </c>
       <c r="P35" t="n">
-        <v>0.04833760889191276</v>
+        <v>0.1006861805952273</v>
       </c>
       <c r="Q35" t="n">
-        <v>0.01807877558578665</v>
+        <v>0.0580176662058029</v>
       </c>
       <c r="R35" t="n">
-        <v>0.01692379756624206</v>
+        <v>0.03459406353520891</v>
       </c>
       <c r="S35" t="n">
-        <v>0.02027138120630255</v>
+        <v>0.003558861148808238</v>
       </c>
       <c r="T35" t="n">
-        <v>0.05702896777271762</v>
+        <v>0.06890263341637948</v>
       </c>
       <c r="U35" t="n">
-        <v>0.08953487952109995</v>
+        <v>0.03418150456867035</v>
       </c>
       <c r="V35" t="n">
-        <v>0.09431361307267486</v>
+        <v>0.07595923114599287</v>
       </c>
       <c r="W35" t="n">
-        <v>0.003836018834036674</v>
+        <v>0.002579454146804941</v>
       </c>
       <c r="X35" t="n">
-        <v>0.04761989153853663</v>
+        <v>0.05420883298988523</v>
       </c>
       <c r="Y35" t="n">
-        <v>0.01073491386240445</v>
+        <v>0.004479875185854429</v>
       </c>
       <c r="Z35" t="n">
-        <v>0.002225036103955426</v>
+        <v>0.05680329297699512</v>
       </c>
       <c r="AA35" t="n">
-        <v>0.03342186682511034</v>
+        <v>0.03210319380378037</v>
       </c>
       <c r="AB35" t="n">
-        <v>0.06498919018920607</v>
+        <v>0.04447782871283823</v>
       </c>
       <c r="AC35" t="n">
-        <v>0.1551200330521932</v>
+        <v>0.1342981806298475</v>
       </c>
     </row>
     <row r="36">
@@ -3825,79 +3825,79 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>0.1523117631476374</v>
+        <v>0.1526161085514324</v>
       </c>
       <c r="F36" t="n">
-        <v>0.06886202826643385</v>
+        <v>0.07532485033125784</v>
       </c>
       <c r="G36" t="n">
-        <v>0.05606092459520957</v>
+        <v>0.05045931707469896</v>
       </c>
       <c r="H36" t="n">
-        <v>0.02228543213795503</v>
+        <v>0.06436554940216008</v>
       </c>
       <c r="I36" t="n">
-        <v>0.02195688213256621</v>
+        <v>0.001235472727689708</v>
       </c>
       <c r="J36" t="n">
-        <v>0.0107744643822376</v>
+        <v>0.007938915721021227</v>
       </c>
       <c r="K36" t="n">
-        <v>0.06069369031898612</v>
+        <v>0.005029790161504137</v>
       </c>
       <c r="L36" t="n">
-        <v>0.03411639305668152</v>
+        <v>0.08514668001534079</v>
       </c>
       <c r="M36" t="n">
-        <v>0.04807601773847812</v>
+        <v>0.0229319180162724</v>
       </c>
       <c r="N36" t="n">
-        <v>0.0629638130948935</v>
+        <v>0.08769401307205374</v>
       </c>
       <c r="O36" t="n">
-        <v>0.03275342118847688</v>
+        <v>0.08436825838677037</v>
       </c>
       <c r="P36" t="n">
-        <v>0.04893513796191101</v>
+        <v>0.02822728576342127</v>
       </c>
       <c r="Q36" t="n">
-        <v>0.06891392897141695</v>
+        <v>0.0566455538365631</v>
       </c>
       <c r="R36" t="n">
-        <v>0.001195502330112577</v>
+        <v>0.003444331955209246</v>
       </c>
       <c r="S36" t="n">
-        <v>0.02866494525910673</v>
+        <v>0.0445992869828576</v>
       </c>
       <c r="T36" t="n">
-        <v>0.06578503354950062</v>
+        <v>0.0804530827189779</v>
       </c>
       <c r="U36" t="n">
-        <v>0.06582459005109359</v>
+        <v>0.07948695380616896</v>
       </c>
       <c r="V36" t="n">
-        <v>0.007797674667781589</v>
+        <v>0.0120685521901737</v>
       </c>
       <c r="W36" t="n">
-        <v>0.006209902655599511</v>
+        <v>0.0179830629307885</v>
       </c>
       <c r="X36" t="n">
-        <v>0.05510629596400391</v>
+        <v>0.02488113866580006</v>
       </c>
       <c r="Y36" t="n">
-        <v>0.04547832244535005</v>
+        <v>0.03218015336061669</v>
       </c>
       <c r="Z36" t="n">
-        <v>0.06848089032006464</v>
+        <v>0.01946775158744322</v>
       </c>
       <c r="AA36" t="n">
-        <v>0.05298656840467589</v>
+        <v>0.03718708262396546</v>
       </c>
       <c r="AB36" t="n">
-        <v>0.06607814050746455</v>
+        <v>0.07888099866924513</v>
       </c>
       <c r="AC36" t="n">
-        <v>-0.04164068111685074</v>
+        <v>-0.06301702730100128</v>
       </c>
     </row>
     <row r="37">
@@ -3920,79 +3920,79 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>0.1755528154464974</v>
+        <v>0.195052216651649</v>
       </c>
       <c r="F37" t="n">
-        <v>0.04519595944145736</v>
+        <v>0.003905710614704985</v>
       </c>
       <c r="G37" t="n">
-        <v>0.003334838280135506</v>
+        <v>0.07530813687052819</v>
       </c>
       <c r="H37" t="n">
-        <v>0.01060300215953944</v>
+        <v>0.08023712295947136</v>
       </c>
       <c r="I37" t="n">
-        <v>0.07912632252726062</v>
+        <v>0.09802010961854428</v>
       </c>
       <c r="J37" t="n">
-        <v>0.007996490751638982</v>
+        <v>0.05118601280283008</v>
       </c>
       <c r="K37" t="n">
-        <v>0.0523570503392566</v>
+        <v>0.04660463572446885</v>
       </c>
       <c r="L37" t="n">
-        <v>0.05220487758630173</v>
+        <v>0.06794876086256058</v>
       </c>
       <c r="M37" t="n">
-        <v>0.05573280408751168</v>
+        <v>0.09821966196504979</v>
       </c>
       <c r="N37" t="n">
-        <v>0.000771475290282886</v>
+        <v>0.06301501441652999</v>
       </c>
       <c r="O37" t="n">
-        <v>0.01279913100634526</v>
+        <v>0.002113655879138491</v>
       </c>
       <c r="P37" t="n">
-        <v>0.09456657198329325</v>
+        <v>0.01412569477324415</v>
       </c>
       <c r="Q37" t="n">
-        <v>0.02983579595513709</v>
+        <v>0.0251406266781088</v>
       </c>
       <c r="R37" t="n">
-        <v>0.01920450420337136</v>
+        <v>0.01619465806988832</v>
       </c>
       <c r="S37" t="n">
-        <v>0.1066925410522054</v>
+        <v>0.09948893855426144</v>
       </c>
       <c r="T37" t="n">
-        <v>0.04363917463357389</v>
+        <v>0.04857862924603273</v>
       </c>
       <c r="U37" t="n">
-        <v>0.09353311057264743</v>
+        <v>0.004560043993086853</v>
       </c>
       <c r="V37" t="n">
-        <v>0.01533891158074895</v>
+        <v>0.02865796535427922</v>
       </c>
       <c r="W37" t="n">
-        <v>0.01455303181507444</v>
+        <v>0.002021409900527845</v>
       </c>
       <c r="X37" t="n">
-        <v>0.05640895967006038</v>
+        <v>0.004737165277977322</v>
       </c>
       <c r="Y37" t="n">
-        <v>0.04012759490187944</v>
+        <v>0.04642477330105128</v>
       </c>
       <c r="Z37" t="n">
-        <v>0.03287205039011083</v>
+        <v>0.02610864375401823</v>
       </c>
       <c r="AA37" t="n">
-        <v>0.06162999902851821</v>
+        <v>0.01678840591143705</v>
       </c>
       <c r="AB37" t="n">
-        <v>0.07147580274364927</v>
+        <v>0.08061422347226026</v>
       </c>
       <c r="AC37" t="n">
-        <v>-0.02533117212791976</v>
+        <v>-0.06813582082890965</v>
       </c>
     </row>
     <row r="38">
@@ -4015,79 +4015,79 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>0.1837045286914688</v>
+        <v>0.1860747453108736</v>
       </c>
       <c r="F38" t="n">
-        <v>0.06624044456994259</v>
+        <v>0.01945182982872292</v>
       </c>
       <c r="G38" t="n">
-        <v>0.05874079103540073</v>
+        <v>0.04514684025855587</v>
       </c>
       <c r="H38" t="n">
-        <v>0.04849147910176622</v>
+        <v>0.08092655925506857</v>
       </c>
       <c r="I38" t="n">
-        <v>0.04589826758758837</v>
+        <v>0.04378757404895033</v>
       </c>
       <c r="J38" t="n">
-        <v>0.04068572635823063</v>
+        <v>0.04803503166724259</v>
       </c>
       <c r="K38" t="n">
-        <v>0.04664043855994736</v>
+        <v>0.0532445830190591</v>
       </c>
       <c r="L38" t="n">
-        <v>0.001633456793661056</v>
+        <v>0.004559266330320062</v>
       </c>
       <c r="M38" t="n">
-        <v>0.06946228435322618</v>
+        <v>0.02686674386434742</v>
       </c>
       <c r="N38" t="n">
-        <v>0.05638118422974676</v>
+        <v>0.01141154787840539</v>
       </c>
       <c r="O38" t="n">
-        <v>0.06219369856910621</v>
+        <v>0.09183631533129812</v>
       </c>
       <c r="P38" t="n">
-        <v>0.05946425147638993</v>
+        <v>0.04272144188770937</v>
       </c>
       <c r="Q38" t="n">
-        <v>0.01681983029374347</v>
+        <v>0.04874827616881387</v>
       </c>
       <c r="R38" t="n">
-        <v>0.05433693359625024</v>
+        <v>0.08482772552186649</v>
       </c>
       <c r="S38" t="n">
-        <v>0.001240332348264099</v>
+        <v>0.04482469260017661</v>
       </c>
       <c r="T38" t="n">
-        <v>0.01662913902649415</v>
+        <v>0.07228667096388221</v>
       </c>
       <c r="U38" t="n">
-        <v>0.06854589330788782</v>
+        <v>0.06794881552046689</v>
       </c>
       <c r="V38" t="n">
-        <v>0.001304734875459562</v>
+        <v>0.0003995811541325529</v>
       </c>
       <c r="W38" t="n">
-        <v>0.06776495428859462</v>
+        <v>0.07206002289622952</v>
       </c>
       <c r="X38" t="n">
-        <v>0.06114762268246888</v>
+        <v>0.07516801810477899</v>
       </c>
       <c r="Y38" t="n">
-        <v>0.0003710474900973842</v>
+        <v>0.002313341992052172</v>
       </c>
       <c r="Z38" t="n">
-        <v>0.06062525756158409</v>
+        <v>0.01766893386828508</v>
       </c>
       <c r="AA38" t="n">
-        <v>0.04654219301417518</v>
+        <v>0.008841577480814173</v>
       </c>
       <c r="AB38" t="n">
-        <v>0.04884003887997431</v>
+        <v>0.03692461035882171</v>
       </c>
       <c r="AC38" t="n">
-        <v>-0.05447285520215903</v>
+        <v>-0.043818990756388</v>
       </c>
     </row>
     <row r="39">
@@ -4110,79 +4110,79 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>0.2446335769287296</v>
+        <v>0.2910998693911351</v>
       </c>
       <c r="F39" t="n">
-        <v>0.116606914222411</v>
+        <v>0.09135915949804557</v>
       </c>
       <c r="G39" t="n">
-        <v>0.0571302094515961</v>
+        <v>0.003144884676211304</v>
       </c>
       <c r="H39" t="n">
-        <v>0.06050698720979523</v>
+        <v>0.01412873564704121</v>
       </c>
       <c r="I39" t="n">
-        <v>0.03780700791090719</v>
+        <v>0.02201726291008979</v>
       </c>
       <c r="J39" t="n">
-        <v>0.03067037763537323</v>
+        <v>0.01645996385259679</v>
       </c>
       <c r="K39" t="n">
-        <v>0.05370314375433524</v>
+        <v>0.09449196175498302</v>
       </c>
       <c r="L39" t="n">
-        <v>0.0700762996164502</v>
+        <v>0.001943924267638864</v>
       </c>
       <c r="M39" t="n">
-        <v>0.01407200352279656</v>
+        <v>0.09533849471371129</v>
       </c>
       <c r="N39" t="n">
-        <v>0.02487053534828321</v>
+        <v>0.008645027317915593</v>
       </c>
       <c r="O39" t="n">
-        <v>0.0420692935950093</v>
+        <v>0.004958002479885134</v>
       </c>
       <c r="P39" t="n">
-        <v>0.1187458604310414</v>
+        <v>0.08903982481031252</v>
       </c>
       <c r="Q39" t="n">
-        <v>0.005993187847186623</v>
+        <v>0.001082800234320324</v>
       </c>
       <c r="R39" t="n">
-        <v>0.005728881560960619</v>
+        <v>0.0761843741873687</v>
       </c>
       <c r="S39" t="n">
-        <v>0.08406697589884701</v>
+        <v>0.04514308897569234</v>
       </c>
       <c r="T39" t="n">
-        <v>0.04501748185936431</v>
+        <v>0.08373676756564528</v>
       </c>
       <c r="U39" t="n">
-        <v>0.0130670599718559</v>
+        <v>0.05580737259213464</v>
       </c>
       <c r="V39" t="n">
-        <v>0.0195125280362698</v>
+        <v>0.03073920868389349</v>
       </c>
       <c r="W39" t="n">
-        <v>0.0311614356592868</v>
+        <v>0.02948653826837431</v>
       </c>
       <c r="X39" t="n">
-        <v>0.09785050539933468</v>
+        <v>0.07461500324931142</v>
       </c>
       <c r="Y39" t="n">
-        <v>0.002152012638789413</v>
+        <v>0.06110198615291728</v>
       </c>
       <c r="Z39" t="n">
-        <v>0.05742410486598463</v>
+        <v>0.07755658469383332</v>
       </c>
       <c r="AA39" t="n">
-        <v>0.002963744061168472</v>
+        <v>0.01738754870831937</v>
       </c>
       <c r="AB39" t="n">
-        <v>0.008803449502952967</v>
+        <v>0.005631484759758402</v>
       </c>
       <c r="AC39" t="n">
-        <v>-0.04759015398850831</v>
+        <v>-0.0006388819391132361</v>
       </c>
     </row>
     <row r="40">
@@ -4205,79 +4205,79 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>0.2046458033456992</v>
+        <v>0.2034750369964941</v>
       </c>
       <c r="F40" t="n">
-        <v>0.005984132143939081</v>
+        <v>0.005281069563849701</v>
       </c>
       <c r="G40" t="n">
-        <v>0.003316624667947221</v>
+        <v>0.04790628620938206</v>
       </c>
       <c r="H40" t="n">
-        <v>0.01436282125967562</v>
+        <v>0.0757345067916176</v>
       </c>
       <c r="I40" t="n">
-        <v>0.01106738604801719</v>
+        <v>0.02376063005327139</v>
       </c>
       <c r="J40" t="n">
-        <v>0.01009658456228659</v>
+        <v>0.04112552469148116</v>
       </c>
       <c r="K40" t="n">
-        <v>0.03130282496582923</v>
+        <v>0.02191861169118542</v>
       </c>
       <c r="L40" t="n">
-        <v>0.04388197537145098</v>
+        <v>0.02024866253561569</v>
       </c>
       <c r="M40" t="n">
-        <v>0.01135964808079835</v>
+        <v>0.06845296393931344</v>
       </c>
       <c r="N40" t="n">
-        <v>0.007511473236068859</v>
+        <v>0.02984565979316753</v>
       </c>
       <c r="O40" t="n">
-        <v>0.09073089890797954</v>
+        <v>0.01302037344199541</v>
       </c>
       <c r="P40" t="n">
-        <v>0.06663290973671175</v>
+        <v>0.01712989678461647</v>
       </c>
       <c r="Q40" t="n">
-        <v>0.04273152105501549</v>
+        <v>0.04163131771896005</v>
       </c>
       <c r="R40" t="n">
-        <v>0.1048186537283477</v>
+        <v>0.0428686599036325</v>
       </c>
       <c r="S40" t="n">
-        <v>0.05545615076809103</v>
+        <v>0.08537356456673803</v>
       </c>
       <c r="T40" t="n">
-        <v>0.05329092862644344</v>
+        <v>0.03701569635328276</v>
       </c>
       <c r="U40" t="n">
-        <v>0.01520165111832755</v>
+        <v>0.0182267998691375</v>
       </c>
       <c r="V40" t="n">
-        <v>0.09135796721230079</v>
+        <v>0.05883189094448262</v>
       </c>
       <c r="W40" t="n">
-        <v>0.08159042564799589</v>
+        <v>0.02915929246138487</v>
       </c>
       <c r="X40" t="n">
-        <v>0.1052179165807609</v>
+        <v>0.0893150915971366</v>
       </c>
       <c r="Y40" t="n">
-        <v>0.0133109609391829</v>
+        <v>0.009958661892644544</v>
       </c>
       <c r="Z40" t="n">
-        <v>0.06746999693426702</v>
+        <v>0.1040110954905601</v>
       </c>
       <c r="AA40" t="n">
-        <v>0.05646270750699854</v>
+        <v>0.09662297748311884</v>
       </c>
       <c r="AB40" t="n">
-        <v>0.01684384090156434</v>
+        <v>0.02256076622342565</v>
       </c>
       <c r="AC40" t="n">
-        <v>0.135417181495675</v>
+        <v>0.1540609275574361</v>
       </c>
     </row>
     <row r="41">
@@ -4300,79 +4300,79 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>0.428171173205172</v>
+        <v>0.4477295996331724</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1028438591658968</v>
+        <v>0.108770406594134</v>
       </c>
       <c r="G41" t="n">
-        <v>0.05813703024796433</v>
+        <v>0.109162255291283</v>
       </c>
       <c r="H41" t="n">
-        <v>0.04519868245607266</v>
+        <v>0.1093779954027581</v>
       </c>
       <c r="I41" t="n">
-        <v>0.006927420818499604</v>
+        <v>0.09689404795592782</v>
       </c>
       <c r="J41" t="n">
-        <v>0.06166644097906167</v>
+        <v>0.02537302932412224</v>
       </c>
       <c r="K41" t="n">
-        <v>0.103071899558698</v>
+        <v>0.04730197813257533</v>
       </c>
       <c r="L41" t="n">
-        <v>0.04135063532679293</v>
+        <v>0.004349465904699807</v>
       </c>
       <c r="M41" t="n">
-        <v>0.09728818216273163</v>
+        <v>0.1073633232419773</v>
       </c>
       <c r="N41" t="n">
-        <v>0.03116296892169851</v>
+        <v>0.03371290237076562</v>
       </c>
       <c r="O41" t="n">
-        <v>0.002207837559698258</v>
+        <v>0.02345855756032923</v>
       </c>
       <c r="P41" t="n">
-        <v>0.04582663808172322</v>
+        <v>0.08973290092908517</v>
       </c>
       <c r="Q41" t="n">
-        <v>0.01479524066804684</v>
+        <v>0.03793458920968183</v>
       </c>
       <c r="R41" t="n">
-        <v>0.08147302238432561</v>
+        <v>0.03656287094964638</v>
       </c>
       <c r="S41" t="n">
-        <v>0.08151233482346489</v>
+        <v>0.06909587343270381</v>
       </c>
       <c r="T41" t="n">
-        <v>0.0101176929174866</v>
+        <v>0.01315805634993448</v>
       </c>
       <c r="U41" t="n">
-        <v>0.01432588464957762</v>
+        <v>0.00220794550912081</v>
       </c>
       <c r="V41" t="n">
-        <v>0.01164184981542096</v>
+        <v>0.02845127723640864</v>
       </c>
       <c r="W41" t="n">
-        <v>0.03575945111599348</v>
+        <v>0.01100876492625882</v>
       </c>
       <c r="X41" t="n">
-        <v>0.001236549477229691</v>
+        <v>0.01131427522323614</v>
       </c>
       <c r="Y41" t="n">
-        <v>0.06651127994122706</v>
+        <v>0.01652594794767248</v>
       </c>
       <c r="Z41" t="n">
-        <v>0.07599733777537775</v>
+        <v>0.008543924305009765</v>
       </c>
       <c r="AA41" t="n">
-        <v>0.004750332420745345</v>
+        <v>0.007249201092141245</v>
       </c>
       <c r="AB41" t="n">
-        <v>0.006197428732266717</v>
+        <v>0.002450411110528237</v>
       </c>
       <c r="AC41" t="n">
-        <v>0.1119550428278112</v>
+        <v>0.1261357498004187</v>
       </c>
     </row>
     <row r="42">
@@ -4395,79 +4395,79 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>0.2001048781207673</v>
+        <v>0.1998389758994985</v>
       </c>
       <c r="F42" t="n">
-        <v>0.009857960527258692</v>
+        <v>0.02133851419097592</v>
       </c>
       <c r="G42" t="n">
-        <v>0.05003907766158106</v>
+        <v>0.08978868277219321</v>
       </c>
       <c r="H42" t="n">
-        <v>0.04188527518654425</v>
+        <v>0.08187937480952377</v>
       </c>
       <c r="I42" t="n">
-        <v>0.00607265177477511</v>
+        <v>0.05079165823331156</v>
       </c>
       <c r="J42" t="n">
-        <v>0.02234146076576718</v>
+        <v>0.05983510323199516</v>
       </c>
       <c r="K42" t="n">
-        <v>0.0717597625626883</v>
+        <v>0.01073989880922211</v>
       </c>
       <c r="L42" t="n">
-        <v>0.02243271334257587</v>
+        <v>0.09498469820506239</v>
       </c>
       <c r="M42" t="n">
-        <v>0.08197301909877763</v>
+        <v>0.002343275306154792</v>
       </c>
       <c r="N42" t="n">
-        <v>0.01650619601378655</v>
+        <v>0.01503541106432231</v>
       </c>
       <c r="O42" t="n">
-        <v>0.05978352907169597</v>
+        <v>0.05873795680746734</v>
       </c>
       <c r="P42" t="n">
-        <v>0.06768726624187421</v>
+        <v>0.0485057732344551</v>
       </c>
       <c r="Q42" t="n">
-        <v>0.09042405195198698</v>
+        <v>0.02350521168406287</v>
       </c>
       <c r="R42" t="n">
-        <v>0.06738824751188614</v>
+        <v>0.008200804433789552</v>
       </c>
       <c r="S42" t="n">
-        <v>0.02850743524334116</v>
+        <v>0.00629353792201226</v>
       </c>
       <c r="T42" t="n">
-        <v>0.02845189421110341</v>
+        <v>0.04912263407458665</v>
       </c>
       <c r="U42" t="n">
-        <v>0.03063825091512022</v>
+        <v>0.09011054774454653</v>
       </c>
       <c r="V42" t="n">
-        <v>0.01136169070776948</v>
+        <v>0.001341844756705604</v>
       </c>
       <c r="W42" t="n">
-        <v>0.0742742384066228</v>
+        <v>0.05949123685921776</v>
       </c>
       <c r="X42" t="n">
-        <v>0.06502933272239614</v>
+        <v>0.09659673952332554</v>
       </c>
       <c r="Y42" t="n">
-        <v>0.05284885545010533</v>
+        <v>0.04559385365881418</v>
       </c>
       <c r="Z42" t="n">
-        <v>0.0803935309521332</v>
+        <v>0.06980686158281871</v>
       </c>
       <c r="AA42" t="n">
-        <v>0.01966517651238983</v>
+        <v>0.01565151054263175</v>
       </c>
       <c r="AB42" t="n">
-        <v>0.0006783831678203355</v>
+        <v>0.0003048705528048578</v>
       </c>
       <c r="AC42" t="n">
-        <v>0.06191748817930243</v>
+        <v>0.0233380487336705</v>
       </c>
     </row>
     <row r="43">
@@ -4490,79 +4490,79 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>0.2417948096941465</v>
+        <v>0.2476325746241688</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1099517962020052</v>
+        <v>0.1035392542891749</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01067862254744791</v>
+        <v>0.05007446437454077</v>
       </c>
       <c r="H43" t="n">
-        <v>0.05904321600075831</v>
+        <v>0.03396598903464691</v>
       </c>
       <c r="I43" t="n">
-        <v>0.005169995175060308</v>
+        <v>0.03172072863100236</v>
       </c>
       <c r="J43" t="n">
-        <v>0.03581928090064138</v>
+        <v>0.05232313699350223</v>
       </c>
       <c r="K43" t="n">
-        <v>0.1174679290960811</v>
+        <v>0.01410051230557197</v>
       </c>
       <c r="L43" t="n">
-        <v>0.05517020900315944</v>
+        <v>0.03700536748675116</v>
       </c>
       <c r="M43" t="n">
-        <v>0.03977883091613479</v>
+        <v>0.0607273477975122</v>
       </c>
       <c r="N43" t="n">
-        <v>0.0006520853824605382</v>
+        <v>0.0008182912017270567</v>
       </c>
       <c r="O43" t="n">
-        <v>0.01939477209505168</v>
+        <v>0.05098826639360138</v>
       </c>
       <c r="P43" t="n">
-        <v>0.02810516113725696</v>
+        <v>0.0180942348276047</v>
       </c>
       <c r="Q43" t="n">
-        <v>0.0005295323649099752</v>
+        <v>0.04887434696804969</v>
       </c>
       <c r="R43" t="n">
-        <v>0.03456649790596322</v>
+        <v>0.01710970604748615</v>
       </c>
       <c r="S43" t="n">
-        <v>0.02081136895111683</v>
+        <v>0.02120284960120338</v>
       </c>
       <c r="T43" t="n">
-        <v>0.0914799808328226</v>
+        <v>0.08251636706759223</v>
       </c>
       <c r="U43" t="n">
-        <v>0.02020278341384965</v>
+        <v>0.03913812825151927</v>
       </c>
       <c r="V43" t="n">
-        <v>0.005959922636526638</v>
+        <v>0.04551031651408129</v>
       </c>
       <c r="W43" t="n">
-        <v>0.003705310682545791</v>
+        <v>0.06390706378241964</v>
       </c>
       <c r="X43" t="n">
-        <v>0.03823964977473338</v>
+        <v>0.004262139039763681</v>
       </c>
       <c r="Y43" t="n">
-        <v>0.0385934460483426</v>
+        <v>0.07741177778532952</v>
       </c>
       <c r="Z43" t="n">
-        <v>0.104308414634066</v>
+        <v>0.006733716944518338</v>
       </c>
       <c r="AA43" t="n">
-        <v>0.1195329081057993</v>
+        <v>0.0862818736664025</v>
       </c>
       <c r="AB43" t="n">
-        <v>0.04083828619326629</v>
+        <v>0.05369412099599868</v>
       </c>
       <c r="AC43" t="n">
-        <v>0.02728013239878701</v>
+        <v>0.06301167152618659</v>
       </c>
     </row>
     <row r="44">
@@ -4585,79 +4585,79 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>0.1862368284949279</v>
+        <v>0.1881826805484764</v>
       </c>
       <c r="F44" t="n">
-        <v>0.07843542541504825</v>
+        <v>0.0387156954386242</v>
       </c>
       <c r="G44" t="n">
-        <v>0.005727929276294534</v>
+        <v>0.004222678607620917</v>
       </c>
       <c r="H44" t="n">
-        <v>0.07162340727621577</v>
+        <v>0.01218977741269927</v>
       </c>
       <c r="I44" t="n">
-        <v>0.06924819789650494</v>
+        <v>0.008917378624708728</v>
       </c>
       <c r="J44" t="n">
-        <v>0.07510669849801362</v>
+        <v>0.0512620886262261</v>
       </c>
       <c r="K44" t="n">
-        <v>0.04278923921507104</v>
+        <v>0.001391213492949759</v>
       </c>
       <c r="L44" t="n">
-        <v>0.02382791886676243</v>
+        <v>0.06453264788306377</v>
       </c>
       <c r="M44" t="n">
-        <v>0.08167320281186671</v>
+        <v>0.08771317205017906</v>
       </c>
       <c r="N44" t="n">
-        <v>0.003917509379361235</v>
+        <v>0.01858587730448177</v>
       </c>
       <c r="O44" t="n">
-        <v>0.03487772628691111</v>
+        <v>0.07035792713805394</v>
       </c>
       <c r="P44" t="n">
-        <v>0.03994840336160041</v>
+        <v>0.09014787595650761</v>
       </c>
       <c r="Q44" t="n">
-        <v>0.0145526828378469</v>
+        <v>0.06294266225165349</v>
       </c>
       <c r="R44" t="n">
-        <v>0.0700627185802907</v>
+        <v>0.01700624760938283</v>
       </c>
       <c r="S44" t="n">
-        <v>0.08511917259616017</v>
+        <v>0.01779076646306298</v>
       </c>
       <c r="T44" t="n">
-        <v>0.001572747122757234</v>
+        <v>0.07013760146759662</v>
       </c>
       <c r="U44" t="n">
-        <v>0.0005334824363737147</v>
+        <v>0.01421291506696629</v>
       </c>
       <c r="V44" t="n">
-        <v>0.009981957882338962</v>
+        <v>0.0342633819644791</v>
       </c>
       <c r="W44" t="n">
-        <v>0.03790683901145094</v>
+        <v>0.05900646225083514</v>
       </c>
       <c r="X44" t="n">
-        <v>0.08781034010158383</v>
+        <v>0.08091618532572825</v>
       </c>
       <c r="Y44" t="n">
-        <v>0.07148263202715813</v>
+        <v>0.01600304110894064</v>
       </c>
       <c r="Z44" t="n">
-        <v>0.08257383710078069</v>
+        <v>0.08811977451193151</v>
       </c>
       <c r="AA44" t="n">
-        <v>0.005251827111233029</v>
+        <v>0.06239796769657689</v>
       </c>
       <c r="AB44" t="n">
-        <v>0.005976104908375603</v>
+        <v>0.02916666174773106</v>
       </c>
       <c r="AC44" t="n">
-        <v>0.009335007861762468</v>
+        <v>0.02617031558141085</v>
       </c>
     </row>
     <row r="45">
@@ -4680,79 +4680,79 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>0.2217633011151671</v>
+        <v>0.2221902638380586</v>
       </c>
       <c r="F45" t="n">
-        <v>0.08614767752521192</v>
+        <v>0.0706248233922714</v>
       </c>
       <c r="G45" t="n">
-        <v>0.01381913023825035</v>
+        <v>0.01089672239928884</v>
       </c>
       <c r="H45" t="n">
-        <v>0.01121326858445744</v>
+        <v>0.009343756691940283</v>
       </c>
       <c r="I45" t="n">
-        <v>0.05091807529684147</v>
+        <v>0.08835029717165054</v>
       </c>
       <c r="J45" t="n">
-        <v>0.01466343488927506</v>
+        <v>0.03184208061305506</v>
       </c>
       <c r="K45" t="n">
-        <v>0.01374775628706325</v>
+        <v>0.03483727032320984</v>
       </c>
       <c r="L45" t="n">
-        <v>0.009212271997920031</v>
+        <v>0.008719550973804351</v>
       </c>
       <c r="M45" t="n">
-        <v>0.1001828800102409</v>
+        <v>0.01988874458117458</v>
       </c>
       <c r="N45" t="n">
-        <v>0.004746946204772445</v>
+        <v>0.003614133707416194</v>
       </c>
       <c r="O45" t="n">
-        <v>0.03489822404816047</v>
+        <v>0.04784312486625424</v>
       </c>
       <c r="P45" t="n">
-        <v>0.02156480126505387</v>
+        <v>0.07805723274689726</v>
       </c>
       <c r="Q45" t="n">
-        <v>0.06317415205741771</v>
+        <v>0.03042648371624635</v>
       </c>
       <c r="R45" t="n">
-        <v>0.05963211281891361</v>
+        <v>0.08717168484970374</v>
       </c>
       <c r="S45" t="n">
-        <v>0.08979403193009992</v>
+        <v>0.07647024940645959</v>
       </c>
       <c r="T45" t="n">
-        <v>0.07702636188886303</v>
+        <v>0.03517456898929946</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1011821890031383</v>
+        <v>0.09836838648859865</v>
       </c>
       <c r="V45" t="n">
-        <v>0.01703083816369932</v>
+        <v>0.01404410734723971</v>
       </c>
       <c r="W45" t="n">
-        <v>0.05142993956007936</v>
+        <v>0.04776016607913246</v>
       </c>
       <c r="X45" t="n">
-        <v>0.01449001526580402</v>
+        <v>0.04568833683070798</v>
       </c>
       <c r="Y45" t="n">
-        <v>0.03626874224272063</v>
+        <v>0.04676851767950443</v>
       </c>
       <c r="Z45" t="n">
-        <v>0.06760028803794042</v>
+        <v>0.005956131896191106</v>
       </c>
       <c r="AA45" t="n">
-        <v>0.05415508118538196</v>
+        <v>0.1078478148245731</v>
       </c>
       <c r="AB45" t="n">
-        <v>0.007101781498694473</v>
+        <v>0.0003058144253807109</v>
       </c>
       <c r="AC45" t="n">
-        <v>-0.007497540821810538</v>
+        <v>-0.01949309551712053</v>
       </c>
     </row>
     <row r="46">
@@ -4775,79 +4775,79 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>0.1477155383117923</v>
+        <v>0.1486135892480725</v>
       </c>
       <c r="F46" t="n">
-        <v>0.06105160281516588</v>
+        <v>0.08803947864937042</v>
       </c>
       <c r="G46" t="n">
-        <v>0.0474032583817969</v>
+        <v>0.05925969776594452</v>
       </c>
       <c r="H46" t="n">
-        <v>0.05219462406504657</v>
+        <v>0.05392366304027864</v>
       </c>
       <c r="I46" t="n">
-        <v>0.07934473326502781</v>
+        <v>0.04632874575274485</v>
       </c>
       <c r="J46" t="n">
-        <v>0.04484002661653626</v>
+        <v>0.02092262556596212</v>
       </c>
       <c r="K46" t="n">
-        <v>0.001832463751086541</v>
+        <v>0.005877174112330758</v>
       </c>
       <c r="L46" t="n">
-        <v>0.0505788134815182</v>
+        <v>0.02836327733343716</v>
       </c>
       <c r="M46" t="n">
-        <v>0.01480061404443324</v>
+        <v>0.03419889270539106</v>
       </c>
       <c r="N46" t="n">
-        <v>0.05662269203316726</v>
+        <v>0.03018161166100716</v>
       </c>
       <c r="O46" t="n">
-        <v>0.02741640464637926</v>
+        <v>0.0426727881353637</v>
       </c>
       <c r="P46" t="n">
-        <v>0.05578054072112224</v>
+        <v>0.07002500647275803</v>
       </c>
       <c r="Q46" t="n">
-        <v>0.004974651499251991</v>
+        <v>0.004057617628283576</v>
       </c>
       <c r="R46" t="n">
-        <v>0.02594752486129026</v>
+        <v>0.07503410646732937</v>
       </c>
       <c r="S46" t="n">
-        <v>0.08158219335554165</v>
+        <v>0.02142338893165826</v>
       </c>
       <c r="T46" t="n">
-        <v>0.01700583529032786</v>
+        <v>0.08207583046184816</v>
       </c>
       <c r="U46" t="n">
-        <v>0.07912452362182615</v>
+        <v>0.07140058614761795</v>
       </c>
       <c r="V46" t="n">
-        <v>0.0008076988138403556</v>
+        <v>0.005587753358424112</v>
       </c>
       <c r="W46" t="n">
-        <v>0.07542314705667703</v>
+        <v>0.06245450657648688</v>
       </c>
       <c r="X46" t="n">
-        <v>0.08851706172436336</v>
+        <v>0.06316024658279472</v>
       </c>
       <c r="Y46" t="n">
-        <v>0.02292023268238057</v>
+        <v>0.04917498981602882</v>
       </c>
       <c r="Z46" t="n">
-        <v>0.06274241104295998</v>
+        <v>0.07992231938701461</v>
       </c>
       <c r="AA46" t="n">
-        <v>0.04562673864877911</v>
+        <v>0.0001228303051684067</v>
       </c>
       <c r="AB46" t="n">
-        <v>0.003462207581481254</v>
+        <v>0.005792863142756928</v>
       </c>
       <c r="AC46" t="n">
-        <v>-0.06779691111732306</v>
+        <v>-0.05864209085215774</v>
       </c>
     </row>
     <row r="47">
@@ -4870,79 +4870,79 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>0.1959696965726425</v>
+        <v>0.2087801572135738</v>
       </c>
       <c r="F47" t="n">
-        <v>0.09832980123732672</v>
+        <v>0.09528799223248924</v>
       </c>
       <c r="G47" t="n">
-        <v>0.007429231838807971</v>
+        <v>0.09342498800183038</v>
       </c>
       <c r="H47" t="n">
-        <v>0.03775678692585556</v>
+        <v>0.04009717931566123</v>
       </c>
       <c r="I47" t="n">
-        <v>0.05901818998616771</v>
+        <v>0.02013642534583891</v>
       </c>
       <c r="J47" t="n">
-        <v>0.02992480111989024</v>
+        <v>0.03916372660190683</v>
       </c>
       <c r="K47" t="n">
-        <v>0.006624354620580434</v>
+        <v>0.01361661237347281</v>
       </c>
       <c r="L47" t="n">
-        <v>0.05773517626549519</v>
+        <v>0.04270883822131767</v>
       </c>
       <c r="M47" t="n">
-        <v>0.08582159109977419</v>
+        <v>0.09394490829639651</v>
       </c>
       <c r="N47" t="n">
-        <v>0.07875596265850035</v>
+        <v>0.01367810693340336</v>
       </c>
       <c r="O47" t="n">
-        <v>0.01484681912195611</v>
+        <v>0.02500199645373314</v>
       </c>
       <c r="P47" t="n">
-        <v>0.01272670930290419</v>
+        <v>0.0105258469842979</v>
       </c>
       <c r="Q47" t="n">
-        <v>0.1104458934646696</v>
+        <v>0.03560049886915312</v>
       </c>
       <c r="R47" t="n">
-        <v>0.07264668902684566</v>
+        <v>0.07261166024085353</v>
       </c>
       <c r="S47" t="n">
-        <v>0.02654242533355373</v>
+        <v>0.04721153985882547</v>
       </c>
       <c r="T47" t="n">
-        <v>0.05877843225250644</v>
+        <v>0.02430540657662429</v>
       </c>
       <c r="U47" t="n">
-        <v>0.01321156078192134</v>
+        <v>0.005348744319027984</v>
       </c>
       <c r="V47" t="n">
-        <v>0.05602900092746756</v>
+        <v>0.07298561707079236</v>
       </c>
       <c r="W47" t="n">
-        <v>0.01594354412376461</v>
+        <v>0.04248866619071341</v>
       </c>
       <c r="X47" t="n">
-        <v>0.02693070576670435</v>
+        <v>0.03288898032736144</v>
       </c>
       <c r="Y47" t="n">
-        <v>0.02210310892550923</v>
+        <v>0.0231796920127742</v>
       </c>
       <c r="Z47" t="n">
-        <v>0.1031446556814194</v>
+        <v>0.0898774549426362</v>
       </c>
       <c r="AA47" t="n">
-        <v>0.001923934865324809</v>
+        <v>0.0494994313855453</v>
       </c>
       <c r="AB47" t="n">
-        <v>0.003330624673054511</v>
+        <v>0.01641568744534483</v>
       </c>
       <c r="AC47" t="n">
-        <v>-0.05718043084001539</v>
+        <v>-0.02481344624925357</v>
       </c>
     </row>
     <row r="48">
@@ -4965,79 +4965,79 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>0.1183921448514959</v>
+        <v>0.1184519463680785</v>
       </c>
       <c r="F48" t="n">
-        <v>0.00523466387051467</v>
+        <v>0.03519899328776374</v>
       </c>
       <c r="G48" t="n">
-        <v>0.1027212950043041</v>
+        <v>0.02046234670758327</v>
       </c>
       <c r="H48" t="n">
-        <v>0.04474805760491269</v>
+        <v>0.07210221051000272</v>
       </c>
       <c r="I48" t="n">
-        <v>0.007410776575098661</v>
+        <v>0.01805333158180288</v>
       </c>
       <c r="J48" t="n">
-        <v>0.05173341810474222</v>
+        <v>0.08068285575288386</v>
       </c>
       <c r="K48" t="n">
-        <v>0.0007280265755465289</v>
+        <v>0.03865454359018056</v>
       </c>
       <c r="L48" t="n">
-        <v>0.002414194090183033</v>
+        <v>0.06076219643328949</v>
       </c>
       <c r="M48" t="n">
-        <v>0.01590722030669925</v>
+        <v>0.009763645875456221</v>
       </c>
       <c r="N48" t="n">
-        <v>0.02168976826725811</v>
+        <v>0.02256373640611897</v>
       </c>
       <c r="O48" t="n">
-        <v>0.09261578907970924</v>
+        <v>0.04639749288828152</v>
       </c>
       <c r="P48" t="n">
-        <v>0.1078452061404055</v>
+        <v>0.04561883736182126</v>
       </c>
       <c r="Q48" t="n">
-        <v>0.008863154450163155</v>
+        <v>0.0349238304207119</v>
       </c>
       <c r="R48" t="n">
-        <v>0.04217490068292332</v>
+        <v>0.06861941670185279</v>
       </c>
       <c r="S48" t="n">
-        <v>0.05401910334832027</v>
+        <v>0.08239262066532131</v>
       </c>
       <c r="T48" t="n">
-        <v>0.07007780769542175</v>
+        <v>0.06125921437155379</v>
       </c>
       <c r="U48" t="n">
-        <v>0.03809605590264209</v>
+        <v>0.0771842092072752</v>
       </c>
       <c r="V48" t="n">
-        <v>0.008028182518888019</v>
+        <v>0.004950754145753003</v>
       </c>
       <c r="W48" t="n">
-        <v>0.09529411768322088</v>
+        <v>0.07022203437366162</v>
       </c>
       <c r="X48" t="n">
-        <v>0.08697748203282513</v>
+        <v>0.04207718839703999</v>
       </c>
       <c r="Y48" t="n">
-        <v>0.02208450484075086</v>
+        <v>0.0488853801619801</v>
       </c>
       <c r="Z48" t="n">
-        <v>0.06198803269590448</v>
+        <v>0.0380315288274239</v>
       </c>
       <c r="AA48" t="n">
-        <v>0.03858067190764414</v>
+        <v>0.01837358540135569</v>
       </c>
       <c r="AB48" t="n">
-        <v>0.02076757062192183</v>
+        <v>0.002820046930886175</v>
       </c>
       <c r="AC48" t="n">
-        <v>-0.1035227351567531</v>
+        <v>-0.1754285798906397</v>
       </c>
     </row>
     <row r="49">
@@ -5060,79 +5060,79 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>0.1668238222195421</v>
+        <v>0.1537016938216733</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1020423323261483</v>
+        <v>0.06175690798454649</v>
       </c>
       <c r="G49" t="n">
-        <v>0.01379982802084793</v>
+        <v>0.003396290495248033</v>
       </c>
       <c r="H49" t="n">
-        <v>0.02056958369322361</v>
+        <v>0.02046926679284042</v>
       </c>
       <c r="I49" t="n">
-        <v>0.01248644006861134</v>
+        <v>0.01461671299502992</v>
       </c>
       <c r="J49" t="n">
-        <v>0.00208154321631248</v>
+        <v>0.002674601989841086</v>
       </c>
       <c r="K49" t="n">
-        <v>0.009016207410268323</v>
+        <v>0.01734427910407158</v>
       </c>
       <c r="L49" t="n">
-        <v>0.03106335781742636</v>
+        <v>0.0009238248230632707</v>
       </c>
       <c r="M49" t="n">
-        <v>0.09122806460729364</v>
+        <v>0.08186995283723174</v>
       </c>
       <c r="N49" t="n">
-        <v>0.009363058739365793</v>
+        <v>0.01999643172518041</v>
       </c>
       <c r="O49" t="n">
-        <v>0.07690874553714043</v>
+        <v>0.0746172955133905</v>
       </c>
       <c r="P49" t="n">
-        <v>0.001559857890830708</v>
+        <v>0.02111887385964148</v>
       </c>
       <c r="Q49" t="n">
-        <v>0.06482865606330936</v>
+        <v>0.08683571219408266</v>
       </c>
       <c r="R49" t="n">
-        <v>0.1036232477653168</v>
+        <v>0.05321526283398879</v>
       </c>
       <c r="S49" t="n">
-        <v>0.04459937184125689</v>
+        <v>0.003785193114165023</v>
       </c>
       <c r="T49" t="n">
-        <v>0.03178467798771797</v>
+        <v>0.008559215159040375</v>
       </c>
       <c r="U49" t="n">
-        <v>0.007149664206675173</v>
+        <v>0.0545699040473599</v>
       </c>
       <c r="V49" t="n">
-        <v>0.1019727608213389</v>
+        <v>0.07181935385850612</v>
       </c>
       <c r="W49" t="n">
-        <v>0.01766678948264505</v>
+        <v>0.08557292104962927</v>
       </c>
       <c r="X49" t="n">
-        <v>0.05635778547812643</v>
+        <v>0.01435448076504142</v>
       </c>
       <c r="Y49" t="n">
-        <v>0.083060792159837</v>
+        <v>0.0747162869376744</v>
       </c>
       <c r="Z49" t="n">
-        <v>0.07558545085740062</v>
+        <v>0.1063192986825035</v>
       </c>
       <c r="AA49" t="n">
-        <v>0.03180811886034526</v>
+        <v>0.01424019484446687</v>
       </c>
       <c r="AB49" t="n">
-        <v>0.01144366514856171</v>
+        <v>0.1072277383934568</v>
       </c>
       <c r="AC49" t="n">
-        <v>-0.155961476317607</v>
+        <v>-0.1097737721924263</v>
       </c>
     </row>
     <row r="50">
@@ -5155,79 +5155,79 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>0.1218440032083143</v>
+        <v>0.1217962026194273</v>
       </c>
       <c r="F50" t="n">
-        <v>0.04908099139387236</v>
+        <v>0.01260944099323488</v>
       </c>
       <c r="G50" t="n">
-        <v>0.08597869255746127</v>
+        <v>0.07620227070473223</v>
       </c>
       <c r="H50" t="n">
-        <v>0.01344154098498219</v>
+        <v>0.02735028560155856</v>
       </c>
       <c r="I50" t="n">
-        <v>0.01003927852572511</v>
+        <v>0.03029131540239151</v>
       </c>
       <c r="J50" t="n">
-        <v>0.09380119381924726</v>
+        <v>0.07332100402691416</v>
       </c>
       <c r="K50" t="n">
-        <v>0.06433837975773117</v>
+        <v>0.005810845266028688</v>
       </c>
       <c r="L50" t="n">
-        <v>0.005510825184504389</v>
+        <v>0.05038372318325465</v>
       </c>
       <c r="M50" t="n">
-        <v>0.04331375291039403</v>
+        <v>0.09294051385206567</v>
       </c>
       <c r="N50" t="n">
-        <v>0.01753970052029534</v>
+        <v>0.001600045292029528</v>
       </c>
       <c r="O50" t="n">
-        <v>0.02943043751413686</v>
+        <v>0.05027343639587008</v>
       </c>
       <c r="P50" t="n">
-        <v>0.08523361159600734</v>
+        <v>0.01456340792325883</v>
       </c>
       <c r="Q50" t="n">
-        <v>0.0739487280381102</v>
+        <v>0.08075222426951464</v>
       </c>
       <c r="R50" t="n">
-        <v>0.01629132443534658</v>
+        <v>0.01920509338292365</v>
       </c>
       <c r="S50" t="n">
-        <v>0.01633064836817825</v>
+        <v>0.000318172391795665</v>
       </c>
       <c r="T50" t="n">
-        <v>0.01369588593110115</v>
+        <v>0.0161665611104073</v>
       </c>
       <c r="U50" t="n">
-        <v>0.04112798650901112</v>
+        <v>0.1012551354361301</v>
       </c>
       <c r="V50" t="n">
-        <v>0.007424945567267236</v>
+        <v>0.01737611161779886</v>
       </c>
       <c r="W50" t="n">
-        <v>0.0929998619683749</v>
+        <v>0.05016783415478922</v>
       </c>
       <c r="X50" t="n">
-        <v>0.07151034586739616</v>
+        <v>0.07988653154590812</v>
       </c>
       <c r="Y50" t="n">
-        <v>0.06888048468428132</v>
+        <v>0.01838343297172503</v>
       </c>
       <c r="Z50" t="n">
-        <v>0.03493583182781551</v>
+        <v>0.09801914738420793</v>
       </c>
       <c r="AA50" t="n">
-        <v>0.05460301953161521</v>
+        <v>0.06910466296297112</v>
       </c>
       <c r="AB50" t="n">
-        <v>0.01054253250714503</v>
+        <v>0.01401880413048956</v>
       </c>
       <c r="AC50" t="n">
-        <v>0.1019321205780994</v>
+        <v>0.1095416054381532</v>
       </c>
     </row>
     <row r="51">
@@ -5250,79 +5250,79 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>0.1360417891454989</v>
+        <v>0.1324821245065155</v>
       </c>
       <c r="F51" t="n">
-        <v>0.135345294875317</v>
+        <v>0.06300243924094785</v>
       </c>
       <c r="G51" t="n">
-        <v>0.01256790156005249</v>
+        <v>0.07398491209599847</v>
       </c>
       <c r="H51" t="n">
-        <v>0.01246637240748396</v>
+        <v>0.05894198503311054</v>
       </c>
       <c r="I51" t="n">
-        <v>0.0009786752579163949</v>
+        <v>0.006060064599087829</v>
       </c>
       <c r="J51" t="n">
-        <v>0.03774452661202037</v>
+        <v>0.07844091585763507</v>
       </c>
       <c r="K51" t="n">
-        <v>0.005236258660946035</v>
+        <v>0.001669089111323943</v>
       </c>
       <c r="L51" t="n">
-        <v>0.03468284824176204</v>
+        <v>0.003433158065729614</v>
       </c>
       <c r="M51" t="n">
-        <v>0.03734469799439958</v>
+        <v>0.08451343936408523</v>
       </c>
       <c r="N51" t="n">
-        <v>0.0247655978791061</v>
+        <v>0.005400795730805564</v>
       </c>
       <c r="O51" t="n">
-        <v>0.02219155470643086</v>
+        <v>0.05406201303127194</v>
       </c>
       <c r="P51" t="n">
-        <v>0.02236686417353035</v>
+        <v>0.01620605461362413</v>
       </c>
       <c r="Q51" t="n">
-        <v>0.04224698246859322</v>
+        <v>0.03899689881200694</v>
       </c>
       <c r="R51" t="n">
-        <v>0.04135157551886412</v>
+        <v>0.07201105962094308</v>
       </c>
       <c r="S51" t="n">
-        <v>0.09708321535056025</v>
+        <v>0.01224880050311349</v>
       </c>
       <c r="T51" t="n">
-        <v>0.002023498269866622</v>
+        <v>0.06892423974789731</v>
       </c>
       <c r="U51" t="n">
-        <v>0.02775368531938632</v>
+        <v>0.03092960251374082</v>
       </c>
       <c r="V51" t="n">
-        <v>0.02548327398367861</v>
+        <v>0.002107207308043528</v>
       </c>
       <c r="W51" t="n">
-        <v>0.04918539462709455</v>
+        <v>0.03149033533297044</v>
       </c>
       <c r="X51" t="n">
-        <v>0.1038566280565268</v>
+        <v>0.05023357862502068</v>
       </c>
       <c r="Y51" t="n">
-        <v>0.06460346669433366</v>
+        <v>0.08688674118425531</v>
       </c>
       <c r="Z51" t="n">
-        <v>0.09516228103268222</v>
+        <v>0.07145499277219028</v>
       </c>
       <c r="AA51" t="n">
-        <v>0.05416838087543323</v>
+        <v>0.00892250665155939</v>
       </c>
       <c r="AB51" t="n">
-        <v>0.05139102543401534</v>
+        <v>0.08007917018463857</v>
       </c>
       <c r="AC51" t="n">
-        <v>0.1559889301268501</v>
+        <v>0.1544880758584554</v>
       </c>
     </row>
     <row r="52">
@@ -5345,79 +5345,79 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>0.1436301181453525</v>
+        <v>0.1445423018536949</v>
       </c>
       <c r="F52" t="n">
-        <v>0.03683678095234526</v>
+        <v>0.08646866731011271</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05880803895207555</v>
+        <v>0.09363227804894733</v>
       </c>
       <c r="H52" t="n">
-        <v>0.01744394923971015</v>
+        <v>0.03368730852798401</v>
       </c>
       <c r="I52" t="n">
-        <v>0.005151439054312751</v>
+        <v>0.009601143835500986</v>
       </c>
       <c r="J52" t="n">
-        <v>0.03463373028279325</v>
+        <v>0.06486989190033654</v>
       </c>
       <c r="K52" t="n">
-        <v>0.02344169596694319</v>
+        <v>0.04533545864095632</v>
       </c>
       <c r="L52" t="n">
-        <v>0.06763604570005945</v>
+        <v>0.05602969713257645</v>
       </c>
       <c r="M52" t="n">
-        <v>0.06234908624464491</v>
+        <v>0.01196303114070805</v>
       </c>
       <c r="N52" t="n">
-        <v>0.02181095162531185</v>
+        <v>0.04036576599509249</v>
       </c>
       <c r="O52" t="n">
-        <v>0.03529274969315446</v>
+        <v>0.01681383919334149</v>
       </c>
       <c r="P52" t="n">
-        <v>0.06686575338813007</v>
+        <v>0.09427163007172627</v>
       </c>
       <c r="Q52" t="n">
-        <v>0.02787801598733833</v>
+        <v>0.09720992658373927</v>
       </c>
       <c r="R52" t="n">
-        <v>0.06297340466870954</v>
+        <v>0.05040038103661659</v>
       </c>
       <c r="S52" t="n">
-        <v>0.07029811955289016</v>
+        <v>0.003128888190718425</v>
       </c>
       <c r="T52" t="n">
-        <v>0.06057957716968966</v>
+        <v>0.0007310535492969278</v>
       </c>
       <c r="U52" t="n">
-        <v>0.03989137839447885</v>
+        <v>0.06774256873432492</v>
       </c>
       <c r="V52" t="n">
-        <v>0.05136473326978915</v>
+        <v>0.02242999168899944</v>
       </c>
       <c r="W52" t="n">
-        <v>0.06530036636229503</v>
+        <v>0.04849852073108332</v>
       </c>
       <c r="X52" t="n">
-        <v>0.003773645025508191</v>
+        <v>0.0004322155065069721</v>
       </c>
       <c r="Y52" t="n">
-        <v>0.06660419561018589</v>
+        <v>0.09036870795518212</v>
       </c>
       <c r="Z52" t="n">
-        <v>0.001592687728840741</v>
+        <v>0.006933396079303976</v>
       </c>
       <c r="AA52" t="n">
-        <v>0.06236271972675027</v>
+        <v>0.04561525929189492</v>
       </c>
       <c r="AB52" t="n">
-        <v>0.05711093540404313</v>
+        <v>0.01347037885505048</v>
       </c>
       <c r="AC52" t="n">
-        <v>0.0602309718023838</v>
+        <v>0.05169947435970361</v>
       </c>
     </row>
     <row r="53">
@@ -5440,79 +5440,79 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>0.3392533844762324</v>
+        <v>0.289570756190069</v>
       </c>
       <c r="F53" t="n">
-        <v>0.07903412426281692</v>
+        <v>0.01437962220776893</v>
       </c>
       <c r="G53" t="n">
-        <v>0.001183824277496255</v>
+        <v>0.00351323831591328</v>
       </c>
       <c r="H53" t="n">
-        <v>0.01636611054803699</v>
+        <v>0.002591467230702041</v>
       </c>
       <c r="I53" t="n">
-        <v>0.03327679523382668</v>
+        <v>0.00453516289511671</v>
       </c>
       <c r="J53" t="n">
-        <v>0.03721409794911075</v>
+        <v>0.01513600697181474</v>
       </c>
       <c r="K53" t="n">
-        <v>0.02606893736698655</v>
+        <v>0.02589583570131914</v>
       </c>
       <c r="L53" t="n">
-        <v>0.01522187279968027</v>
+        <v>0.02138935997863203</v>
       </c>
       <c r="M53" t="n">
-        <v>0.03059470040786079</v>
+        <v>0.01494725458915547</v>
       </c>
       <c r="N53" t="n">
-        <v>0.08751494733439126</v>
+        <v>0.004781217734961915</v>
       </c>
       <c r="O53" t="n">
-        <v>0.05589471584564092</v>
+        <v>0.05154697773948636</v>
       </c>
       <c r="P53" t="n">
-        <v>0.06305947986189503</v>
+        <v>0.03512655614289464</v>
       </c>
       <c r="Q53" t="n">
-        <v>0.07695563617561248</v>
+        <v>0.08913009952247007</v>
       </c>
       <c r="R53" t="n">
-        <v>0.007753454401721384</v>
+        <v>0.07314361563609607</v>
       </c>
       <c r="S53" t="n">
-        <v>0.06682372461599806</v>
+        <v>0.01708687376581698</v>
       </c>
       <c r="T53" t="n">
-        <v>0.01416321261617251</v>
+        <v>0.07635743816229393</v>
       </c>
       <c r="U53" t="n">
-        <v>0.07746250511966807</v>
+        <v>0.007682484055540348</v>
       </c>
       <c r="V53" t="n">
-        <v>0.01387261440161888</v>
+        <v>0.05945073405513565</v>
       </c>
       <c r="W53" t="n">
-        <v>0.008159864570961215</v>
+        <v>0.07281609342820283</v>
       </c>
       <c r="X53" t="n">
-        <v>0.1160470088048629</v>
+        <v>0.09812041740918669</v>
       </c>
       <c r="Y53" t="n">
-        <v>0.08149609395474527</v>
+        <v>0.1043929193177347</v>
       </c>
       <c r="Z53" t="n">
-        <v>0.006414377689742573</v>
+        <v>0.01456690579810764</v>
       </c>
       <c r="AA53" t="n">
-        <v>0.02761437286889026</v>
+        <v>0.1048944667845895</v>
       </c>
       <c r="AB53" t="n">
-        <v>0.05780752889226404</v>
+        <v>0.08851525255706026</v>
       </c>
       <c r="AC53" t="n">
-        <v>0.08146615098515916</v>
+        <v>0.08215057575192232</v>
       </c>
     </row>
     <row r="54">
@@ -5535,79 +5535,79 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>0.1335184614112936</v>
+        <v>0.1329577852454472</v>
       </c>
       <c r="F54" t="n">
-        <v>0.03503279265583364</v>
+        <v>0.06746994539231799</v>
       </c>
       <c r="G54" t="n">
-        <v>0.09242987757592834</v>
+        <v>0.009912193795126183</v>
       </c>
       <c r="H54" t="n">
-        <v>0.01468819016636169</v>
+        <v>0.099928420865567</v>
       </c>
       <c r="I54" t="n">
-        <v>0.03745962237095419</v>
+        <v>0.02689461925338834</v>
       </c>
       <c r="J54" t="n">
-        <v>0.00320411248664235</v>
+        <v>0.06377198041777715</v>
       </c>
       <c r="K54" t="n">
-        <v>0.06068430932658456</v>
+        <v>0.06695837016973889</v>
       </c>
       <c r="L54" t="n">
-        <v>0.04424106597464345</v>
+        <v>0.04181621007038284</v>
       </c>
       <c r="M54" t="n">
-        <v>0.06424181381640814</v>
+        <v>0.08853885881517265</v>
       </c>
       <c r="N54" t="n">
-        <v>0.007534806814288138</v>
+        <v>0.0133950730666122</v>
       </c>
       <c r="O54" t="n">
-        <v>0.08837872255518357</v>
+        <v>0.0062623084480477</v>
       </c>
       <c r="P54" t="n">
-        <v>0.04028184338209204</v>
+        <v>0.06037844434811667</v>
       </c>
       <c r="Q54" t="n">
-        <v>0.1071245212525729</v>
+        <v>0.1007398405888643</v>
       </c>
       <c r="R54" t="n">
-        <v>0.07867464196146179</v>
+        <v>0.0658331507549318</v>
       </c>
       <c r="S54" t="n">
-        <v>0.01691989088645166</v>
+        <v>0.007444449713326983</v>
       </c>
       <c r="T54" t="n">
-        <v>0.06390669219232271</v>
+        <v>0.002447730695570916</v>
       </c>
       <c r="U54" t="n">
-        <v>0.001506897922707221</v>
+        <v>0.06720706015446777</v>
       </c>
       <c r="V54" t="n">
-        <v>0.04221811824406436</v>
+        <v>0.01075021954047664</v>
       </c>
       <c r="W54" t="n">
-        <v>0.09184202703415038</v>
+        <v>0.07242840863041887</v>
       </c>
       <c r="X54" t="n">
-        <v>0.03869933441312844</v>
+        <v>0.04697071637405629</v>
       </c>
       <c r="Y54" t="n">
-        <v>0.02974105363278637</v>
+        <v>0.0175558415892735</v>
       </c>
       <c r="Z54" t="n">
-        <v>0.006286794567075788</v>
+        <v>0.01144677154058865</v>
       </c>
       <c r="AA54" t="n">
-        <v>0.03338526939513122</v>
+        <v>0.05074939543901936</v>
       </c>
       <c r="AB54" t="n">
-        <v>0.001517601373227063</v>
+        <v>0.001099990336757248</v>
       </c>
       <c r="AC54" t="n">
-        <v>-0.08012461448466221</v>
+        <v>-0.09712432492805938</v>
       </c>
     </row>
     <row r="55">
@@ -5630,79 +5630,79 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>0.1399060675517689</v>
+        <v>0.1449897735569774</v>
       </c>
       <c r="F55" t="n">
-        <v>0.0670092451958345</v>
+        <v>0.04347265969040805</v>
       </c>
       <c r="G55" t="n">
-        <v>0.04907330341332993</v>
+        <v>0.003159887943269071</v>
       </c>
       <c r="H55" t="n">
-        <v>0.02328192557590193</v>
+        <v>0.0449722364425983</v>
       </c>
       <c r="I55" t="n">
-        <v>0.02147306384446073</v>
+        <v>0.0181873327975905</v>
       </c>
       <c r="J55" t="n">
-        <v>0.006402822321216679</v>
+        <v>0.05680790499120153</v>
       </c>
       <c r="K55" t="n">
-        <v>0.02223579938886247</v>
+        <v>0.0001633300432644258</v>
       </c>
       <c r="L55" t="n">
-        <v>0.0002580832295495017</v>
+        <v>0.01767228016616366</v>
       </c>
       <c r="M55" t="n">
-        <v>0.08251593142912692</v>
+        <v>0.07967434847658295</v>
       </c>
       <c r="N55" t="n">
-        <v>0.06970485388109503</v>
+        <v>0.09259025984754558</v>
       </c>
       <c r="O55" t="n">
-        <v>0.08242516536224169</v>
+        <v>0.09253480256907556</v>
       </c>
       <c r="P55" t="n">
-        <v>0.08418377876338867</v>
+        <v>0.006491964901245722</v>
       </c>
       <c r="Q55" t="n">
-        <v>0.04424790574061475</v>
+        <v>0.1041077736161549</v>
       </c>
       <c r="R55" t="n">
-        <v>0.0710131150462406</v>
+        <v>0.09430069385319426</v>
       </c>
       <c r="S55" t="n">
-        <v>0.05461282335829561</v>
+        <v>0.02049320143000758</v>
       </c>
       <c r="T55" t="n">
-        <v>0.0472201190571481</v>
+        <v>0.003200434247931048</v>
       </c>
       <c r="U55" t="n">
-        <v>0.01353663070705122</v>
+        <v>0.003696365943870922</v>
       </c>
       <c r="V55" t="n">
-        <v>0.02262687485599572</v>
+        <v>0.08531028589384088</v>
       </c>
       <c r="W55" t="n">
-        <v>0.06387727117203983</v>
+        <v>0.07841060128569523</v>
       </c>
       <c r="X55" t="n">
-        <v>0.005939656355678412</v>
+        <v>0.0177520202327483</v>
       </c>
       <c r="Y55" t="n">
-        <v>0.07928030487348231</v>
+        <v>0.09388404713326214</v>
       </c>
       <c r="Z55" t="n">
-        <v>0.01523445395153401</v>
+        <v>0.004419726397442205</v>
       </c>
       <c r="AA55" t="n">
-        <v>0.04222934929508769</v>
+        <v>0.03385032247016794</v>
       </c>
       <c r="AB55" t="n">
-        <v>0.03161752318182352</v>
+        <v>0.00484751962673927</v>
       </c>
       <c r="AC55" t="n">
-        <v>-0.04279478247934315</v>
+        <v>-0.01329752380200852</v>
       </c>
     </row>
     <row r="56">
@@ -5725,79 +5725,79 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>0.2049287751471641</v>
+        <v>0.2031791534032902</v>
       </c>
       <c r="F56" t="n">
-        <v>0.03728902846586377</v>
+        <v>0.04944586423354488</v>
       </c>
       <c r="G56" t="n">
-        <v>0.0113775445967114</v>
+        <v>0.00774816978714081</v>
       </c>
       <c r="H56" t="n">
-        <v>0.03867980584618525</v>
+        <v>0.1072830577726311</v>
       </c>
       <c r="I56" t="n">
-        <v>0.03036247958996046</v>
+        <v>0.02017567796920373</v>
       </c>
       <c r="J56" t="n">
-        <v>0.005617903415142608</v>
+        <v>0.05027300842971576</v>
       </c>
       <c r="K56" t="n">
-        <v>0.02757152353171313</v>
+        <v>0.004722338185183209</v>
       </c>
       <c r="L56" t="n">
-        <v>0.0007328811192439611</v>
+        <v>0.008238156594396334</v>
       </c>
       <c r="M56" t="n">
-        <v>0.04900364317660368</v>
+        <v>0.01377996668989168</v>
       </c>
       <c r="N56" t="n">
-        <v>0.02448795753359234</v>
+        <v>0.01381567440193954</v>
       </c>
       <c r="O56" t="n">
-        <v>0.07916554066996956</v>
+        <v>0.004999035035909487</v>
       </c>
       <c r="P56" t="n">
-        <v>0.03056296185010521</v>
+        <v>0.1137686677607449</v>
       </c>
       <c r="Q56" t="n">
-        <v>0.09951877953691934</v>
+        <v>0.0534978508871281</v>
       </c>
       <c r="R56" t="n">
-        <v>0.07041568213584982</v>
+        <v>0.1126057962203605</v>
       </c>
       <c r="S56" t="n">
-        <v>0.0325574128323978</v>
+        <v>0.09638528372270445</v>
       </c>
       <c r="T56" t="n">
-        <v>0.06070949234336457</v>
+        <v>0.01489982719464764</v>
       </c>
       <c r="U56" t="n">
-        <v>0.09393905026735377</v>
+        <v>0.1127171807440558</v>
       </c>
       <c r="V56" t="n">
-        <v>0.01156200527706737</v>
+        <v>0.02477851109947544</v>
       </c>
       <c r="W56" t="n">
-        <v>0.04269529027561717</v>
+        <v>0.07833941319150681</v>
       </c>
       <c r="X56" t="n">
-        <v>0.0321981676168839</v>
+        <v>0.003517717382034635</v>
       </c>
       <c r="Y56" t="n">
-        <v>0.06381047100939236</v>
+        <v>0.008337578319067654</v>
       </c>
       <c r="Z56" t="n">
-        <v>0.08287660572325475</v>
+        <v>0.06924690528922241</v>
       </c>
       <c r="AA56" t="n">
-        <v>0.04022746665318148</v>
+        <v>0.0273914767265131</v>
       </c>
       <c r="AB56" t="n">
-        <v>0.03463830653362643</v>
+        <v>0.004032842362982109</v>
       </c>
       <c r="AC56" t="n">
-        <v>0.06093451540959705</v>
+        <v>0.06330801553388377</v>
       </c>
     </row>
     <row r="57">
@@ -5820,79 +5820,79 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>0.2139619666450911</v>
+        <v>0.2156003210727331</v>
       </c>
       <c r="F57" t="n">
-        <v>0.07958547274352702</v>
+        <v>0.08471302931113937</v>
       </c>
       <c r="G57" t="n">
-        <v>0.04695806680901111</v>
+        <v>0.02630666639897383</v>
       </c>
       <c r="H57" t="n">
-        <v>0.004470256890447912</v>
+        <v>0.04104264890484637</v>
       </c>
       <c r="I57" t="n">
-        <v>0.02840832264704985</v>
+        <v>0.05402685741035436</v>
       </c>
       <c r="J57" t="n">
-        <v>0.007819517773309274</v>
+        <v>0.002447253649825443</v>
       </c>
       <c r="K57" t="n">
-        <v>0.006981681274716572</v>
+        <v>0.04443080349980329</v>
       </c>
       <c r="L57" t="n">
-        <v>0.02167117242943738</v>
+        <v>0.007903230358985753</v>
       </c>
       <c r="M57" t="n">
-        <v>0.004604347904035629</v>
+        <v>0.06623784707780976</v>
       </c>
       <c r="N57" t="n">
-        <v>0.005367049044642548</v>
+        <v>0.01948172507499415</v>
       </c>
       <c r="O57" t="n">
-        <v>0.03100318551041609</v>
+        <v>0.08956777190174792</v>
       </c>
       <c r="P57" t="n">
-        <v>0.00585333412231849</v>
+        <v>0.00342341007110581</v>
       </c>
       <c r="Q57" t="n">
-        <v>0.1194062355701738</v>
+        <v>0.0517773193624769</v>
       </c>
       <c r="R57" t="n">
-        <v>0.04185091601138747</v>
+        <v>0.08714957654397597</v>
       </c>
       <c r="S57" t="n">
-        <v>0.1011901544057714</v>
+        <v>0.0008638462649576332</v>
       </c>
       <c r="T57" t="n">
-        <v>0.08094545079465848</v>
+        <v>0.08659137577603712</v>
       </c>
       <c r="U57" t="n">
-        <v>0.008009028872064306</v>
+        <v>0.03609361833261296</v>
       </c>
       <c r="V57" t="n">
-        <v>0.009330524653400932</v>
+        <v>0.02549868468271263</v>
       </c>
       <c r="W57" t="n">
-        <v>0.04930511554775687</v>
+        <v>0.05420493798639522</v>
       </c>
       <c r="X57" t="n">
-        <v>0.08034843035525596</v>
+        <v>0.04999934516217038</v>
       </c>
       <c r="Y57" t="n">
-        <v>0.09881524364719067</v>
+        <v>0.06970069576177951</v>
       </c>
       <c r="Z57" t="n">
-        <v>0.1358660800132277</v>
+        <v>0.0388126050367005</v>
       </c>
       <c r="AA57" t="n">
-        <v>0.01597230056454669</v>
+        <v>0.04299650894303257</v>
       </c>
       <c r="AB57" t="n">
-        <v>0.01623811241565377</v>
+        <v>0.01673024248756259</v>
       </c>
       <c r="AC57" t="n">
-        <v>0.04820215018541073</v>
+        <v>0.09896715712799001</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Data/DAX30/Efficient Portfolios with Prediction/Manual Recurrence/input 30/DAX30_efficient_portfolios_and_returns_with_prediction_semester.xlsx
+++ b/Code/Data/DAX30/Efficient Portfolios with Prediction/Manual Recurrence/input 30/DAX30_efficient_portfolios_and_returns_with_prediction_semester.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -53,18 +53,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -595,79 +595,79 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>0.1563930956378764</v>
+        <v>0.1536277950598255</v>
       </c>
       <c r="F2" t="n">
-        <v>0.08175716551023816</v>
+        <v>0.09581771609118447</v>
       </c>
       <c r="G2" t="n">
-        <v>0.08378342405700466</v>
+        <v>0.05585022438710262</v>
       </c>
       <c r="H2" t="n">
-        <v>0.04281392562712736</v>
+        <v>0.0366356299340052</v>
       </c>
       <c r="I2" t="n">
-        <v>0.0006055834258817626</v>
+        <v>0.01293533817162696</v>
       </c>
       <c r="J2" t="n">
-        <v>0.06326956854071332</v>
+        <v>0.09571461603849675</v>
       </c>
       <c r="K2" t="n">
-        <v>0.08262119511189596</v>
+        <v>0.05477856602920761</v>
       </c>
       <c r="L2" t="n">
-        <v>0.07838876269091255</v>
+        <v>0.01118175173183112</v>
       </c>
       <c r="M2" t="n">
-        <v>0.05988544565465784</v>
+        <v>0.02339888358840579</v>
       </c>
       <c r="N2" t="n">
-        <v>0.03029404525306004</v>
+        <v>0.0821016446385324</v>
       </c>
       <c r="O2" t="n">
-        <v>0.06647104509179506</v>
+        <v>0.02292317640642999</v>
       </c>
       <c r="P2" t="n">
-        <v>0.04487512363080742</v>
+        <v>0.05398439793273013</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.004457273714695444</v>
+        <v>0.0208398338661438</v>
       </c>
       <c r="R2" t="n">
-        <v>0.03156007474131826</v>
+        <v>0.02734186653439304</v>
       </c>
       <c r="S2" t="n">
-        <v>0.0294711987481005</v>
+        <v>0.02180530780831579</v>
       </c>
       <c r="T2" t="n">
-        <v>0.05047020417448245</v>
+        <v>0.01933448472468981</v>
       </c>
       <c r="U2" t="n">
-        <v>0.01304117754821232</v>
+        <v>0.01193932291555412</v>
       </c>
       <c r="V2" t="n">
-        <v>0.02473723060406945</v>
+        <v>0.06753949758441305</v>
       </c>
       <c r="W2" t="n">
-        <v>0.07385369539093065</v>
+        <v>0.0944841404142694</v>
       </c>
       <c r="X2" t="n">
-        <v>0.05346775356338387</v>
+        <v>0.05358156375553978</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.00228313599853305</v>
+        <v>0.004049989126025918</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.0620925868626254</v>
+        <v>0.08360236758121925</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.003739761237935299</v>
+        <v>0.04632975007138418</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.0160606228216193</v>
+        <v>0.003829930668498668</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.0886444015517949</v>
+        <v>0.1071440481298471</v>
       </c>
     </row>
     <row r="3">
@@ -690,79 +690,79 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>0.376295666339183</v>
+        <v>0.4442540715484692</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0002573310886869409</v>
+        <v>0.03488527766488304</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03910422119175257</v>
+        <v>0.01653051272384531</v>
       </c>
       <c r="H3" t="n">
-        <v>0.07799377310709719</v>
+        <v>0.02123710578057118</v>
       </c>
       <c r="I3" t="n">
-        <v>0.002694750781572063</v>
+        <v>0.04552344668893211</v>
       </c>
       <c r="J3" t="n">
-        <v>0.04468497106818252</v>
+        <v>0.04309914894869415</v>
       </c>
       <c r="K3" t="n">
-        <v>0.0763992971868596</v>
+        <v>0.02809317125317801</v>
       </c>
       <c r="L3" t="n">
-        <v>0.009046344480474979</v>
+        <v>0.01429509550397121</v>
       </c>
       <c r="M3" t="n">
-        <v>0.09129056452375943</v>
+        <v>0.046714675641447</v>
       </c>
       <c r="N3" t="n">
-        <v>0.06961072335407185</v>
+        <v>0.03633497425035798</v>
       </c>
       <c r="O3" t="n">
-        <v>0.01446718347333763</v>
+        <v>0.05214190072185357</v>
       </c>
       <c r="P3" t="n">
-        <v>0.02745333401779336</v>
+        <v>0.03244270531275764</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.01985802257743461</v>
+        <v>0.0003132877714705152</v>
       </c>
       <c r="R3" t="n">
-        <v>0.006457512193702199</v>
+        <v>0.02561830928559666</v>
       </c>
       <c r="S3" t="n">
-        <v>0.06775579966024922</v>
+        <v>0.1015599187774196</v>
       </c>
       <c r="T3" t="n">
-        <v>0.05224293196478167</v>
+        <v>0.1171098680373081</v>
       </c>
       <c r="U3" t="n">
-        <v>0.03276189628341528</v>
+        <v>0.03378181551735339</v>
       </c>
       <c r="V3" t="n">
-        <v>0.04252155317937901</v>
+        <v>0.07051924889723041</v>
       </c>
       <c r="W3" t="n">
-        <v>0.08521177584978358</v>
+        <v>0.03036474520380952</v>
       </c>
       <c r="X3" t="n">
-        <v>0.09325496562195495</v>
+        <v>0.01953742961876564</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.04708948831339665</v>
+        <v>0.05560415503689037</v>
       </c>
       <c r="Z3" t="n">
-        <v>0.009946077887309454</v>
+        <v>0.01925056985718407</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.01721549209861757</v>
+        <v>0.04806276561585894</v>
       </c>
       <c r="AB3" t="n">
-        <v>0.07268199009638783</v>
+        <v>0.1069798718906217</v>
       </c>
       <c r="AC3" t="n">
-        <v>0.06874065249478947</v>
+        <v>0.09749306358327187</v>
       </c>
     </row>
     <row r="4">
@@ -785,79 +785,79 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>0.2451452733540448</v>
+        <v>0.1840867556297285</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0784006955222655</v>
+        <v>0.06914430755464156</v>
       </c>
       <c r="G4" t="n">
-        <v>0.024860458096599</v>
+        <v>0.07383006011860337</v>
       </c>
       <c r="H4" t="n">
-        <v>0.009164030170385744</v>
+        <v>0.003813124157396569</v>
       </c>
       <c r="I4" t="n">
-        <v>0.06619897076361664</v>
+        <v>0.07422136710137806</v>
       </c>
       <c r="J4" t="n">
-        <v>0.004249893773943869</v>
+        <v>0.001255292435254988</v>
       </c>
       <c r="K4" t="n">
-        <v>0.08253434138965619</v>
+        <v>0.05128020550617859</v>
       </c>
       <c r="L4" t="n">
-        <v>0.02156208759983344</v>
+        <v>0.0008658587922580625</v>
       </c>
       <c r="M4" t="n">
-        <v>0.05258142007849535</v>
+        <v>0.07573052323004376</v>
       </c>
       <c r="N4" t="n">
-        <v>0.08026251925907887</v>
+        <v>0.005534977816940518</v>
       </c>
       <c r="O4" t="n">
-        <v>0.05709451861010437</v>
+        <v>0.07144041828240544</v>
       </c>
       <c r="P4" t="n">
-        <v>0.02826347963192951</v>
+        <v>0.07534828418036801</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.01325998536362114</v>
+        <v>0.02998884959778656</v>
       </c>
       <c r="R4" t="n">
-        <v>0.07201076180647291</v>
+        <v>0.0381535625513861</v>
       </c>
       <c r="S4" t="n">
-        <v>0.01916446699143878</v>
+        <v>0.001770604726874554</v>
       </c>
       <c r="T4" t="n">
-        <v>0.05828640623130033</v>
+        <v>0.04818039337193057</v>
       </c>
       <c r="U4" t="n">
-        <v>0.07688527028806864</v>
+        <v>0.0335270182788626</v>
       </c>
       <c r="V4" t="n">
-        <v>0.03121723295780365</v>
+        <v>0.07681505915001446</v>
       </c>
       <c r="W4" t="n">
-        <v>0.03259568871679266</v>
+        <v>0.0493618463862707</v>
       </c>
       <c r="X4" t="n">
-        <v>0.07865538535197203</v>
+        <v>0.08153133693834656</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.0412149685889871</v>
+        <v>0.02524164851903534</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.05095738338944315</v>
+        <v>0.0723342977653625</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.0006292424338493315</v>
+        <v>0.001008690865615322</v>
       </c>
       <c r="AB4" t="n">
-        <v>0.01995079298434183</v>
+        <v>0.03962227267304582</v>
       </c>
       <c r="AC4" t="n">
-        <v>0.003288705913968952</v>
+        <v>0.01034666405895339</v>
       </c>
     </row>
     <row r="5">
@@ -880,79 +880,79 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>0.8605568338443353</v>
+        <v>0.5101531315195815</v>
       </c>
       <c r="F5" t="n">
-        <v>0.001821619679868014</v>
+        <v>0.03355876740712477</v>
       </c>
       <c r="G5" t="n">
-        <v>0.05095650147812879</v>
+        <v>0.09100436924970977</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0003998461093171067</v>
+        <v>0.05526209941378896</v>
       </c>
       <c r="I5" t="n">
-        <v>0.1010472471478468</v>
+        <v>0.001121908476220545</v>
       </c>
       <c r="J5" t="n">
-        <v>0.001211691006596091</v>
+        <v>0.004143906237478094</v>
       </c>
       <c r="K5" t="n">
-        <v>0.005329874114532318</v>
+        <v>0.03214964292490449</v>
       </c>
       <c r="L5" t="n">
-        <v>0.05920491852104309</v>
+        <v>0.007604561737957255</v>
       </c>
       <c r="M5" t="n">
-        <v>0.01819565105154949</v>
+        <v>0.07395919829988475</v>
       </c>
       <c r="N5" t="n">
-        <v>0.08009182807837849</v>
+        <v>0.008417305877554909</v>
       </c>
       <c r="O5" t="n">
-        <v>0.08554891063693455</v>
+        <v>0.04612578963415726</v>
       </c>
       <c r="P5" t="n">
-        <v>0.02517826541192846</v>
+        <v>0.04990076933933669</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.09768433154546412</v>
+        <v>0.008571859021702951</v>
       </c>
       <c r="R5" t="n">
-        <v>0.0778169070421094</v>
+        <v>0.04412048588341851</v>
       </c>
       <c r="S5" t="n">
-        <v>0.06456079283221677</v>
+        <v>0.07526192931636172</v>
       </c>
       <c r="T5" t="n">
-        <v>0.0351372058475277</v>
+        <v>0.09791843093532308</v>
       </c>
       <c r="U5" t="n">
-        <v>0.06986833375316728</v>
+        <v>0.05064341564506085</v>
       </c>
       <c r="V5" t="n">
-        <v>0.03629879961408775</v>
+        <v>0.03254302438920435</v>
       </c>
       <c r="W5" t="n">
-        <v>0.02578218904515304</v>
+        <v>0.00939860436491035</v>
       </c>
       <c r="X5" t="n">
-        <v>0.03095483471790329</v>
+        <v>0.06264058113097497</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.07395269772577021</v>
+        <v>0.09389935427633544</v>
       </c>
       <c r="Z5" t="n">
-        <v>0.03995673697281971</v>
+        <v>0.03054543823267019</v>
       </c>
       <c r="AA5" t="n">
-        <v>0.003699920830285287</v>
+        <v>0.003918019918283343</v>
       </c>
       <c r="AB5" t="n">
-        <v>0.01530089683737232</v>
+        <v>0.08729053828763676</v>
       </c>
       <c r="AC5" t="n">
-        <v>0.008997070971942561</v>
+        <v>0.04456145850098477</v>
       </c>
     </row>
     <row r="6">
@@ -975,79 +975,79 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>0.1498952844497401</v>
+        <v>0.1492861401513992</v>
       </c>
       <c r="F6" t="n">
-        <v>0.07943674614224636</v>
+        <v>0.02361331482441965</v>
       </c>
       <c r="G6" t="n">
-        <v>0.07629775135025448</v>
+        <v>0.002921594507017226</v>
       </c>
       <c r="H6" t="n">
-        <v>0.01877382960605976</v>
+        <v>0.04875317520978225</v>
       </c>
       <c r="I6" t="n">
-        <v>0.003491660576738843</v>
+        <v>0.007618499057287906</v>
       </c>
       <c r="J6" t="n">
-        <v>0.02428105566744504</v>
+        <v>0.05190061405455462</v>
       </c>
       <c r="K6" t="n">
-        <v>0.04390848827394891</v>
+        <v>0.01971009597827095</v>
       </c>
       <c r="L6" t="n">
-        <v>0.01496300961889982</v>
+        <v>0.06841853023352959</v>
       </c>
       <c r="M6" t="n">
-        <v>0.0259473617895465</v>
+        <v>0.03017155104928835</v>
       </c>
       <c r="N6" t="n">
-        <v>0.001725169373472742</v>
+        <v>0.007583791205780485</v>
       </c>
       <c r="O6" t="n">
-        <v>0.06980258076389043</v>
+        <v>0.09581116876060378</v>
       </c>
       <c r="P6" t="n">
-        <v>0.06241853644243866</v>
+        <v>0.02404375187077422</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.001197765566962503</v>
+        <v>0.007934711273599569</v>
       </c>
       <c r="R6" t="n">
-        <v>0.07272385359810346</v>
+        <v>0.08445215453712773</v>
       </c>
       <c r="S6" t="n">
-        <v>0.07501384037505962</v>
+        <v>0.07079852571322348</v>
       </c>
       <c r="T6" t="n">
-        <v>0.04907732540103053</v>
+        <v>0.007102622700354647</v>
       </c>
       <c r="U6" t="n">
-        <v>0.04558437939996082</v>
+        <v>0.08527646054249763</v>
       </c>
       <c r="V6" t="n">
-        <v>0.05933778226597086</v>
+        <v>0.01992026666595939</v>
       </c>
       <c r="W6" t="n">
-        <v>0.07398508509234956</v>
+        <v>0.09309442223567535</v>
       </c>
       <c r="X6" t="n">
-        <v>0.05582427596260128</v>
+        <v>0.03759374269470177</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.04515053193115933</v>
+        <v>0.01722226242053699</v>
       </c>
       <c r="Z6" t="n">
-        <v>0.05402501168985462</v>
+        <v>0.09096429550803017</v>
       </c>
       <c r="AA6" t="n">
-        <v>0.02717275019485331</v>
+        <v>0.03521262325603879</v>
       </c>
       <c r="AB6" t="n">
-        <v>0.01986120891715268</v>
+        <v>0.06988182570094564</v>
       </c>
       <c r="AC6" t="n">
-        <v>-0.2316342529534376</v>
+        <v>-0.2241164520860654</v>
       </c>
     </row>
     <row r="7">
@@ -1070,79 +1070,79 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>0.3436341223303609</v>
+        <v>0.184689144541311</v>
       </c>
       <c r="F7" t="n">
-        <v>0.04594956064747047</v>
+        <v>7.038174558819599e-05</v>
       </c>
       <c r="G7" t="n">
-        <v>0.02359439761689011</v>
+        <v>0.09943884854442196</v>
       </c>
       <c r="H7" t="n">
-        <v>0.09285839694247389</v>
+        <v>0.0788334624573911</v>
       </c>
       <c r="I7" t="n">
-        <v>0.03717924714846945</v>
+        <v>0.01083336029033555</v>
       </c>
       <c r="J7" t="n">
-        <v>0.01092891948349635</v>
+        <v>0.01221307850991717</v>
       </c>
       <c r="K7" t="n">
-        <v>0.07413504976978098</v>
+        <v>0.02341758675898043</v>
       </c>
       <c r="L7" t="n">
-        <v>0.09404831327907777</v>
+        <v>0.08883737836188306</v>
       </c>
       <c r="M7" t="n">
-        <v>0.01767674659527649</v>
+        <v>0.006386999210310492</v>
       </c>
       <c r="N7" t="n">
-        <v>0.01233581298857144</v>
+        <v>0.02186833803421102</v>
       </c>
       <c r="O7" t="n">
-        <v>0.01127423872295012</v>
+        <v>0.08317729061252443</v>
       </c>
       <c r="P7" t="n">
-        <v>0.0483128075935525</v>
+        <v>0.05622709383538793</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.0826958897689014</v>
+        <v>0.03996458529276364</v>
       </c>
       <c r="R7" t="n">
-        <v>0.05543832032167578</v>
+        <v>0.0294359050632347</v>
       </c>
       <c r="S7" t="n">
-        <v>0.01018023494906205</v>
+        <v>0.09504121561648075</v>
       </c>
       <c r="T7" t="n">
-        <v>0.01945023815112094</v>
+        <v>0.02069527342314537</v>
       </c>
       <c r="U7" t="n">
-        <v>0.009758574611713157</v>
+        <v>0.0148384658755684</v>
       </c>
       <c r="V7" t="n">
-        <v>0.002933362479297098</v>
+        <v>0.00566786698787823</v>
       </c>
       <c r="W7" t="n">
-        <v>0.08326025995878254</v>
+        <v>0.1136225236456941</v>
       </c>
       <c r="X7" t="n">
-        <v>0.01816530774240984</v>
+        <v>0.04302457010035403</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.07416897441827568</v>
+        <v>0.0226916455699753</v>
       </c>
       <c r="Z7" t="n">
-        <v>0.01050802051311869</v>
+        <v>0.008797467251142397</v>
       </c>
       <c r="AA7" t="n">
-        <v>0.07311357339138619</v>
+        <v>0.01035476193623645</v>
       </c>
       <c r="AB7" t="n">
-        <v>0.09203375290624716</v>
+        <v>0.1145619008765753</v>
       </c>
       <c r="AC7" t="n">
-        <v>-0.2262178667003966</v>
+        <v>-0.2084579080731468</v>
       </c>
     </row>
     <row r="8">
@@ -1165,79 +1165,79 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>0.1452540599956543</v>
+        <v>0.1486257119147091</v>
       </c>
       <c r="F8" t="n">
-        <v>0.07928905427551085</v>
+        <v>0.07836160952001925</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02224465295522547</v>
+        <v>0.01449177482885879</v>
       </c>
       <c r="H8" t="n">
-        <v>0.06121645524460165</v>
+        <v>0.05679955044985498</v>
       </c>
       <c r="I8" t="n">
-        <v>0.08987437354990978</v>
+        <v>0.0475331800344136</v>
       </c>
       <c r="J8" t="n">
-        <v>0.01590912421523711</v>
+        <v>0.03687693934677744</v>
       </c>
       <c r="K8" t="n">
-        <v>0.003939126752081841</v>
+        <v>0.01912973781688685</v>
       </c>
       <c r="L8" t="n">
-        <v>0.0124478129555844</v>
+        <v>0.06353310668037111</v>
       </c>
       <c r="M8" t="n">
-        <v>0.01748429716327335</v>
+        <v>0.03006219756550528</v>
       </c>
       <c r="N8" t="n">
-        <v>0.04415456061751909</v>
+        <v>0.002658051277184891</v>
       </c>
       <c r="O8" t="n">
-        <v>0.01235523126906797</v>
+        <v>0.007402884449956809</v>
       </c>
       <c r="P8" t="n">
-        <v>0.04482111534767975</v>
+        <v>0.07916953619333517</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.04573223524920632</v>
+        <v>0.01347817762815621</v>
       </c>
       <c r="R8" t="n">
-        <v>0.07960714425295363</v>
+        <v>0.08974195093366061</v>
       </c>
       <c r="S8" t="n">
-        <v>0.07550959059324663</v>
+        <v>0.05962795393000196</v>
       </c>
       <c r="T8" t="n">
-        <v>0.04318301818838439</v>
+        <v>0.07517613790795113</v>
       </c>
       <c r="U8" t="n">
-        <v>0.06161942660952757</v>
+        <v>0.06687138768746587</v>
       </c>
       <c r="V8" t="n">
-        <v>0.001059927715324548</v>
+        <v>0.00136048585000947</v>
       </c>
       <c r="W8" t="n">
-        <v>0.07284167514650229</v>
+        <v>0.01130587726102194</v>
       </c>
       <c r="X8" t="n">
-        <v>0.01161586307063464</v>
+        <v>0.05022819736800314</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.03194896634535364</v>
+        <v>0.02807654509361793</v>
       </c>
       <c r="Z8" t="n">
-        <v>0.06581128736284522</v>
+        <v>0.07840008586223506</v>
       </c>
       <c r="AA8" t="n">
-        <v>0.03354613382066542</v>
+        <v>0.01241461159091879</v>
       </c>
       <c r="AB8" t="n">
-        <v>0.07378892729966441</v>
+        <v>0.07730002072379355</v>
       </c>
       <c r="AC8" t="n">
-        <v>-0.3641012972977667</v>
+        <v>-0.3561977129110726</v>
       </c>
     </row>
     <row r="9">
@@ -1260,79 +1260,79 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>0.1605994814075346</v>
+        <v>0.1701456081398283</v>
       </c>
       <c r="F9" t="n">
-        <v>0.06563404501051912</v>
+        <v>0.0768290518624699</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0994021452467148</v>
+        <v>0.0593471780268321</v>
       </c>
       <c r="H9" t="n">
-        <v>0.06047147787058321</v>
+        <v>0.06977910164860744</v>
       </c>
       <c r="I9" t="n">
-        <v>0.0671803446151102</v>
+        <v>0.01925938118064403</v>
       </c>
       <c r="J9" t="n">
-        <v>0.01503019167059976</v>
+        <v>0.01387345187672314</v>
       </c>
       <c r="K9" t="n">
-        <v>0.02322648845440866</v>
+        <v>0.03012682289650975</v>
       </c>
       <c r="L9" t="n">
-        <v>0.04107444673122827</v>
+        <v>0.07391959512680786</v>
       </c>
       <c r="M9" t="n">
-        <v>0.02490552324686694</v>
+        <v>0.03150714461616447</v>
       </c>
       <c r="N9" t="n">
-        <v>0.04887334716403102</v>
+        <v>0.005543200124468005</v>
       </c>
       <c r="O9" t="n">
-        <v>0.001438868440495162</v>
+        <v>0.02061138756181104</v>
       </c>
       <c r="P9" t="n">
-        <v>0.0002053033080675084</v>
+        <v>0.01367567961286819</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.04571128307259125</v>
+        <v>0.0252931941724079</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1002176205815416</v>
+        <v>0.04268763404565953</v>
       </c>
       <c r="S9" t="n">
-        <v>0.05801614275720668</v>
+        <v>0.05510515598034241</v>
       </c>
       <c r="T9" t="n">
-        <v>0.01442049160784149</v>
+        <v>0.0007038004438613826</v>
       </c>
       <c r="U9" t="n">
-        <v>0.06088209242882021</v>
+        <v>0.1128781114547624</v>
       </c>
       <c r="V9" t="n">
-        <v>0.01269598230623635</v>
+        <v>0.006584456641552792</v>
       </c>
       <c r="W9" t="n">
-        <v>0.08545808857102825</v>
+        <v>0.0964139658205117</v>
       </c>
       <c r="X9" t="n">
-        <v>0.01084373697515128</v>
+        <v>0.007606589765470458</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.04014882972982507</v>
+        <v>0.04771372375204215</v>
       </c>
       <c r="Z9" t="n">
-        <v>0.0003024430558266684</v>
+        <v>0.04768153683184349</v>
       </c>
       <c r="AA9" t="n">
-        <v>0.02491762784324398</v>
+        <v>0.0307017796669283</v>
       </c>
       <c r="AB9" t="n">
-        <v>0.09894347931206267</v>
+        <v>0.1121580568907118</v>
       </c>
       <c r="AC9" t="n">
-        <v>-0.4015886391308283</v>
+        <v>-0.3814893162140143</v>
       </c>
     </row>
     <row r="10">
@@ -1355,79 +1355,79 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>0.268496436105257</v>
+        <v>0.2734915705931745</v>
       </c>
       <c r="F10" t="n">
-        <v>0.07038895934777918</v>
+        <v>0.05625360942954159</v>
       </c>
       <c r="G10" t="n">
-        <v>0.007396721155002807</v>
+        <v>0.003826474948949012</v>
       </c>
       <c r="H10" t="n">
-        <v>0.01225796787950836</v>
+        <v>0.06410863283511263</v>
       </c>
       <c r="I10" t="n">
-        <v>0.07121500346267237</v>
+        <v>0.06622486543786395</v>
       </c>
       <c r="J10" t="n">
-        <v>0.0006888396512304844</v>
+        <v>0.05193280042579783</v>
       </c>
       <c r="K10" t="n">
-        <v>0.0187982421591138</v>
+        <v>0.01374113180210727</v>
       </c>
       <c r="L10" t="n">
-        <v>0.01018300673217038</v>
+        <v>0.02423568553865815</v>
       </c>
       <c r="M10" t="n">
-        <v>0.02640109348437884</v>
+        <v>0.01786115320977489</v>
       </c>
       <c r="N10" t="n">
-        <v>0.01230352611547742</v>
+        <v>0.01759578409038084</v>
       </c>
       <c r="O10" t="n">
-        <v>0.05535206278049342</v>
+        <v>0.05770166006458122</v>
       </c>
       <c r="P10" t="n">
-        <v>0.07669788241907773</v>
+        <v>0.0758596990677366</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.08355495529503916</v>
+        <v>0.05387596796006856</v>
       </c>
       <c r="R10" t="n">
-        <v>0.08469121659932334</v>
+        <v>0.06964089206907968</v>
       </c>
       <c r="S10" t="n">
-        <v>0.08996312172820387</v>
+        <v>0.0544266048655855</v>
       </c>
       <c r="T10" t="n">
-        <v>0.006581479889671562</v>
+        <v>0.004336408892260553</v>
       </c>
       <c r="U10" t="n">
-        <v>0.04584455093055436</v>
+        <v>0.08111883788005055</v>
       </c>
       <c r="V10" t="n">
-        <v>0.008172326811784418</v>
+        <v>5.71575287618523e-06</v>
       </c>
       <c r="W10" t="n">
-        <v>0.04164505435823609</v>
+        <v>0.0364703834795458</v>
       </c>
       <c r="X10" t="n">
-        <v>0.06658000355383487</v>
+        <v>0.07724075104425597</v>
       </c>
       <c r="Y10" t="n">
-        <v>0.06176729111037846</v>
+        <v>0.02158096031750424</v>
       </c>
       <c r="Z10" t="n">
-        <v>0.03444220217606941</v>
+        <v>0.03805849444582112</v>
       </c>
       <c r="AA10" t="n">
-        <v>0.04453127936604892</v>
+        <v>0.05612455215539024</v>
       </c>
       <c r="AB10" t="n">
-        <v>0.07054321299395071</v>
+        <v>0.05777893428705757</v>
       </c>
       <c r="AC10" t="n">
-        <v>-0.05770561978316782</v>
+        <v>-0.04162910228201853</v>
       </c>
     </row>
     <row r="11">
@@ -1450,79 +1450,79 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>0.4321569149833079</v>
+        <v>0.4444313456884963</v>
       </c>
       <c r="F11" t="n">
-        <v>0.0594578740869582</v>
+        <v>0.0564031372573364</v>
       </c>
       <c r="G11" t="n">
-        <v>0.01761109023544759</v>
+        <v>0.00150318655606083</v>
       </c>
       <c r="H11" t="n">
-        <v>0.01823446455949356</v>
+        <v>0.00611741775147284</v>
       </c>
       <c r="I11" t="n">
-        <v>0.001034529582248803</v>
+        <v>0.01315022935057612</v>
       </c>
       <c r="J11" t="n">
-        <v>0.03030834469938306</v>
+        <v>0.006350301129830369</v>
       </c>
       <c r="K11" t="n">
-        <v>0.008470729197827718</v>
+        <v>0.007696034922562796</v>
       </c>
       <c r="L11" t="n">
-        <v>0.009346030794022367</v>
+        <v>0.04409525056188197</v>
       </c>
       <c r="M11" t="n">
-        <v>0.1117065832894079</v>
+        <v>0.09253855062698481</v>
       </c>
       <c r="N11" t="n">
-        <v>0.05958066295281163</v>
+        <v>0.08429479407835248</v>
       </c>
       <c r="O11" t="n">
-        <v>0.0005353098675330335</v>
+        <v>0.03820960485511375</v>
       </c>
       <c r="P11" t="n">
-        <v>0.005094087110362327</v>
+        <v>0.009719452632016798</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.0004975970857274024</v>
+        <v>0.02756312834049065</v>
       </c>
       <c r="R11" t="n">
-        <v>0.05109036105576845</v>
+        <v>0.01920935418324552</v>
       </c>
       <c r="S11" t="n">
-        <v>0.05461544243676932</v>
+        <v>0.09055863919252594</v>
       </c>
       <c r="T11" t="n">
-        <v>0.08558233183658855</v>
+        <v>0.08824614829489506</v>
       </c>
       <c r="U11" t="n">
-        <v>0.01989531447795093</v>
+        <v>0.002268064395470495</v>
       </c>
       <c r="V11" t="n">
-        <v>0.103964728868003</v>
+        <v>0.1013263097561352</v>
       </c>
       <c r="W11" t="n">
-        <v>0.02003208948174033</v>
+        <v>0.004685894589486633</v>
       </c>
       <c r="X11" t="n">
-        <v>0.07631259279197519</v>
+        <v>0.09166435692391606</v>
       </c>
       <c r="Y11" t="n">
-        <v>0.06019919242367453</v>
+        <v>0.03623900037652495</v>
       </c>
       <c r="Z11" t="n">
-        <v>0.08713783638327924</v>
+        <v>0.06286193931809911</v>
       </c>
       <c r="AA11" t="n">
-        <v>0.03079318983163323</v>
+        <v>0.01580338295604728</v>
       </c>
       <c r="AB11" t="n">
-        <v>0.08849961695139377</v>
+        <v>0.0994958219509739</v>
       </c>
       <c r="AC11" t="n">
-        <v>0.1140495497016929</v>
+        <v>0.102816102469102</v>
       </c>
     </row>
     <row r="12">
@@ -1545,79 +1545,79 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>0.2714171553006691</v>
+        <v>0.2785982367130156</v>
       </c>
       <c r="F12" t="n">
-        <v>0.001514880296562787</v>
+        <v>0.01821258781893385</v>
       </c>
       <c r="G12" t="n">
-        <v>0.009829911440300338</v>
+        <v>0.006355787566573515</v>
       </c>
       <c r="H12" t="n">
-        <v>0.0347091351991635</v>
+        <v>0.05089311622969309</v>
       </c>
       <c r="I12" t="n">
-        <v>0.03423678374954527</v>
+        <v>0.01033570495520718</v>
       </c>
       <c r="J12" t="n">
-        <v>0.03677308980396279</v>
+        <v>0.02992755432059358</v>
       </c>
       <c r="K12" t="n">
-        <v>0.0004600193845338742</v>
+        <v>0.01441518234958062</v>
       </c>
       <c r="L12" t="n">
-        <v>0.04016330259271135</v>
+        <v>0.06409739429714992</v>
       </c>
       <c r="M12" t="n">
-        <v>0.03102043264975891</v>
+        <v>0.0003373830867586276</v>
       </c>
       <c r="N12" t="n">
-        <v>0.01956383511196574</v>
+        <v>0.04923322479178935</v>
       </c>
       <c r="O12" t="n">
-        <v>0.06738962968793938</v>
+        <v>0.001634649717289062</v>
       </c>
       <c r="P12" t="n">
-        <v>0.06281086557553678</v>
+        <v>0.07083474355489411</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.06904193096907936</v>
+        <v>0.05506187319120747</v>
       </c>
       <c r="R12" t="n">
-        <v>0.07552866359701482</v>
+        <v>0.08224417099062736</v>
       </c>
       <c r="S12" t="n">
-        <v>0.07085574180926417</v>
+        <v>0.03827806262543468</v>
       </c>
       <c r="T12" t="n">
-        <v>0.02709005058736869</v>
+        <v>0.06533787722366192</v>
       </c>
       <c r="U12" t="n">
-        <v>0.0251465255397144</v>
+        <v>0.07962765980241941</v>
       </c>
       <c r="V12" t="n">
-        <v>0.002467844139173618</v>
+        <v>0.007953007019771512</v>
       </c>
       <c r="W12" t="n">
-        <v>0.0451443683335832</v>
+        <v>0.07102911578579053</v>
       </c>
       <c r="X12" t="n">
-        <v>0.09185532085598595</v>
+        <v>0.05725355977195922</v>
       </c>
       <c r="Y12" t="n">
-        <v>0.1037075873851868</v>
+        <v>0.04960980769233047</v>
       </c>
       <c r="Z12" t="n">
-        <v>0.01886423745571862</v>
+        <v>0.05328352143049161</v>
       </c>
       <c r="AA12" t="n">
-        <v>0.02589776014516997</v>
+        <v>0.03329495429730097</v>
       </c>
       <c r="AB12" t="n">
-        <v>0.1059280836907599</v>
+        <v>0.09074906148054201</v>
       </c>
       <c r="AC12" t="n">
-        <v>0.2143321659924274</v>
+        <v>0.2387273641831133</v>
       </c>
     </row>
     <row r="13">
@@ -1640,79 +1640,79 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>0.4786224522134918</v>
+        <v>0.6068454489950258</v>
       </c>
       <c r="F13" t="n">
-        <v>0.0871213733531174</v>
+        <v>0.04447144865726516</v>
       </c>
       <c r="G13" t="n">
-        <v>0.01425499413326523</v>
+        <v>0.005432417789372136</v>
       </c>
       <c r="H13" t="n">
-        <v>0.0001912146024188782</v>
+        <v>0.06011786787717003</v>
       </c>
       <c r="I13" t="n">
-        <v>0.1189271314648884</v>
+        <v>0.001160841279016604</v>
       </c>
       <c r="J13" t="n">
-        <v>0.01644405483392816</v>
+        <v>0.006886806390905416</v>
       </c>
       <c r="K13" t="n">
-        <v>0.006808915429631876</v>
+        <v>0.1045016422733041</v>
       </c>
       <c r="L13" t="n">
-        <v>0.08038512094304603</v>
+        <v>0.01566954577380103</v>
       </c>
       <c r="M13" t="n">
-        <v>0.01954117570954149</v>
+        <v>0.05796410790652947</v>
       </c>
       <c r="N13" t="n">
-        <v>0.04239554800044246</v>
+        <v>0.02724417895528019</v>
       </c>
       <c r="O13" t="n">
-        <v>0.02174119208311563</v>
+        <v>0.0945568692408011</v>
       </c>
       <c r="P13" t="n">
-        <v>0.01570545562665483</v>
+        <v>0.01004991024285625</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.1337272624120769</v>
+        <v>0.002790193098273877</v>
       </c>
       <c r="R13" t="n">
-        <v>0.05160721277473063</v>
+        <v>0.08131893637160849</v>
       </c>
       <c r="S13" t="n">
-        <v>0.05842439029536942</v>
+        <v>0.001407630631887688</v>
       </c>
       <c r="T13" t="n">
-        <v>0.05483111145275891</v>
+        <v>0.07883879720851855</v>
       </c>
       <c r="U13" t="n">
-        <v>0.003499960674048021</v>
+        <v>0.04164585378240974</v>
       </c>
       <c r="V13" t="n">
-        <v>0.133201150394458</v>
+        <v>0.1116306608697776</v>
       </c>
       <c r="W13" t="n">
-        <v>0.03181653440022748</v>
+        <v>0.007842244458490686</v>
       </c>
       <c r="X13" t="n">
-        <v>0.02497906861041314</v>
+        <v>0.04693139150040387</v>
       </c>
       <c r="Y13" t="n">
-        <v>0.01633875293820765</v>
+        <v>0.03770298222863232</v>
       </c>
       <c r="Z13" t="n">
-        <v>0.03177661981258658</v>
+        <v>0.07282423756100784</v>
       </c>
       <c r="AA13" t="n">
-        <v>0.01865598000210797</v>
+        <v>0.04755067954190035</v>
       </c>
       <c r="AB13" t="n">
-        <v>0.01762578005296481</v>
+        <v>0.04146075636078723</v>
       </c>
       <c r="AC13" t="n">
-        <v>0.2808933758141552</v>
+        <v>0.3245399048601543</v>
       </c>
     </row>
     <row r="14">
@@ -1735,79 +1735,79 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>0.2891365229495351</v>
+        <v>0.2752715075178668</v>
       </c>
       <c r="F14" t="n">
-        <v>0.007128037239526095</v>
+        <v>0.06009925262746235</v>
       </c>
       <c r="G14" t="n">
-        <v>0.04999575040181331</v>
+        <v>0.001143004871686267</v>
       </c>
       <c r="H14" t="n">
-        <v>0.08128695330990265</v>
+        <v>0.04459558241199661</v>
       </c>
       <c r="I14" t="n">
-        <v>0.06282599405642589</v>
+        <v>0.06551040473483784</v>
       </c>
       <c r="J14" t="n">
-        <v>0.01288287369313252</v>
+        <v>0.0123516345350102</v>
       </c>
       <c r="K14" t="n">
-        <v>0.009123848429496192</v>
+        <v>0.05165425606826729</v>
       </c>
       <c r="L14" t="n">
-        <v>0.06648446933636326</v>
+        <v>0.01374837302867135</v>
       </c>
       <c r="M14" t="n">
-        <v>0.02955309224944407</v>
+        <v>0.02876334521831637</v>
       </c>
       <c r="N14" t="n">
-        <v>0.006649125642723896</v>
+        <v>0.00193224403030468</v>
       </c>
       <c r="O14" t="n">
-        <v>0.003479205804602456</v>
+        <v>0.06857937532070621</v>
       </c>
       <c r="P14" t="n">
-        <v>0.09862619270052787</v>
+        <v>0.004496185276775895</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.02542019468783295</v>
+        <v>0.07412318441390574</v>
       </c>
       <c r="R14" t="n">
-        <v>0.06367178983067898</v>
+        <v>0.08622556235903139</v>
       </c>
       <c r="S14" t="n">
-        <v>0.0448086338875411</v>
+        <v>0.04230983080855761</v>
       </c>
       <c r="T14" t="n">
-        <v>0.02871278219258204</v>
+        <v>0.0256381834249131</v>
       </c>
       <c r="U14" t="n">
-        <v>0.04580157802798201</v>
+        <v>0.03514727905263071</v>
       </c>
       <c r="V14" t="n">
-        <v>0.003632466456552747</v>
+        <v>0.0198691682459393</v>
       </c>
       <c r="W14" t="n">
-        <v>0.080698965303263</v>
+        <v>0.1076026409776984</v>
       </c>
       <c r="X14" t="n">
-        <v>0.0921468594151072</v>
+        <v>0.1015117464687826</v>
       </c>
       <c r="Y14" t="n">
-        <v>0.08350495172101882</v>
+        <v>0.02735933177986625</v>
       </c>
       <c r="Z14" t="n">
-        <v>0.05639506348974395</v>
+        <v>0.1058845688819752</v>
       </c>
       <c r="AA14" t="n">
-        <v>0.002426321423584686</v>
+        <v>0.01066637686738954</v>
       </c>
       <c r="AB14" t="n">
-        <v>0.04474485070015415</v>
+        <v>0.01078846859527486</v>
       </c>
       <c r="AC14" t="n">
-        <v>-0.04638896380487877</v>
+        <v>-0.03503354394610106</v>
       </c>
     </row>
     <row r="15">
@@ -1830,79 +1830,79 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>0.3966528681204628</v>
+        <v>0.3675469364816201</v>
       </c>
       <c r="F15" t="n">
-        <v>0.08618411718433155</v>
+        <v>0.01771904186923422</v>
       </c>
       <c r="G15" t="n">
-        <v>0.05746893775550994</v>
+        <v>0.02019871305285827</v>
       </c>
       <c r="H15" t="n">
-        <v>0.05592555612343191</v>
+        <v>0.0233725181030083</v>
       </c>
       <c r="I15" t="n">
-        <v>0.03788962264673408</v>
+        <v>0.03173574047961784</v>
       </c>
       <c r="J15" t="n">
-        <v>0.1051997852453101</v>
+        <v>0.09382407129353069</v>
       </c>
       <c r="K15" t="n">
-        <v>0.0364809168742519</v>
+        <v>0.02382823193591745</v>
       </c>
       <c r="L15" t="n">
-        <v>0.0354445287152625</v>
+        <v>0.03079709649795549</v>
       </c>
       <c r="M15" t="n">
-        <v>0.03440821127570396</v>
+        <v>0.06287711363148231</v>
       </c>
       <c r="N15" t="n">
-        <v>0.005943482163195241</v>
+        <v>0.1040743278110553</v>
       </c>
       <c r="O15" t="n">
-        <v>0.001037103705251529</v>
+        <v>0.02359461440941562</v>
       </c>
       <c r="P15" t="n">
-        <v>0.004543695957638946</v>
+        <v>0.02643822352309758</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.01978296720499301</v>
+        <v>0.0307156463899854</v>
       </c>
       <c r="R15" t="n">
-        <v>0.04316045107955416</v>
+        <v>0.03013685964230079</v>
       </c>
       <c r="S15" t="n">
-        <v>0.02945715119959558</v>
+        <v>0.09779424126711492</v>
       </c>
       <c r="T15" t="n">
-        <v>0.04321059978580838</v>
+        <v>0.01496307709127042</v>
       </c>
       <c r="U15" t="n">
-        <v>0.03527315817928746</v>
+        <v>0.04599855707606201</v>
       </c>
       <c r="V15" t="n">
-        <v>0.1142755033202947</v>
+        <v>0.1132512011219489</v>
       </c>
       <c r="W15" t="n">
-        <v>0.03403417868616321</v>
+        <v>0.03918240687177966</v>
       </c>
       <c r="X15" t="n">
-        <v>0.003847252519425296</v>
+        <v>0.06160833773484442</v>
       </c>
       <c r="Y15" t="n">
-        <v>0.04916111725349949</v>
+        <v>0.001392081526676523</v>
       </c>
       <c r="Z15" t="n">
-        <v>0.0434056087988898</v>
+        <v>0.07400412504825862</v>
       </c>
       <c r="AA15" t="n">
-        <v>0.0647562427430151</v>
+        <v>0.03074682993522902</v>
       </c>
       <c r="AB15" t="n">
-        <v>0.05910981158285207</v>
+        <v>0.001746943687355954</v>
       </c>
       <c r="AC15" t="n">
-        <v>0.01633438544050347</v>
+        <v>0.0144250802314894</v>
       </c>
     </row>
     <row r="16">
@@ -1925,79 +1925,79 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>0.2960611275987388</v>
+        <v>0.2850878925854415</v>
       </c>
       <c r="F16" t="n">
-        <v>0.01561136538485873</v>
+        <v>0.006759176044994141</v>
       </c>
       <c r="G16" t="n">
-        <v>0.06016558047136944</v>
+        <v>0.01795586175054375</v>
       </c>
       <c r="H16" t="n">
-        <v>0.02655341437886796</v>
+        <v>0.0247051809116023</v>
       </c>
       <c r="I16" t="n">
-        <v>0.07986380139277313</v>
+        <v>0.06066136429213532</v>
       </c>
       <c r="J16" t="n">
-        <v>0.007166185054353845</v>
+        <v>0.005250252612828102</v>
       </c>
       <c r="K16" t="n">
-        <v>0.06732684449648123</v>
+        <v>0.04224610699185651</v>
       </c>
       <c r="L16" t="n">
-        <v>0.00619946102612232</v>
+        <v>0.02996435481029301</v>
       </c>
       <c r="M16" t="n">
-        <v>0.02665878430845539</v>
+        <v>0.07839754705396958</v>
       </c>
       <c r="N16" t="n">
-        <v>0.03074236417211387</v>
+        <v>0.007955466347348488</v>
       </c>
       <c r="O16" t="n">
-        <v>0.02778142795855308</v>
+        <v>0.01730643049143342</v>
       </c>
       <c r="P16" t="n">
-        <v>0.06349759813282028</v>
+        <v>0.0401199104580299</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.06499122683279544</v>
+        <v>0.03614087125116269</v>
       </c>
       <c r="R16" t="n">
-        <v>0.08952455839525722</v>
+        <v>0.08502953239879292</v>
       </c>
       <c r="S16" t="n">
-        <v>0.06375857077845833</v>
+        <v>0.08234030790419759</v>
       </c>
       <c r="T16" t="n">
-        <v>0.07777320535504537</v>
+        <v>0.04322320108620228</v>
       </c>
       <c r="U16" t="n">
-        <v>0.02145197133007574</v>
+        <v>0.01933917820309971</v>
       </c>
       <c r="V16" t="n">
-        <v>0.004288392541466015</v>
+        <v>0.002566496986579023</v>
       </c>
       <c r="W16" t="n">
-        <v>0.08882020175150361</v>
+        <v>0.0539076426777444</v>
       </c>
       <c r="X16" t="n">
-        <v>0.0599149651757737</v>
+        <v>0.06627123157662707</v>
       </c>
       <c r="Y16" t="n">
-        <v>0.01109164372540507</v>
+        <v>0.0864355092701436</v>
       </c>
       <c r="Z16" t="n">
-        <v>0.02628406409322001</v>
+        <v>0.05725431893130132</v>
       </c>
       <c r="AA16" t="n">
-        <v>0.02013432406883526</v>
+        <v>0.05750987624148102</v>
       </c>
       <c r="AB16" t="n">
-        <v>0.0604000491753949</v>
+        <v>0.07866018170763384</v>
       </c>
       <c r="AC16" t="n">
-        <v>0.1438630100107573</v>
+        <v>0.1412727757540835</v>
       </c>
     </row>
     <row r="17">
@@ -2020,79 +2020,79 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>0.7886116002653487</v>
+        <v>0.4246920292178996</v>
       </c>
       <c r="F17" t="n">
-        <v>0.008727138047762921</v>
+        <v>0.01735288843518201</v>
       </c>
       <c r="G17" t="n">
-        <v>0.004728616784689163</v>
+        <v>0.003369721475946074</v>
       </c>
       <c r="H17" t="n">
-        <v>0.005037412375833584</v>
+        <v>0.0007186944293964677</v>
       </c>
       <c r="I17" t="n">
-        <v>0.03872761000788325</v>
+        <v>0.1017415061194991</v>
       </c>
       <c r="J17" t="n">
-        <v>0.1161002969647529</v>
+        <v>0.01584939426945089</v>
       </c>
       <c r="K17" t="n">
-        <v>0.01182361673258347</v>
+        <v>0.05248161038235347</v>
       </c>
       <c r="L17" t="n">
-        <v>0.07747948253308569</v>
+        <v>0.06360014510018946</v>
       </c>
       <c r="M17" t="n">
-        <v>0.1274293873099068</v>
+        <v>0.0157534521059677</v>
       </c>
       <c r="N17" t="n">
-        <v>0.01369299621854846</v>
+        <v>0.04118665098749541</v>
       </c>
       <c r="O17" t="n">
-        <v>0.03632125558085957</v>
+        <v>0.01578725659419544</v>
       </c>
       <c r="P17" t="n">
-        <v>0.004606178550506642</v>
+        <v>0.08532493051661695</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.005192453029869284</v>
+        <v>0.05105060710725332</v>
       </c>
       <c r="R17" t="n">
-        <v>0.04579050679465072</v>
+        <v>0.03791833781635729</v>
       </c>
       <c r="S17" t="n">
-        <v>0.13011348231045</v>
+        <v>0.006609123123745538</v>
       </c>
       <c r="T17" t="n">
-        <v>0.0077399710664869</v>
+        <v>0.0921242907400087</v>
       </c>
       <c r="U17" t="n">
-        <v>0.006805885361163176</v>
+        <v>0.01717999269327827</v>
       </c>
       <c r="V17" t="n">
-        <v>0.1033300633659238</v>
+        <v>0.1061174305798869</v>
       </c>
       <c r="W17" t="n">
-        <v>0.1181723846932654</v>
+        <v>0.01277994823417478</v>
       </c>
       <c r="X17" t="n">
-        <v>0.08215145270305939</v>
+        <v>0.06272154670064517</v>
       </c>
       <c r="Y17" t="n">
-        <v>0.000805248239595653</v>
+        <v>0.008480884219199847</v>
       </c>
       <c r="Z17" t="n">
-        <v>0.0238494600072958</v>
+        <v>0.01949287612336039</v>
       </c>
       <c r="AA17" t="n">
-        <v>0.01270006731350319</v>
+        <v>0.1207569201121103</v>
       </c>
       <c r="AB17" t="n">
-        <v>0.01867503400832397</v>
+        <v>0.05160179213368649</v>
       </c>
       <c r="AC17" t="n">
-        <v>0.1807597067886283</v>
+        <v>0.1947365578180325</v>
       </c>
     </row>
     <row r="18">
@@ -2115,79 +2115,79 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>0.3306407549593809</v>
+        <v>0.3306525355458299</v>
       </c>
       <c r="F18" t="n">
-        <v>0.08891941410597963</v>
+        <v>0.09685357495399581</v>
       </c>
       <c r="G18" t="n">
-        <v>0.08122090513223798</v>
+        <v>0.03365476129666729</v>
       </c>
       <c r="H18" t="n">
-        <v>0.01274504389430424</v>
+        <v>0.0171115870265461</v>
       </c>
       <c r="I18" t="n">
-        <v>0.08434270498704929</v>
+        <v>0.06803581613371953</v>
       </c>
       <c r="J18" t="n">
-        <v>0.003940259249227623</v>
+        <v>0.07099614321350209</v>
       </c>
       <c r="K18" t="n">
-        <v>0.05488454658483502</v>
+        <v>0.002657255915731474</v>
       </c>
       <c r="L18" t="n">
-        <v>0.01089248636702431</v>
+        <v>0.004602081267741418</v>
       </c>
       <c r="M18" t="n">
-        <v>0.05569129481701941</v>
+        <v>0.07564719045304381</v>
       </c>
       <c r="N18" t="n">
-        <v>0.05756348000815349</v>
+        <v>0.009234604804261958</v>
       </c>
       <c r="O18" t="n">
-        <v>0.03049115942758974</v>
+        <v>0.07820032612282847</v>
       </c>
       <c r="P18" t="n">
-        <v>0.04263307018983663</v>
+        <v>0.05652112582552404</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.0009663309087724139</v>
+        <v>0.03321399301189801</v>
       </c>
       <c r="R18" t="n">
-        <v>0.06852912715939423</v>
+        <v>0.02429045754964454</v>
       </c>
       <c r="S18" t="n">
-        <v>0.006896962422992767</v>
+        <v>0.003502593861432959</v>
       </c>
       <c r="T18" t="n">
-        <v>0.08026703530240677</v>
+        <v>0.03688430902846712</v>
       </c>
       <c r="U18" t="n">
-        <v>0.02676750163799116</v>
+        <v>0.002759878453664654</v>
       </c>
       <c r="V18" t="n">
-        <v>0.004158714133294509</v>
+        <v>0.01490919487345199</v>
       </c>
       <c r="W18" t="n">
-        <v>0.0836959757586586</v>
+        <v>0.08927313950715883</v>
       </c>
       <c r="X18" t="n">
-        <v>0.07465809052098038</v>
+        <v>0.09230301080195895</v>
       </c>
       <c r="Y18" t="n">
-        <v>0.04251819001044811</v>
+        <v>0.04757261628104933</v>
       </c>
       <c r="Z18" t="n">
-        <v>0.07192745575730958</v>
+        <v>0.0898263851112069</v>
       </c>
       <c r="AA18" t="n">
-        <v>0.002193942066716072</v>
+        <v>0.01053302839704919</v>
       </c>
       <c r="AB18" t="n">
-        <v>0.01409630955777809</v>
+        <v>0.04141692610945541</v>
       </c>
       <c r="AC18" t="n">
-        <v>0.05838078500473245</v>
+        <v>0.04517901313094688</v>
       </c>
     </row>
     <row r="19">
@@ -2210,79 +2210,79 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>0.5724097629319836</v>
+        <v>0.5048919797439266</v>
       </c>
       <c r="F19" t="n">
-        <v>0.04254663974091842</v>
+        <v>0.04863498234962104</v>
       </c>
       <c r="G19" t="n">
-        <v>0.05710629492524655</v>
+        <v>0.0123828029760672</v>
       </c>
       <c r="H19" t="n">
-        <v>0.02326079539914711</v>
+        <v>0.007361180583992676</v>
       </c>
       <c r="I19" t="n">
-        <v>0.0124964220507613</v>
+        <v>0.003820410969754455</v>
       </c>
       <c r="J19" t="n">
-        <v>0.06770157209870373</v>
+        <v>0.04119162883310214</v>
       </c>
       <c r="K19" t="n">
-        <v>0.07118045608498501</v>
+        <v>0.09664554136051816</v>
       </c>
       <c r="L19" t="n">
-        <v>0.009144083568513116</v>
+        <v>0.02054335017278335</v>
       </c>
       <c r="M19" t="n">
-        <v>0.06978791950934207</v>
+        <v>0.006466036886979482</v>
       </c>
       <c r="N19" t="n">
-        <v>0.01996430472176209</v>
+        <v>0.04465099791977991</v>
       </c>
       <c r="O19" t="n">
-        <v>0.005292546180292859</v>
+        <v>0.01916595305237026</v>
       </c>
       <c r="P19" t="n">
-        <v>0.0494842507981083</v>
+        <v>0.08547864424922078</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.06814728255756623</v>
+        <v>0.01356437061136665</v>
       </c>
       <c r="R19" t="n">
-        <v>0.07941350865868656</v>
+        <v>0.08419150113335382</v>
       </c>
       <c r="S19" t="n">
-        <v>0.06487917084592025</v>
+        <v>0.02633820669518826</v>
       </c>
       <c r="T19" t="n">
-        <v>0.08242458376152914</v>
+        <v>0.05900209241268073</v>
       </c>
       <c r="U19" t="n">
-        <v>0.06343872950327864</v>
+        <v>0.003741830354686967</v>
       </c>
       <c r="V19" t="n">
-        <v>0.002340607012639333</v>
+        <v>0.0313658381426046</v>
       </c>
       <c r="W19" t="n">
-        <v>0.04621333463622072</v>
+        <v>0.06477289150801509</v>
       </c>
       <c r="X19" t="n">
-        <v>0.02118416134482736</v>
+        <v>0.1033828095347043</v>
       </c>
       <c r="Y19" t="n">
-        <v>0.01383301930087464</v>
+        <v>0.07907023438716672</v>
       </c>
       <c r="Z19" t="n">
-        <v>0.02164552641430891</v>
+        <v>0.001510959379946838</v>
       </c>
       <c r="AA19" t="n">
-        <v>0.02072892508178203</v>
+        <v>0.01972252957605915</v>
       </c>
       <c r="AB19" t="n">
-        <v>0.08778586580458572</v>
+        <v>0.1269952069100376</v>
       </c>
       <c r="AC19" t="n">
-        <v>0.067394658579482</v>
+        <v>0.05748703044335348</v>
       </c>
     </row>
     <row r="20">
@@ -2305,79 +2305,79 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>0.1527885280522045</v>
+        <v>0.1539342018043695</v>
       </c>
       <c r="F20" t="n">
-        <v>0.08739340747327741</v>
+        <v>0.08675909869498601</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02327715092314824</v>
+        <v>0.04532929597205202</v>
       </c>
       <c r="H20" t="n">
-        <v>0.01572844120492001</v>
+        <v>0.08392541175133385</v>
       </c>
       <c r="I20" t="n">
-        <v>0.01442787829606753</v>
+        <v>0.03228325156142502</v>
       </c>
       <c r="J20" t="n">
-        <v>0.02703806035869769</v>
+        <v>0.009530102438417931</v>
       </c>
       <c r="K20" t="n">
-        <v>0.02275926687789244</v>
+        <v>0.02539249610199456</v>
       </c>
       <c r="L20" t="n">
-        <v>0.03102549726624563</v>
+        <v>0.009147176217713627</v>
       </c>
       <c r="M20" t="n">
-        <v>0.04654323969152958</v>
+        <v>0.07149449200293737</v>
       </c>
       <c r="N20" t="n">
-        <v>0.06127738697960759</v>
+        <v>0.06472519589788188</v>
       </c>
       <c r="O20" t="n">
-        <v>0.05365096575818887</v>
+        <v>0.007415079974370709</v>
       </c>
       <c r="P20" t="n">
-        <v>0.06109734367151145</v>
+        <v>0.06993141306790138</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.02544350105625816</v>
+        <v>0.04953095202416712</v>
       </c>
       <c r="R20" t="n">
-        <v>0.08228471320483709</v>
+        <v>0.07348382769236704</v>
       </c>
       <c r="S20" t="n">
-        <v>0.02347990443510527</v>
+        <v>0.09107308645482014</v>
       </c>
       <c r="T20" t="n">
-        <v>0.06108141152620472</v>
+        <v>0.009179950636476265</v>
       </c>
       <c r="U20" t="n">
-        <v>0.04243606182247657</v>
+        <v>0.04427608551922402</v>
       </c>
       <c r="V20" t="n">
-        <v>0.01065508502010991</v>
+        <v>0.009286763087404852</v>
       </c>
       <c r="W20" t="n">
-        <v>0.08204854597004911</v>
+        <v>0.06444139701671286</v>
       </c>
       <c r="X20" t="n">
-        <v>0.09199324217898527</v>
+        <v>0.02257120646880426</v>
       </c>
       <c r="Y20" t="n">
-        <v>0.03839463990352803</v>
+        <v>0.03265622829562759</v>
       </c>
       <c r="Z20" t="n">
-        <v>0.09017557386848561</v>
+        <v>0.07461068815252402</v>
       </c>
       <c r="AA20" t="n">
-        <v>0.006937011236224861</v>
+        <v>0.01915958962396533</v>
       </c>
       <c r="AB20" t="n">
-        <v>0.0008516712766490025</v>
+        <v>0.003797211346892247</v>
       </c>
       <c r="AC20" t="n">
-        <v>-0.1527120297921342</v>
+        <v>-0.1482516631290654</v>
       </c>
     </row>
     <row r="21">
@@ -2400,79 +2400,79 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>0.2025983380260874</v>
+        <v>0.1701468928971279</v>
       </c>
       <c r="F21" t="n">
-        <v>0.05232191898051211</v>
+        <v>0.09838175601515591</v>
       </c>
       <c r="G21" t="n">
-        <v>0.05295928275485101</v>
+        <v>0.001515589343554539</v>
       </c>
       <c r="H21" t="n">
-        <v>0.07021753305515541</v>
+        <v>0.08395357974170969</v>
       </c>
       <c r="I21" t="n">
-        <v>0.02898953724799205</v>
+        <v>0.07159625082165438</v>
       </c>
       <c r="J21" t="n">
-        <v>0.07190639221052063</v>
+        <v>0.07065340308657533</v>
       </c>
       <c r="K21" t="n">
-        <v>0.08187593743409277</v>
+        <v>0.0604405245944656</v>
       </c>
       <c r="L21" t="n">
-        <v>0.009908747549236197</v>
+        <v>0.01152746414730122</v>
       </c>
       <c r="M21" t="n">
-        <v>0.01919981743120367</v>
+        <v>0.01135449243901748</v>
       </c>
       <c r="N21" t="n">
-        <v>0.03514386374472513</v>
+        <v>0.008357525975645841</v>
       </c>
       <c r="O21" t="n">
-        <v>0.03110388172546919</v>
+        <v>0.005595515023796881</v>
       </c>
       <c r="P21" t="n">
-        <v>0.04792058382387809</v>
+        <v>0.04324454685544896</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.01012070424922188</v>
+        <v>0.02259486085818107</v>
       </c>
       <c r="R21" t="n">
-        <v>0.07342715621069319</v>
+        <v>0.08686128377708592</v>
       </c>
       <c r="S21" t="n">
-        <v>0.02359856834133624</v>
+        <v>0.08953187519405556</v>
       </c>
       <c r="T21" t="n">
-        <v>0.01722934743445619</v>
+        <v>0.008872149278551313</v>
       </c>
       <c r="U21" t="n">
-        <v>0.09192153893331662</v>
+        <v>0.0293235380811556</v>
       </c>
       <c r="V21" t="n">
-        <v>0.04201567871398267</v>
+        <v>0.02314505696259349</v>
       </c>
       <c r="W21" t="n">
-        <v>0.04918585352155826</v>
+        <v>0.07781546892867219</v>
       </c>
       <c r="X21" t="n">
-        <v>0.03358831171747755</v>
+        <v>0.08590131375611473</v>
       </c>
       <c r="Y21" t="n">
-        <v>0.01167179884894436</v>
+        <v>0.01790869549512597</v>
       </c>
       <c r="Z21" t="n">
-        <v>0.09029521032988953</v>
+        <v>0.04111082208972368</v>
       </c>
       <c r="AA21" t="n">
-        <v>0.003808366744891979</v>
+        <v>0.005202312265751222</v>
       </c>
       <c r="AB21" t="n">
-        <v>0.05158996899659542</v>
+        <v>0.04511197526866343</v>
       </c>
       <c r="AC21" t="n">
-        <v>-0.1709671241885869</v>
+        <v>-0.140465427323711</v>
       </c>
     </row>
     <row r="22">
@@ -2495,79 +2495,79 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>0.1860999524895419</v>
+        <v>0.1868244331744819</v>
       </c>
       <c r="F22" t="n">
-        <v>0.04894506177942288</v>
+        <v>0.0321782514620513</v>
       </c>
       <c r="G22" t="n">
-        <v>0.0543262129740396</v>
+        <v>0.00497613492507216</v>
       </c>
       <c r="H22" t="n">
-        <v>0.003898307583687749</v>
+        <v>0.04232731708879228</v>
       </c>
       <c r="I22" t="n">
-        <v>0.04103250637029104</v>
+        <v>0.04090196428927773</v>
       </c>
       <c r="J22" t="n">
-        <v>0.04103415627071271</v>
+        <v>0.0006512469301711223</v>
       </c>
       <c r="K22" t="n">
-        <v>0.03504793242140584</v>
+        <v>0.01573632128248603</v>
       </c>
       <c r="L22" t="n">
-        <v>0.06536178732650186</v>
+        <v>0.001029427583634318</v>
       </c>
       <c r="M22" t="n">
-        <v>0.01487821698198921</v>
+        <v>0.06126051180222073</v>
       </c>
       <c r="N22" t="n">
-        <v>0.01201290316168043</v>
+        <v>0.02557484585557923</v>
       </c>
       <c r="O22" t="n">
-        <v>0.01327863529274529</v>
+        <v>0.02769972225198792</v>
       </c>
       <c r="P22" t="n">
-        <v>0.05890504938829384</v>
+        <v>0.08408813919117028</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.02908267628555427</v>
+        <v>0.01434607771721316</v>
       </c>
       <c r="R22" t="n">
-        <v>0.08068881087526598</v>
+        <v>0.09698439315089226</v>
       </c>
       <c r="S22" t="n">
-        <v>0.03138384504823268</v>
+        <v>0.09272914574041431</v>
       </c>
       <c r="T22" t="n">
-        <v>0.02570221241267464</v>
+        <v>0.01716813531325968</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1113868016741118</v>
+        <v>0.08376783461333424</v>
       </c>
       <c r="V22" t="n">
-        <v>0.003584391337740095</v>
+        <v>0.005968044390870774</v>
       </c>
       <c r="W22" t="n">
-        <v>0.09205605238610541</v>
+        <v>0.05272335026804596</v>
       </c>
       <c r="X22" t="n">
-        <v>0.1081159944458652</v>
+        <v>0.04589958859004315</v>
       </c>
       <c r="Y22" t="n">
-        <v>0.01213497694498364</v>
+        <v>0.03440760236086444</v>
       </c>
       <c r="Z22" t="n">
-        <v>0.1081468547475067</v>
+        <v>0.09744369808319013</v>
       </c>
       <c r="AA22" t="n">
-        <v>0.006149704335068385</v>
+        <v>0.06996864672067614</v>
       </c>
       <c r="AB22" t="n">
-        <v>0.002846909956120551</v>
+        <v>0.05216960038875247</v>
       </c>
       <c r="AC22" t="n">
-        <v>0.07051987772539384</v>
+        <v>0.04791281145783299</v>
       </c>
     </row>
     <row r="23">
@@ -2590,79 +2590,79 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>0.2107438905621054</v>
+        <v>0.1928621752472247</v>
       </c>
       <c r="F23" t="n">
-        <v>0.02282002283026376</v>
+        <v>0.08047513924290689</v>
       </c>
       <c r="G23" t="n">
-        <v>0.03501734409501934</v>
+        <v>0.09629824016940765</v>
       </c>
       <c r="H23" t="n">
-        <v>0.08515590206848228</v>
+        <v>0.03945803126197692</v>
       </c>
       <c r="I23" t="n">
-        <v>0.0151944785276192</v>
+        <v>0.000483487107562775</v>
       </c>
       <c r="J23" t="n">
-        <v>0.07847792970604632</v>
+        <v>0.04931617069237067</v>
       </c>
       <c r="K23" t="n">
-        <v>0.009731336776966927</v>
+        <v>0.01831331610963438</v>
       </c>
       <c r="L23" t="n">
-        <v>0.05604895285629117</v>
+        <v>0.001398395631952503</v>
       </c>
       <c r="M23" t="n">
-        <v>0.02788703031198779</v>
+        <v>0.04947610471250651</v>
       </c>
       <c r="N23" t="n">
-        <v>0.06971842070904867</v>
+        <v>0.0277915282052216</v>
       </c>
       <c r="O23" t="n">
-        <v>0.06410792299796349</v>
+        <v>0.02807865016287442</v>
       </c>
       <c r="P23" t="n">
-        <v>0.006176909083778609</v>
+        <v>0.06038837705281879</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.02122124625226573</v>
+        <v>0.01536512905952051</v>
       </c>
       <c r="R23" t="n">
-        <v>0.07677178311014364</v>
+        <v>0.09937784387865344</v>
       </c>
       <c r="S23" t="n">
-        <v>0.08728174036747492</v>
+        <v>0.07622389323410736</v>
       </c>
       <c r="T23" t="n">
-        <v>0.03100273614295391</v>
+        <v>0.03678924660859662</v>
       </c>
       <c r="U23" t="n">
-        <v>0.01866132938116308</v>
+        <v>0.05093498011443519</v>
       </c>
       <c r="V23" t="n">
-        <v>0.08359746053736224</v>
+        <v>0.03840291700892885</v>
       </c>
       <c r="W23" t="n">
-        <v>0.08818266905478485</v>
+        <v>0.05969656703402871</v>
       </c>
       <c r="X23" t="n">
-        <v>0.01984654488835846</v>
+        <v>0.008608515216606947</v>
       </c>
       <c r="Y23" t="n">
-        <v>0.00697290169536246</v>
+        <v>0.002689987552773785</v>
       </c>
       <c r="Z23" t="n">
-        <v>0.05901589902669056</v>
+        <v>0.08323503916803067</v>
       </c>
       <c r="AA23" t="n">
-        <v>0.03473398911697614</v>
+        <v>0.06764212561144442</v>
       </c>
       <c r="AB23" t="n">
-        <v>0.002375450462996406</v>
+        <v>0.0095563151636405</v>
       </c>
       <c r="AC23" t="n">
-        <v>0.02956814685209262</v>
+        <v>0.03705856480641802</v>
       </c>
     </row>
     <row r="24">
@@ -2685,79 +2685,79 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>0.1905059908223093</v>
+        <v>0.1888364659336531</v>
       </c>
       <c r="F24" t="n">
-        <v>0.06681700605963167</v>
+        <v>0.05346881993360203</v>
       </c>
       <c r="G24" t="n">
-        <v>0.04564855883403784</v>
+        <v>0.04322786683876235</v>
       </c>
       <c r="H24" t="n">
-        <v>0.03224097628433992</v>
+        <v>0.06880623349310498</v>
       </c>
       <c r="I24" t="n">
-        <v>0.01697670239275298</v>
+        <v>0.05361998161945869</v>
       </c>
       <c r="J24" t="n">
-        <v>0.003595434500077307</v>
+        <v>0.03401589246335029</v>
       </c>
       <c r="K24" t="n">
-        <v>0.009515845623445854</v>
+        <v>0.007899330003448961</v>
       </c>
       <c r="L24" t="n">
-        <v>0.0751129454476656</v>
+        <v>0.01195481240325562</v>
       </c>
       <c r="M24" t="n">
-        <v>0.05898870846980565</v>
+        <v>0.03945772838717936</v>
       </c>
       <c r="N24" t="n">
-        <v>0.008839492348439702</v>
+        <v>0.007360612312146421</v>
       </c>
       <c r="O24" t="n">
-        <v>0.07013708117926334</v>
+        <v>0.02705917380423011</v>
       </c>
       <c r="P24" t="n">
-        <v>0.07825983692831577</v>
+        <v>0.04086313968014168</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.005103792429750004</v>
+        <v>0.07229003741526333</v>
       </c>
       <c r="R24" t="n">
-        <v>0.06635972161969068</v>
+        <v>0.05011960605052147</v>
       </c>
       <c r="S24" t="n">
-        <v>0.0279667190313411</v>
+        <v>0.08356372605239315</v>
       </c>
       <c r="T24" t="n">
-        <v>0.003582418142634715</v>
+        <v>0.003537317394345828</v>
       </c>
       <c r="U24" t="n">
-        <v>0.06911347023094458</v>
+        <v>0.08566179917593253</v>
       </c>
       <c r="V24" t="n">
-        <v>0.04910765112888531</v>
+        <v>0.01380427363257073</v>
       </c>
       <c r="W24" t="n">
-        <v>0.08015810331207091</v>
+        <v>0.0696127571274386</v>
       </c>
       <c r="X24" t="n">
-        <v>0.06053025606647481</v>
+        <v>0.01733465376960725</v>
       </c>
       <c r="Y24" t="n">
-        <v>0.0570641268307759</v>
+        <v>0.0006190108408385745</v>
       </c>
       <c r="Z24" t="n">
-        <v>0.06624356938414667</v>
+        <v>0.1044373575149995</v>
       </c>
       <c r="AA24" t="n">
-        <v>0.04726059258760625</v>
+        <v>0.1068741811348894</v>
       </c>
       <c r="AB24" t="n">
-        <v>0.001376991167903332</v>
+        <v>0.00441168895251924</v>
       </c>
       <c r="AC24" t="n">
-        <v>0.1301955247480747</v>
+        <v>0.1387876099029383</v>
       </c>
     </row>
     <row r="25">
@@ -2780,79 +2780,79 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>0.2211852171224477</v>
+        <v>0.2211444771398308</v>
       </c>
       <c r="F25" t="n">
-        <v>5.190874285187294e-05</v>
+        <v>0.006757523149750167</v>
       </c>
       <c r="G25" t="n">
-        <v>0.003802439999917868</v>
+        <v>0.01449264663016468</v>
       </c>
       <c r="H25" t="n">
-        <v>0.04611821022017252</v>
+        <v>0.08940765758661225</v>
       </c>
       <c r="I25" t="n">
-        <v>0.09753113903260666</v>
+        <v>0.05472296764620338</v>
       </c>
       <c r="J25" t="n">
-        <v>0.08648552460273556</v>
+        <v>0.05758253559926355</v>
       </c>
       <c r="K25" t="n">
-        <v>0.02925661992085653</v>
+        <v>0.0549477790870081</v>
       </c>
       <c r="L25" t="n">
-        <v>0.01652095892404765</v>
+        <v>0.0217108828618117</v>
       </c>
       <c r="M25" t="n">
-        <v>0.04624319384649732</v>
+        <v>0.03794586740343518</v>
       </c>
       <c r="N25" t="n">
-        <v>0.06331759298284972</v>
+        <v>0.04251616172602184</v>
       </c>
       <c r="O25" t="n">
-        <v>0.0400047631149908</v>
+        <v>0.007059868727827371</v>
       </c>
       <c r="P25" t="n">
-        <v>0.02578065719285142</v>
+        <v>0.029907054071803</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.05639800319065429</v>
+        <v>0.02831457119952122</v>
       </c>
       <c r="R25" t="n">
-        <v>0.1009175802008481</v>
+        <v>0.1038430815775544</v>
       </c>
       <c r="S25" t="n">
-        <v>0.0573389761899304</v>
+        <v>0.0278208373987266</v>
       </c>
       <c r="T25" t="n">
-        <v>0.06329393100017233</v>
+        <v>0.03102959841866179</v>
       </c>
       <c r="U25" t="n">
-        <v>0.0492470196205119</v>
+        <v>0.004184746507274717</v>
       </c>
       <c r="V25" t="n">
-        <v>0.03328201538313239</v>
+        <v>0.08813882118710963</v>
       </c>
       <c r="W25" t="n">
-        <v>0.1113880620020847</v>
+        <v>0.09656364570975012</v>
       </c>
       <c r="X25" t="n">
-        <v>0.0150547932686132</v>
+        <v>0.09376804015371241</v>
       </c>
       <c r="Y25" t="n">
-        <v>0.003013144865471047</v>
+        <v>0.01164814723536825</v>
       </c>
       <c r="Z25" t="n">
-        <v>0.006271044230976081</v>
+        <v>0.08043863159619635</v>
       </c>
       <c r="AA25" t="n">
-        <v>0.006990643982641146</v>
+        <v>0.000900891533192509</v>
       </c>
       <c r="AB25" t="n">
-        <v>0.04169177748458651</v>
+        <v>0.0162980429930309</v>
       </c>
       <c r="AC25" t="n">
-        <v>0.1343131301266305</v>
+        <v>0.1495183491146239</v>
       </c>
     </row>
     <row r="26">
@@ -2875,79 +2875,79 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>0.2294608239295036</v>
+        <v>0.2311996962547551</v>
       </c>
       <c r="F26" t="n">
-        <v>7.875976390938555e-05</v>
+        <v>0.01163449774749643</v>
       </c>
       <c r="G26" t="n">
-        <v>0.09441486611933898</v>
+        <v>0.03268547487415933</v>
       </c>
       <c r="H26" t="n">
-        <v>0.02982990256977477</v>
+        <v>0.01271338663429927</v>
       </c>
       <c r="I26" t="n">
-        <v>0.01584030565860325</v>
+        <v>0.005780296562242331</v>
       </c>
       <c r="J26" t="n">
-        <v>0.05556405177950148</v>
+        <v>0.05594806685348178</v>
       </c>
       <c r="K26" t="n">
-        <v>0.006583901664712099</v>
+        <v>0.03419857692252396</v>
       </c>
       <c r="L26" t="n">
-        <v>0.01496307116234648</v>
+        <v>0.08919247440354126</v>
       </c>
       <c r="M26" t="n">
-        <v>0.07542664194848411</v>
+        <v>0.02434676107114477</v>
       </c>
       <c r="N26" t="n">
-        <v>0.01953735714109855</v>
+        <v>0.0851905467617238</v>
       </c>
       <c r="O26" t="n">
-        <v>0.03591114747663255</v>
+        <v>0.01269950427494117</v>
       </c>
       <c r="P26" t="n">
-        <v>0.06903347274166753</v>
+        <v>0.06951943340943918</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.00732455835619524</v>
+        <v>0.06087822207995028</v>
       </c>
       <c r="R26" t="n">
-        <v>0.08775413193967077</v>
+        <v>0.08272956366246546</v>
       </c>
       <c r="S26" t="n">
-        <v>0.05742665642286124</v>
+        <v>0.06175108614094076</v>
       </c>
       <c r="T26" t="n">
-        <v>0.01073007942593427</v>
+        <v>0.003493469905686213</v>
       </c>
       <c r="U26" t="n">
-        <v>0.09117102980601294</v>
+        <v>0.06024623759526253</v>
       </c>
       <c r="V26" t="n">
-        <v>0.06419000308072081</v>
+        <v>0.06011793511744554</v>
       </c>
       <c r="W26" t="n">
-        <v>0.01967851593880033</v>
+        <v>0.002655871356178948</v>
       </c>
       <c r="X26" t="n">
-        <v>0.005789843024243391</v>
+        <v>0.0173230853128286</v>
       </c>
       <c r="Y26" t="n">
-        <v>0.07417748762114201</v>
+        <v>0.09307396794054705</v>
       </c>
       <c r="Z26" t="n">
-        <v>0.05373860653925387</v>
+        <v>0.0375795896099758</v>
       </c>
       <c r="AA26" t="n">
-        <v>0.02968549356816854</v>
+        <v>0.08390728102232205</v>
       </c>
       <c r="AB26" t="n">
-        <v>0.08115011625092738</v>
+        <v>0.002334670741403395</v>
       </c>
       <c r="AC26" t="n">
-        <v>-0.00479430540158214</v>
+        <v>-0.0167802859385372</v>
       </c>
     </row>
     <row r="27">
@@ -2970,79 +2970,79 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>0.2710932798781874</v>
+        <v>0.2568606581661653</v>
       </c>
       <c r="F27" t="n">
-        <v>0.02776703261772872</v>
+        <v>0.0003496615868268596</v>
       </c>
       <c r="G27" t="n">
-        <v>0.04108109977890566</v>
+        <v>0.03334674486892553</v>
       </c>
       <c r="H27" t="n">
-        <v>0.05310756582414022</v>
+        <v>0.03363802473328909</v>
       </c>
       <c r="I27" t="n">
-        <v>0.04244648918636755</v>
+        <v>0.03414448869299597</v>
       </c>
       <c r="J27" t="n">
-        <v>0.09500778496948829</v>
+        <v>0.03167135445712377</v>
       </c>
       <c r="K27" t="n">
-        <v>0.08181618906574681</v>
+        <v>0.1090069803681157</v>
       </c>
       <c r="L27" t="n">
-        <v>0.06002499201185206</v>
+        <v>0.0301501590034983</v>
       </c>
       <c r="M27" t="n">
-        <v>0.01765941761340501</v>
+        <v>0.009024381609533809</v>
       </c>
       <c r="N27" t="n">
-        <v>0.0402261183940124</v>
+        <v>0.03863168114699637</v>
       </c>
       <c r="O27" t="n">
-        <v>0.02368335026138589</v>
+        <v>0.005298445096648403</v>
       </c>
       <c r="P27" t="n">
-        <v>0.022926764898727</v>
+        <v>0.06335061626985694</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.0268302565516409</v>
+        <v>0.0311695494861693</v>
       </c>
       <c r="R27" t="n">
-        <v>0.09260620092838374</v>
+        <v>0.1098062999652046</v>
       </c>
       <c r="S27" t="n">
-        <v>0.05642410662404301</v>
+        <v>0.06238475494449746</v>
       </c>
       <c r="T27" t="n">
-        <v>0.08024078473242249</v>
+        <v>0.1050777072610034</v>
       </c>
       <c r="U27" t="n">
-        <v>0.09200384419538708</v>
+        <v>0.04784398118699331</v>
       </c>
       <c r="V27" t="n">
-        <v>0.001230909995825806</v>
+        <v>0.005802155517447479</v>
       </c>
       <c r="W27" t="n">
-        <v>0.01485846868329524</v>
+        <v>0.01646265446028653</v>
       </c>
       <c r="X27" t="n">
-        <v>0.01678637985241367</v>
+        <v>0.006729227891952374</v>
       </c>
       <c r="Y27" t="n">
-        <v>0.0002324603860528872</v>
+        <v>0.05606551250353527</v>
       </c>
       <c r="Z27" t="n">
-        <v>0.09730165410868355</v>
+        <v>0.08805511545219692</v>
       </c>
       <c r="AA27" t="n">
-        <v>0.00294510841662505</v>
+        <v>0.02388875125228007</v>
       </c>
       <c r="AB27" t="n">
-        <v>0.01279302090346682</v>
+        <v>0.05810175224462234</v>
       </c>
       <c r="AC27" t="n">
-        <v>0.03343570931646109</v>
+        <v>0.00713120981305596</v>
       </c>
     </row>
     <row r="28">
@@ -3065,79 +3065,79 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>0.2055637524298855</v>
+        <v>0.2074423053459221</v>
       </c>
       <c r="F28" t="n">
-        <v>0.06906142007717579</v>
+        <v>0.04364408704071247</v>
       </c>
       <c r="G28" t="n">
-        <v>0.02890666274211226</v>
+        <v>0.002814580020914349</v>
       </c>
       <c r="H28" t="n">
-        <v>0.07076219619857971</v>
+        <v>0.04603160875061835</v>
       </c>
       <c r="I28" t="n">
-        <v>0.04673173237632428</v>
+        <v>0.03768070078013788</v>
       </c>
       <c r="J28" t="n">
-        <v>0.004140860140891192</v>
+        <v>0.04770121994145137</v>
       </c>
       <c r="K28" t="n">
-        <v>0.00952727970146261</v>
+        <v>0.002206934280655046</v>
       </c>
       <c r="L28" t="n">
-        <v>0.05037483928976575</v>
+        <v>0.03545214301912401</v>
       </c>
       <c r="M28" t="n">
-        <v>0.01628459842816092</v>
+        <v>0.04810071942264692</v>
       </c>
       <c r="N28" t="n">
-        <v>0.04188558446464133</v>
+        <v>0.02688590215647708</v>
       </c>
       <c r="O28" t="n">
-        <v>0.01024285287404053</v>
+        <v>0.01941693130917938</v>
       </c>
       <c r="P28" t="n">
-        <v>0.04759221870930985</v>
+        <v>0.07309269266396444</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.05926244445161963</v>
+        <v>0.05362454624112765</v>
       </c>
       <c r="R28" t="n">
-        <v>0.06179277249513387</v>
+        <v>0.05305698885017163</v>
       </c>
       <c r="S28" t="n">
-        <v>0.09700981435556481</v>
+        <v>0.0816624993897197</v>
       </c>
       <c r="T28" t="n">
-        <v>0.01424922593234581</v>
+        <v>0.03978219012476</v>
       </c>
       <c r="U28" t="n">
-        <v>0.03550748788428294</v>
+        <v>0.04528472485342473</v>
       </c>
       <c r="V28" t="n">
-        <v>0.05734412861161534</v>
+        <v>0.02538275664513018</v>
       </c>
       <c r="W28" t="n">
-        <v>0.0970029857548026</v>
+        <v>0.03138944321122472</v>
       </c>
       <c r="X28" t="n">
-        <v>0.03293124037870911</v>
+        <v>0.1100125531211566</v>
       </c>
       <c r="Y28" t="n">
-        <v>0.02426058247352107</v>
+        <v>0.05742823728628569</v>
       </c>
       <c r="Z28" t="n">
-        <v>0.07176889633917172</v>
+        <v>0.06166793596381182</v>
       </c>
       <c r="AA28" t="n">
-        <v>0.02406651845798888</v>
+        <v>0.02800019449923811</v>
       </c>
       <c r="AB28" t="n">
-        <v>0.02929365786277998</v>
+        <v>0.0296804104280679</v>
       </c>
       <c r="AC28" t="n">
-        <v>0.1470176520617906</v>
+        <v>0.1546322568177046</v>
       </c>
     </row>
     <row r="29">
@@ -3160,79 +3160,79 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>0.458695646830623</v>
+        <v>0.2707779126291444</v>
       </c>
       <c r="F29" t="n">
-        <v>0.002693545553805602</v>
+        <v>0.04619597868239381</v>
       </c>
       <c r="G29" t="n">
-        <v>0.08901884296722178</v>
+        <v>0.001669231500980786</v>
       </c>
       <c r="H29" t="n">
-        <v>0.002457700890038432</v>
+        <v>0.01622584067358593</v>
       </c>
       <c r="I29" t="n">
-        <v>0.01432291673201341</v>
+        <v>0.09439766206401348</v>
       </c>
       <c r="J29" t="n">
-        <v>0.02167920588003451</v>
+        <v>0.09326532806300644</v>
       </c>
       <c r="K29" t="n">
-        <v>0.1048472926105941</v>
+        <v>0.02825772282990615</v>
       </c>
       <c r="L29" t="n">
-        <v>0.0001060583000225507</v>
+        <v>0.09824575209121571</v>
       </c>
       <c r="M29" t="n">
-        <v>0.0243587811713816</v>
+        <v>0.02070300278825129</v>
       </c>
       <c r="N29" t="n">
-        <v>0.007080820566098061</v>
+        <v>0.02269956109562993</v>
       </c>
       <c r="O29" t="n">
-        <v>0.1178425668562458</v>
+        <v>0.07819920322515017</v>
       </c>
       <c r="P29" t="n">
-        <v>0.1122433653131701</v>
+        <v>0.007690788048793378</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.00966326574154072</v>
+        <v>0.01052198811485484</v>
       </c>
       <c r="R29" t="n">
-        <v>0.0502600932928039</v>
+        <v>0.006535783480228949</v>
       </c>
       <c r="S29" t="n">
-        <v>0.07831393295792059</v>
+        <v>0.05804396699296479</v>
       </c>
       <c r="T29" t="n">
-        <v>0.02355066024712497</v>
+        <v>0.1167318119692922</v>
       </c>
       <c r="U29" t="n">
-        <v>0.03129535480030458</v>
+        <v>0.04384786631563927</v>
       </c>
       <c r="V29" t="n">
-        <v>0.06950852945138407</v>
+        <v>0.02138135546302476</v>
       </c>
       <c r="W29" t="n">
-        <v>0.06839300154687016</v>
+        <v>0.03715435396712777</v>
       </c>
       <c r="X29" t="n">
-        <v>0.04291938420263067</v>
+        <v>0.04289391778554931</v>
       </c>
       <c r="Y29" t="n">
-        <v>0.02004566857783168</v>
+        <v>0.01388188296139667</v>
       </c>
       <c r="Z29" t="n">
-        <v>0.01130380020999145</v>
+        <v>0.0978887204951561</v>
       </c>
       <c r="AA29" t="n">
-        <v>0.04469840151527998</v>
+        <v>0.03947372151043706</v>
       </c>
       <c r="AB29" t="n">
-        <v>0.05339681061569116</v>
+        <v>0.004094559881401191</v>
       </c>
       <c r="AC29" t="n">
-        <v>0.2177131728358107</v>
+        <v>0.1829370678587904</v>
       </c>
     </row>
     <row r="30">
@@ -3255,79 +3255,79 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>0.1601813247543319</v>
+        <v>0.1622574263474578</v>
       </c>
       <c r="F30" t="n">
-        <v>0.06863848463342793</v>
+        <v>0.07502053898610135</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02507138138093002</v>
+        <v>0.04187492768325426</v>
       </c>
       <c r="H30" t="n">
-        <v>0.04737122491835899</v>
+        <v>0.003749577398002369</v>
       </c>
       <c r="I30" t="n">
-        <v>0.005217981831555415</v>
+        <v>0.001519602288092405</v>
       </c>
       <c r="J30" t="n">
-        <v>0.07846640361446748</v>
+        <v>0.03540238505183151</v>
       </c>
       <c r="K30" t="n">
-        <v>0.003477734068200919</v>
+        <v>0.004314761244159787</v>
       </c>
       <c r="L30" t="n">
-        <v>0.04248413625525514</v>
+        <v>0.02213430115377448</v>
       </c>
       <c r="M30" t="n">
-        <v>0.06649901249678525</v>
+        <v>0.06231125720325458</v>
       </c>
       <c r="N30" t="n">
-        <v>0.08480091723895263</v>
+        <v>0.07563839980663048</v>
       </c>
       <c r="O30" t="n">
-        <v>0.008538714140435147</v>
+        <v>0.05239819537353786</v>
       </c>
       <c r="P30" t="n">
-        <v>0.02185470111083979</v>
+        <v>0.07551851862108903</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.06308746356182737</v>
+        <v>0.01549548974799647</v>
       </c>
       <c r="R30" t="n">
-        <v>0.08360512885323131</v>
+        <v>0.07832012622774256</v>
       </c>
       <c r="S30" t="n">
-        <v>0.01877900924435007</v>
+        <v>0.04842167000616062</v>
       </c>
       <c r="T30" t="n">
-        <v>0.02136466636086821</v>
+        <v>0.06882728972503309</v>
       </c>
       <c r="U30" t="n">
-        <v>0.04960422982775818</v>
+        <v>0.04248732623827758</v>
       </c>
       <c r="V30" t="n">
-        <v>0.03883871287814215</v>
+        <v>0.02991582617913159</v>
       </c>
       <c r="W30" t="n">
-        <v>0.02813677920058643</v>
+        <v>0.0008897882488816513</v>
       </c>
       <c r="X30" t="n">
-        <v>0.06698356998793545</v>
+        <v>0.04955001026211939</v>
       </c>
       <c r="Y30" t="n">
-        <v>0.05417251656206311</v>
+        <v>0.07316249339266975</v>
       </c>
       <c r="Z30" t="n">
-        <v>0.02615796276757116</v>
+        <v>0.05214800396721418</v>
       </c>
       <c r="AA30" t="n">
-        <v>0.09070682633342676</v>
+        <v>0.07408004295015451</v>
       </c>
       <c r="AB30" t="n">
-        <v>0.006142442733030898</v>
+        <v>0.01681946824489038</v>
       </c>
       <c r="AC30" t="n">
-        <v>0.009390998057026095</v>
+        <v>-3.00124910226448e-05</v>
       </c>
     </row>
     <row r="31">
@@ -3350,79 +3350,79 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>0.1956745807257464</v>
+        <v>0.2217854134148662</v>
       </c>
       <c r="F31" t="n">
-        <v>0.04913658995890896</v>
+        <v>0.01554154452442946</v>
       </c>
       <c r="G31" t="n">
-        <v>0.006785217133088547</v>
+        <v>0.008785895120686376</v>
       </c>
       <c r="H31" t="n">
-        <v>0.07685631491418729</v>
+        <v>0.06959970313964647</v>
       </c>
       <c r="I31" t="n">
-        <v>0.01923610712761053</v>
+        <v>0.01903473673113476</v>
       </c>
       <c r="J31" t="n">
-        <v>0.05284877232128665</v>
+        <v>0.03926646498886555</v>
       </c>
       <c r="K31" t="n">
-        <v>0.01654650294104792</v>
+        <v>0.0236462509580494</v>
       </c>
       <c r="L31" t="n">
-        <v>0.04175876919933902</v>
+        <v>0.1212675734796096</v>
       </c>
       <c r="M31" t="n">
-        <v>0.02641286292891878</v>
+        <v>0.05787918871241541</v>
       </c>
       <c r="N31" t="n">
-        <v>0.009659314760782902</v>
+        <v>0.02865137747998744</v>
       </c>
       <c r="O31" t="n">
-        <v>0.0526601481434076</v>
+        <v>0.02357576428260392</v>
       </c>
       <c r="P31" t="n">
-        <v>0.02420524763717285</v>
+        <v>0.07340547520880605</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.03687975785790574</v>
+        <v>0.04159025846388666</v>
       </c>
       <c r="R31" t="n">
-        <v>0.05003414181113928</v>
+        <v>0.01229014166145155</v>
       </c>
       <c r="S31" t="n">
-        <v>0.05576752745711917</v>
+        <v>0.04101033629948504</v>
       </c>
       <c r="T31" t="n">
-        <v>0.1093897693035327</v>
+        <v>0.06057391814375462</v>
       </c>
       <c r="U31" t="n">
-        <v>0.01337190783305129</v>
+        <v>0.04774921708556763</v>
       </c>
       <c r="V31" t="n">
-        <v>0.1090047829057113</v>
+        <v>0.1020746061638374</v>
       </c>
       <c r="W31" t="n">
-        <v>0.001456595493162023</v>
+        <v>0.0773359343246138</v>
       </c>
       <c r="X31" t="n">
-        <v>0.08236238646390626</v>
+        <v>0.01149065254688261</v>
       </c>
       <c r="Y31" t="n">
-        <v>0.04105994398578428</v>
+        <v>0.0138993286890028</v>
       </c>
       <c r="Z31" t="n">
-        <v>0.01404541417042265</v>
+        <v>0.02756918731210866</v>
       </c>
       <c r="AA31" t="n">
-        <v>0.05310227257085873</v>
+        <v>0.04128798213472244</v>
       </c>
       <c r="AB31" t="n">
-        <v>0.05741965308165532</v>
+        <v>0.04247446254845231</v>
       </c>
       <c r="AC31" t="n">
-        <v>0.05560221833922227</v>
+        <v>0.0526065813519051</v>
       </c>
     </row>
     <row r="32">
@@ -3445,79 +3445,79 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>0.1390668282380595</v>
+        <v>0.1328855043485679</v>
       </c>
       <c r="F32" t="n">
-        <v>0.08233802091704603</v>
+        <v>0.02554521168733568</v>
       </c>
       <c r="G32" t="n">
-        <v>0.01074749265110125</v>
+        <v>0.0599196471964704</v>
       </c>
       <c r="H32" t="n">
-        <v>0.009315961774587586</v>
+        <v>0.01589466967219697</v>
       </c>
       <c r="I32" t="n">
-        <v>0.009596390619622797</v>
+        <v>0.00161783533651875</v>
       </c>
       <c r="J32" t="n">
-        <v>0.02734207936558589</v>
+        <v>0.04151756490657735</v>
       </c>
       <c r="K32" t="n">
-        <v>0.04477985336898706</v>
+        <v>0.01694247247072433</v>
       </c>
       <c r="L32" t="n">
-        <v>0.02811094183376096</v>
+        <v>0.01730604782251905</v>
       </c>
       <c r="M32" t="n">
-        <v>0.08787990918174864</v>
+        <v>0.08236499427513426</v>
       </c>
       <c r="N32" t="n">
-        <v>0.07769402269733713</v>
+        <v>0.05079924989533482</v>
       </c>
       <c r="O32" t="n">
-        <v>0.01662491890983491</v>
+        <v>0.01400017517550442</v>
       </c>
       <c r="P32" t="n">
-        <v>0.01708643327213739</v>
+        <v>0.0002094182758574875</v>
       </c>
       <c r="Q32" t="n">
-        <v>0.07094465787497473</v>
+        <v>0.05204603485575925</v>
       </c>
       <c r="R32" t="n">
-        <v>0.08858510043128666</v>
+        <v>0.05265070738016082</v>
       </c>
       <c r="S32" t="n">
-        <v>0.02806134184495136</v>
+        <v>0.09149107956011651</v>
       </c>
       <c r="T32" t="n">
-        <v>0.03973999631106506</v>
+        <v>0.009306066180379697</v>
       </c>
       <c r="U32" t="n">
-        <v>0.03864218360682899</v>
+        <v>0.07568946505575033</v>
       </c>
       <c r="V32" t="n">
-        <v>0.001131930244389793</v>
+        <v>0.001178165292858892</v>
       </c>
       <c r="W32" t="n">
-        <v>0.06966060150730026</v>
+        <v>0.06202076217020806</v>
       </c>
       <c r="X32" t="n">
-        <v>0.01126206779615185</v>
+        <v>0.1061580375317139</v>
       </c>
       <c r="Y32" t="n">
-        <v>0.04792818217439811</v>
+        <v>0.06234323928708824</v>
       </c>
       <c r="Z32" t="n">
-        <v>0.05542214335691755</v>
+        <v>0.08858309437666853</v>
       </c>
       <c r="AA32" t="n">
-        <v>0.08620356954997374</v>
+        <v>0.06044503200086439</v>
       </c>
       <c r="AB32" t="n">
-        <v>0.05090220071001238</v>
+        <v>0.01197102959425759</v>
       </c>
       <c r="AC32" t="n">
-        <v>0.002485560239313358</v>
+        <v>0.0274864649565908</v>
       </c>
     </row>
     <row r="33">
@@ -3540,79 +3540,79 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>0.1561983602730282</v>
+        <v>0.1679242713965545</v>
       </c>
       <c r="F33" t="n">
-        <v>0.01948653398595262</v>
+        <v>0.03244952167504412</v>
       </c>
       <c r="G33" t="n">
-        <v>0.03768910245422066</v>
+        <v>0.05186898617027257</v>
       </c>
       <c r="H33" t="n">
-        <v>0.05429675553441932</v>
+        <v>0.007330060525195289</v>
       </c>
       <c r="I33" t="n">
-        <v>0.00695161448647729</v>
+        <v>0.01472219798162991</v>
       </c>
       <c r="J33" t="n">
-        <v>0.005585368868891914</v>
+        <v>0.05505341407684774</v>
       </c>
       <c r="K33" t="n">
-        <v>0.06398932856170673</v>
+        <v>0.03031405375178932</v>
       </c>
       <c r="L33" t="n">
-        <v>0.01762734139315199</v>
+        <v>0.08062441824635752</v>
       </c>
       <c r="M33" t="n">
-        <v>0.03280346557775975</v>
+        <v>0.05920124112667233</v>
       </c>
       <c r="N33" t="n">
-        <v>0.08949879534492897</v>
+        <v>0.03138315030949237</v>
       </c>
       <c r="O33" t="n">
-        <v>0.04024506762237445</v>
+        <v>0.07600952807020284</v>
       </c>
       <c r="P33" t="n">
-        <v>0.02123528046787029</v>
+        <v>0.0751796186488428</v>
       </c>
       <c r="Q33" t="n">
-        <v>0.02393843999596496</v>
+        <v>0.04274172182524785</v>
       </c>
       <c r="R33" t="n">
-        <v>0.07664868900585339</v>
+        <v>0.004857375746087632</v>
       </c>
       <c r="S33" t="n">
-        <v>0.02947517993380033</v>
+        <v>0.0679380546262284</v>
       </c>
       <c r="T33" t="n">
-        <v>0.08908916754265959</v>
+        <v>0.06985043657416952</v>
       </c>
       <c r="U33" t="n">
-        <v>0.06783154124724795</v>
+        <v>0.08271862665372656</v>
       </c>
       <c r="V33" t="n">
-        <v>2.790622694263478e-06</v>
+        <v>0.0002078551158529165</v>
       </c>
       <c r="W33" t="n">
-        <v>0.05933223556710406</v>
+        <v>0.04638251456295998</v>
       </c>
       <c r="X33" t="n">
-        <v>0.08042695089918492</v>
+        <v>0.01268077276005795</v>
       </c>
       <c r="Y33" t="n">
-        <v>0.01076344071778066</v>
+        <v>0.01235391326075039</v>
       </c>
       <c r="Z33" t="n">
-        <v>0.03238647887380829</v>
+        <v>0.01537063524037232</v>
       </c>
       <c r="AA33" t="n">
-        <v>0.08555641086499101</v>
+        <v>0.05276692424347847</v>
       </c>
       <c r="AB33" t="n">
-        <v>0.05514002043115674</v>
+        <v>0.07799497880872124</v>
       </c>
       <c r="AC33" t="n">
-        <v>0.01640260904322053</v>
+        <v>0.01255556853970396</v>
       </c>
     </row>
     <row r="34">
@@ -3635,79 +3635,79 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>0.1696323458121267</v>
+        <v>0.1787013104349189</v>
       </c>
       <c r="F34" t="n">
-        <v>0.08765883021881629</v>
+        <v>0.06099814249784213</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02776003316117393</v>
+        <v>0.06637002461775822</v>
       </c>
       <c r="H34" t="n">
-        <v>0.05729795268257638</v>
+        <v>0.02051873120024984</v>
       </c>
       <c r="I34" t="n">
-        <v>0.009107553931569883</v>
+        <v>0.008686962156904064</v>
       </c>
       <c r="J34" t="n">
-        <v>0.05908264827912132</v>
+        <v>0.007603390422121388</v>
       </c>
       <c r="K34" t="n">
-        <v>0.0482087898143386</v>
+        <v>0.06873114748649929</v>
       </c>
       <c r="L34" t="n">
-        <v>0.06021807385803709</v>
+        <v>0.07352441544444303</v>
       </c>
       <c r="M34" t="n">
-        <v>0.07848481500039507</v>
+        <v>0.04858559546193735</v>
       </c>
       <c r="N34" t="n">
-        <v>0.01952883504653528</v>
+        <v>0.07099974713351247</v>
       </c>
       <c r="O34" t="n">
-        <v>0.08992773406839294</v>
+        <v>0.07080836638253984</v>
       </c>
       <c r="P34" t="n">
-        <v>0.01001965738722936</v>
+        <v>0.03947310799800499</v>
       </c>
       <c r="Q34" t="n">
-        <v>0.006009605003414575</v>
+        <v>0.01701189294629509</v>
       </c>
       <c r="R34" t="n">
-        <v>0.003322755230158556</v>
+        <v>0.003427767921016224</v>
       </c>
       <c r="S34" t="n">
-        <v>0.003254137435293924</v>
+        <v>0.01104124892471908</v>
       </c>
       <c r="T34" t="n">
-        <v>0.08916070638260704</v>
+        <v>0.07004490571112841</v>
       </c>
       <c r="U34" t="n">
-        <v>0.04858986411117645</v>
+        <v>0.04513161609939334</v>
       </c>
       <c r="V34" t="n">
-        <v>0.002555861109439365</v>
+        <v>0.02333171259546394</v>
       </c>
       <c r="W34" t="n">
-        <v>0.001316580102388943</v>
+        <v>0.003808230582155952</v>
       </c>
       <c r="X34" t="n">
-        <v>0.0562622811597665</v>
+        <v>0.06833292689682974</v>
       </c>
       <c r="Y34" t="n">
-        <v>0.04828360225460882</v>
+        <v>0.03752967332857129</v>
       </c>
       <c r="Z34" t="n">
-        <v>0.08870920416048569</v>
+        <v>0.07350875367720762</v>
       </c>
       <c r="AA34" t="n">
-        <v>0.07397730126883863</v>
+        <v>0.0662826768014988</v>
       </c>
       <c r="AB34" t="n">
-        <v>0.03126317833363509</v>
+        <v>0.0442489637139078</v>
       </c>
       <c r="AC34" t="n">
-        <v>0.1085003627584462</v>
+        <v>0.1088406164671586</v>
       </c>
     </row>
     <row r="35">
@@ -3730,79 +3730,79 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>0.4706768831449391</v>
+        <v>0.2750106824009276</v>
       </c>
       <c r="F35" t="n">
-        <v>0.02164399277189865</v>
+        <v>0.004297375501291069</v>
       </c>
       <c r="G35" t="n">
-        <v>0.01556368715005796</v>
+        <v>0.05655815619657158</v>
       </c>
       <c r="H35" t="n">
-        <v>0.00588187033271517</v>
+        <v>0.05042735890430207</v>
       </c>
       <c r="I35" t="n">
-        <v>0.08951233512357759</v>
+        <v>0.01843933960366961</v>
       </c>
       <c r="J35" t="n">
-        <v>0.05220866980105751</v>
+        <v>0.0660350792469811</v>
       </c>
       <c r="K35" t="n">
-        <v>0.007579055986935492</v>
+        <v>0.09818398129161379</v>
       </c>
       <c r="L35" t="n">
-        <v>0.09054864478316502</v>
+        <v>0.1061897676387324</v>
       </c>
       <c r="M35" t="n">
-        <v>0.0992056054282423</v>
+        <v>0.03376748344677149</v>
       </c>
       <c r="N35" t="n">
-        <v>0.004483779032386022</v>
+        <v>0.02826129284083238</v>
       </c>
       <c r="O35" t="n">
-        <v>0.04281974115771574</v>
+        <v>0.03256317527192534</v>
       </c>
       <c r="P35" t="n">
-        <v>0.1006861805952273</v>
+        <v>0.06310200428268625</v>
       </c>
       <c r="Q35" t="n">
-        <v>0.0580176662058029</v>
+        <v>0.0003905370876642426</v>
       </c>
       <c r="R35" t="n">
-        <v>0.03459406353520891</v>
+        <v>0.00359097732656715</v>
       </c>
       <c r="S35" t="n">
-        <v>0.003558861148808238</v>
+        <v>0.02834063792333538</v>
       </c>
       <c r="T35" t="n">
-        <v>0.06890263341637948</v>
+        <v>0.023441180920357</v>
       </c>
       <c r="U35" t="n">
-        <v>0.03418150456867035</v>
+        <v>0.04200005042772013</v>
       </c>
       <c r="V35" t="n">
-        <v>0.07595923114599287</v>
+        <v>0.1184036885506275</v>
       </c>
       <c r="W35" t="n">
-        <v>0.002579454146804941</v>
+        <v>0.02343075483831399</v>
       </c>
       <c r="X35" t="n">
-        <v>0.05420883298988523</v>
+        <v>0.1002342989253038</v>
       </c>
       <c r="Y35" t="n">
-        <v>0.004479875185854429</v>
+        <v>0.002252981004950499</v>
       </c>
       <c r="Z35" t="n">
-        <v>0.05680329297699512</v>
+        <v>0.06696094774407961</v>
       </c>
       <c r="AA35" t="n">
-        <v>0.03210319380378037</v>
+        <v>0.008132105786238396</v>
       </c>
       <c r="AB35" t="n">
-        <v>0.04447782871283823</v>
+        <v>0.02499682523946534</v>
       </c>
       <c r="AC35" t="n">
-        <v>0.1342981806298475</v>
+        <v>0.1506219526517972</v>
       </c>
     </row>
     <row r="36">
@@ -3825,79 +3825,79 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>0.1526161085514324</v>
+        <v>0.1532885554786075</v>
       </c>
       <c r="F36" t="n">
-        <v>0.07532485033125784</v>
+        <v>0.06393842609073352</v>
       </c>
       <c r="G36" t="n">
-        <v>0.05045931707469896</v>
+        <v>0.04438174296273836</v>
       </c>
       <c r="H36" t="n">
-        <v>0.06436554940216008</v>
+        <v>0.06079673685487423</v>
       </c>
       <c r="I36" t="n">
-        <v>0.001235472727689708</v>
+        <v>0.02836749289602224</v>
       </c>
       <c r="J36" t="n">
-        <v>0.007938915721021227</v>
+        <v>0.06319184915665531</v>
       </c>
       <c r="K36" t="n">
-        <v>0.005029790161504137</v>
+        <v>0.007586434259787783</v>
       </c>
       <c r="L36" t="n">
-        <v>0.08514668001534079</v>
+        <v>0.03286066905548209</v>
       </c>
       <c r="M36" t="n">
-        <v>0.0229319180162724</v>
+        <v>0.07196467126105775</v>
       </c>
       <c r="N36" t="n">
-        <v>0.08769401307205374</v>
+        <v>0.02566956032933979</v>
       </c>
       <c r="O36" t="n">
-        <v>0.08436825838677037</v>
+        <v>0.01343669206198578</v>
       </c>
       <c r="P36" t="n">
-        <v>0.02822728576342127</v>
+        <v>0.06676094985396552</v>
       </c>
       <c r="Q36" t="n">
-        <v>0.0566455538365631</v>
+        <v>0.04422045934699244</v>
       </c>
       <c r="R36" t="n">
-        <v>0.003444331955209246</v>
+        <v>0.001719172550623536</v>
       </c>
       <c r="S36" t="n">
-        <v>0.0445992869828576</v>
+        <v>0.05204062317440019</v>
       </c>
       <c r="T36" t="n">
-        <v>0.0804530827189779</v>
+        <v>0.05802200819802086</v>
       </c>
       <c r="U36" t="n">
-        <v>0.07948695380616896</v>
+        <v>0.07347576162277089</v>
       </c>
       <c r="V36" t="n">
-        <v>0.0120685521901737</v>
+        <v>0.004967989661943751</v>
       </c>
       <c r="W36" t="n">
-        <v>0.0179830629307885</v>
+        <v>0.00643963951058892</v>
       </c>
       <c r="X36" t="n">
-        <v>0.02488113866580006</v>
+        <v>0.07248040324166097</v>
       </c>
       <c r="Y36" t="n">
-        <v>0.03218015336061669</v>
+        <v>0.02024995326643217</v>
       </c>
       <c r="Z36" t="n">
-        <v>0.01946775158744322</v>
+        <v>0.05227568441899879</v>
       </c>
       <c r="AA36" t="n">
-        <v>0.03718708262396546</v>
+        <v>0.05961902220255687</v>
       </c>
       <c r="AB36" t="n">
-        <v>0.07888099866924513</v>
+        <v>0.0755340580223685</v>
       </c>
       <c r="AC36" t="n">
-        <v>-0.06301702730100128</v>
+        <v>-0.02386636681214747</v>
       </c>
     </row>
     <row r="37">
@@ -3920,79 +3920,79 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>0.195052216651649</v>
+        <v>0.1701472985163489</v>
       </c>
       <c r="F37" t="n">
-        <v>0.003905710614704985</v>
+        <v>0.007836508613633433</v>
       </c>
       <c r="G37" t="n">
-        <v>0.07530813687052819</v>
+        <v>0.004871022218045013</v>
       </c>
       <c r="H37" t="n">
-        <v>0.08023712295947136</v>
+        <v>0.01703986071390547</v>
       </c>
       <c r="I37" t="n">
-        <v>0.09802010961854428</v>
+        <v>0.001471311371540964</v>
       </c>
       <c r="J37" t="n">
-        <v>0.05118601280283008</v>
+        <v>0.01963541891839117</v>
       </c>
       <c r="K37" t="n">
-        <v>0.04660463572446885</v>
+        <v>0.02060338207530238</v>
       </c>
       <c r="L37" t="n">
-        <v>0.06794876086256058</v>
+        <v>0.08723831767202224</v>
       </c>
       <c r="M37" t="n">
-        <v>0.09821966196504979</v>
+        <v>0.09272658369828583</v>
       </c>
       <c r="N37" t="n">
-        <v>0.06301501441652999</v>
+        <v>0.02069459580493847</v>
       </c>
       <c r="O37" t="n">
-        <v>0.002113655879138491</v>
+        <v>0.06050825888346312</v>
       </c>
       <c r="P37" t="n">
-        <v>0.01412569477324415</v>
+        <v>0.05321115475654212</v>
       </c>
       <c r="Q37" t="n">
-        <v>0.0251406266781088</v>
+        <v>0.001839479421594462</v>
       </c>
       <c r="R37" t="n">
-        <v>0.01619465806988832</v>
+        <v>0.01369010270796458</v>
       </c>
       <c r="S37" t="n">
-        <v>0.09948893855426144</v>
+        <v>0.08596776768909936</v>
       </c>
       <c r="T37" t="n">
-        <v>0.04857862924603273</v>
+        <v>0.07658245524309251</v>
       </c>
       <c r="U37" t="n">
-        <v>0.004560043993086853</v>
+        <v>0.09618132288633163</v>
       </c>
       <c r="V37" t="n">
-        <v>0.02865796535427922</v>
+        <v>0.006857504156923084</v>
       </c>
       <c r="W37" t="n">
-        <v>0.002021409900527845</v>
+        <v>0.04054351969488641</v>
       </c>
       <c r="X37" t="n">
-        <v>0.004737165277977322</v>
+        <v>0.002075185734045323</v>
       </c>
       <c r="Y37" t="n">
-        <v>0.04642477330105128</v>
+        <v>0.08260876947179817</v>
       </c>
       <c r="Z37" t="n">
-        <v>0.02610864375401823</v>
+        <v>0.08937929439393251</v>
       </c>
       <c r="AA37" t="n">
-        <v>0.01678840591143705</v>
+        <v>0.01032009974160021</v>
       </c>
       <c r="AB37" t="n">
-        <v>0.08061422347226026</v>
+        <v>0.1081180841326614</v>
       </c>
       <c r="AC37" t="n">
-        <v>-0.06813582082890965</v>
+        <v>-0.06969768590559097</v>
       </c>
     </row>
     <row r="38">
@@ -4015,79 +4015,79 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>0.1860747453108736</v>
+        <v>0.1832997941852793</v>
       </c>
       <c r="F38" t="n">
-        <v>0.01945182982872292</v>
+        <v>0.07926777317268228</v>
       </c>
       <c r="G38" t="n">
-        <v>0.04514684025855587</v>
+        <v>0.02419170438828586</v>
       </c>
       <c r="H38" t="n">
-        <v>0.08092655925506857</v>
+        <v>0.07856393412971381</v>
       </c>
       <c r="I38" t="n">
-        <v>0.04378757404895033</v>
+        <v>0.01010555085135468</v>
       </c>
       <c r="J38" t="n">
-        <v>0.04803503166724259</v>
+        <v>0.04814326357797295</v>
       </c>
       <c r="K38" t="n">
-        <v>0.0532445830190591</v>
+        <v>0.02919423289675949</v>
       </c>
       <c r="L38" t="n">
-        <v>0.004559266330320062</v>
+        <v>0.005540870552013613</v>
       </c>
       <c r="M38" t="n">
-        <v>0.02686674386434742</v>
+        <v>0.04782962538075301</v>
       </c>
       <c r="N38" t="n">
-        <v>0.01141154787840539</v>
+        <v>0.05409747562509316</v>
       </c>
       <c r="O38" t="n">
-        <v>0.09183631533129812</v>
+        <v>0.07196972341233157</v>
       </c>
       <c r="P38" t="n">
-        <v>0.04272144188770937</v>
+        <v>0.08719236609331048</v>
       </c>
       <c r="Q38" t="n">
-        <v>0.04874827616881387</v>
+        <v>0.06608593030635992</v>
       </c>
       <c r="R38" t="n">
-        <v>0.08482772552186649</v>
+        <v>0.0260602428433867</v>
       </c>
       <c r="S38" t="n">
-        <v>0.04482469260017661</v>
+        <v>0.01350309798304769</v>
       </c>
       <c r="T38" t="n">
-        <v>0.07228667096388221</v>
+        <v>0.06131657876073967</v>
       </c>
       <c r="U38" t="n">
-        <v>0.06794881552046689</v>
+        <v>0.04479621874945979</v>
       </c>
       <c r="V38" t="n">
-        <v>0.0003995811541325529</v>
+        <v>0.005505158533052927</v>
       </c>
       <c r="W38" t="n">
-        <v>0.07206002289622952</v>
+        <v>0.07524294693598174</v>
       </c>
       <c r="X38" t="n">
-        <v>0.07516801810477899</v>
+        <v>0.07683762089566905</v>
       </c>
       <c r="Y38" t="n">
-        <v>0.002313341992052172</v>
+        <v>0.007646354137956089</v>
       </c>
       <c r="Z38" t="n">
-        <v>0.01766893386828508</v>
+        <v>0.005131842751834113</v>
       </c>
       <c r="AA38" t="n">
-        <v>0.008841577480814173</v>
+        <v>0.07754291577251715</v>
       </c>
       <c r="AB38" t="n">
-        <v>0.03692461035882171</v>
+        <v>0.004234572249724081</v>
       </c>
       <c r="AC38" t="n">
-        <v>-0.043818990756388</v>
+        <v>-0.02613837875793051</v>
       </c>
     </row>
     <row r="39">
@@ -4110,79 +4110,79 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>0.2910998693911351</v>
+        <v>0.2110189350698635</v>
       </c>
       <c r="F39" t="n">
-        <v>0.09135915949804557</v>
+        <v>0.1113656788953403</v>
       </c>
       <c r="G39" t="n">
-        <v>0.003144884676211304</v>
+        <v>0.05171341638047981</v>
       </c>
       <c r="H39" t="n">
-        <v>0.01412873564704121</v>
+        <v>0.0221061691983066</v>
       </c>
       <c r="I39" t="n">
-        <v>0.02201726291008979</v>
+        <v>0.0358251771177738</v>
       </c>
       <c r="J39" t="n">
-        <v>0.01645996385259679</v>
+        <v>0.03371507099732116</v>
       </c>
       <c r="K39" t="n">
-        <v>0.09449196175498302</v>
+        <v>0.001614763363552486</v>
       </c>
       <c r="L39" t="n">
-        <v>0.001943924267638864</v>
+        <v>0.05339653030232938</v>
       </c>
       <c r="M39" t="n">
-        <v>0.09533849471371129</v>
+        <v>0.0294429345727822</v>
       </c>
       <c r="N39" t="n">
-        <v>0.008645027317915593</v>
+        <v>0.01139426511433173</v>
       </c>
       <c r="O39" t="n">
-        <v>0.004958002479885134</v>
+        <v>0.03745256554883541</v>
       </c>
       <c r="P39" t="n">
-        <v>0.08903982481031252</v>
+        <v>0.1172359936590474</v>
       </c>
       <c r="Q39" t="n">
-        <v>0.001082800234320324</v>
+        <v>0.01700486372691087</v>
       </c>
       <c r="R39" t="n">
-        <v>0.0761843741873687</v>
+        <v>0.05083199774387705</v>
       </c>
       <c r="S39" t="n">
-        <v>0.04514308897569234</v>
+        <v>0.0416280777242186</v>
       </c>
       <c r="T39" t="n">
-        <v>0.08373676756564528</v>
+        <v>0.1035020252892357</v>
       </c>
       <c r="U39" t="n">
-        <v>0.05580737259213464</v>
+        <v>0.063610697125684</v>
       </c>
       <c r="V39" t="n">
-        <v>0.03073920868389349</v>
+        <v>0.01036302915599749</v>
       </c>
       <c r="W39" t="n">
-        <v>0.02948653826837431</v>
+        <v>0.01253693665098501</v>
       </c>
       <c r="X39" t="n">
-        <v>0.07461500324931142</v>
+        <v>0.004125067280737527</v>
       </c>
       <c r="Y39" t="n">
-        <v>0.06110198615291728</v>
+        <v>0.01188015679711065</v>
       </c>
       <c r="Z39" t="n">
-        <v>0.07755658469383332</v>
+        <v>0.09441088934759551</v>
       </c>
       <c r="AA39" t="n">
-        <v>0.01738754870831937</v>
+        <v>0.05785111393729576</v>
       </c>
       <c r="AB39" t="n">
-        <v>0.005631484759758402</v>
+        <v>0.02699258007025165</v>
       </c>
       <c r="AC39" t="n">
-        <v>-0.0006388819391132361</v>
+        <v>-0.009700677248651304</v>
       </c>
     </row>
     <row r="40">
@@ -4205,79 +4205,79 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>0.2034750369964941</v>
+        <v>0.2021516260644601</v>
       </c>
       <c r="F40" t="n">
-        <v>0.005281069563849701</v>
+        <v>0.001447741558702507</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04790628620938206</v>
+        <v>0.01320006913139751</v>
       </c>
       <c r="H40" t="n">
-        <v>0.0757345067916176</v>
+        <v>0.07383835572471327</v>
       </c>
       <c r="I40" t="n">
-        <v>0.02376063005327139</v>
+        <v>0.03253584167932162</v>
       </c>
       <c r="J40" t="n">
-        <v>0.04112552469148116</v>
+        <v>0.02147698472030598</v>
       </c>
       <c r="K40" t="n">
-        <v>0.02191861169118542</v>
+        <v>0.03888197735527623</v>
       </c>
       <c r="L40" t="n">
-        <v>0.02024866253561569</v>
+        <v>0.009460363187551371</v>
       </c>
       <c r="M40" t="n">
-        <v>0.06845296393931344</v>
+        <v>0.09620604042876837</v>
       </c>
       <c r="N40" t="n">
-        <v>0.02984565979316753</v>
+        <v>0.01104963246221087</v>
       </c>
       <c r="O40" t="n">
-        <v>0.01302037344199541</v>
+        <v>0.07975371118028769</v>
       </c>
       <c r="P40" t="n">
-        <v>0.01712989678461647</v>
+        <v>0.003151813553675415</v>
       </c>
       <c r="Q40" t="n">
-        <v>0.04163131771896005</v>
+        <v>0.046510383935485</v>
       </c>
       <c r="R40" t="n">
-        <v>0.0428686599036325</v>
+        <v>0.04200119312076661</v>
       </c>
       <c r="S40" t="n">
-        <v>0.08537356456673803</v>
+        <v>0.07112577779223463</v>
       </c>
       <c r="T40" t="n">
-        <v>0.03701569635328276</v>
+        <v>0.02409970666335954</v>
       </c>
       <c r="U40" t="n">
-        <v>0.0182267998691375</v>
+        <v>0.09154794234269262</v>
       </c>
       <c r="V40" t="n">
-        <v>0.05883189094448262</v>
+        <v>0.02601271981695624</v>
       </c>
       <c r="W40" t="n">
-        <v>0.02915929246138487</v>
+        <v>0.09406193184943193</v>
       </c>
       <c r="X40" t="n">
-        <v>0.0893150915971366</v>
+        <v>0.06526081840707752</v>
       </c>
       <c r="Y40" t="n">
-        <v>0.009958661892644544</v>
+        <v>0.02844368151671058</v>
       </c>
       <c r="Z40" t="n">
-        <v>0.1040110954905601</v>
+        <v>0.02715133770210409</v>
       </c>
       <c r="AA40" t="n">
-        <v>0.09662297748311884</v>
+        <v>0.09170841762771771</v>
       </c>
       <c r="AB40" t="n">
-        <v>0.02256076622342565</v>
+        <v>0.01107355824325265</v>
       </c>
       <c r="AC40" t="n">
-        <v>0.1540609275574361</v>
+        <v>0.1142724963390129</v>
       </c>
     </row>
     <row r="41">
@@ -4300,79 +4300,79 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>0.4477295996331724</v>
+        <v>0.4798484131337555</v>
       </c>
       <c r="F41" t="n">
-        <v>0.108770406594134</v>
+        <v>0.1051618122349582</v>
       </c>
       <c r="G41" t="n">
-        <v>0.109162255291283</v>
+        <v>0.02624569358759183</v>
       </c>
       <c r="H41" t="n">
-        <v>0.1093779954027581</v>
+        <v>0.03810966825829186</v>
       </c>
       <c r="I41" t="n">
-        <v>0.09689404795592782</v>
+        <v>0.0124204485670685</v>
       </c>
       <c r="J41" t="n">
-        <v>0.02537302932412224</v>
+        <v>0.04507050762262899</v>
       </c>
       <c r="K41" t="n">
-        <v>0.04730197813257533</v>
+        <v>0.03763461221770385</v>
       </c>
       <c r="L41" t="n">
-        <v>0.004349465904699807</v>
+        <v>0.02149858989281677</v>
       </c>
       <c r="M41" t="n">
-        <v>0.1073633232419773</v>
+        <v>0.08602942786505095</v>
       </c>
       <c r="N41" t="n">
-        <v>0.03371290237076562</v>
+        <v>0.007512907720988679</v>
       </c>
       <c r="O41" t="n">
-        <v>0.02345855756032923</v>
+        <v>0.0400393245941302</v>
       </c>
       <c r="P41" t="n">
-        <v>0.08973290092908517</v>
+        <v>0.103831746610736</v>
       </c>
       <c r="Q41" t="n">
-        <v>0.03793458920968183</v>
+        <v>0.01445688538349549</v>
       </c>
       <c r="R41" t="n">
-        <v>0.03656287094964638</v>
+        <v>0.06200662333662409</v>
       </c>
       <c r="S41" t="n">
-        <v>0.06909587343270381</v>
+        <v>0.04044936170408833</v>
       </c>
       <c r="T41" t="n">
-        <v>0.01315805634993448</v>
+        <v>0.01632858818233422</v>
       </c>
       <c r="U41" t="n">
-        <v>0.00220794550912081</v>
+        <v>0.01426342213923812</v>
       </c>
       <c r="V41" t="n">
-        <v>0.02845127723640864</v>
+        <v>0.01878212825758201</v>
       </c>
       <c r="W41" t="n">
-        <v>0.01100876492625882</v>
+        <v>0.03644097672143782</v>
       </c>
       <c r="X41" t="n">
-        <v>0.01131427522323614</v>
+        <v>0.006524828870248403</v>
       </c>
       <c r="Y41" t="n">
-        <v>0.01652594794767248</v>
+        <v>0.08629104330651489</v>
       </c>
       <c r="Z41" t="n">
-        <v>0.008543924305009765</v>
+        <v>0.1010065139725902</v>
       </c>
       <c r="AA41" t="n">
-        <v>0.007249201092141245</v>
+        <v>0.07740357865754688</v>
       </c>
       <c r="AB41" t="n">
-        <v>0.002450411110528237</v>
+        <v>0.002491310296333663</v>
       </c>
       <c r="AC41" t="n">
-        <v>0.1261357498004187</v>
+        <v>0.1125492283213453</v>
       </c>
     </row>
     <row r="42">
@@ -4395,79 +4395,79 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>0.1998389758994985</v>
+        <v>0.1971485907644476</v>
       </c>
       <c r="F42" t="n">
-        <v>0.02133851419097592</v>
+        <v>0.03492217811717808</v>
       </c>
       <c r="G42" t="n">
-        <v>0.08978868277219321</v>
+        <v>0.05676433001722002</v>
       </c>
       <c r="H42" t="n">
-        <v>0.08187937480952377</v>
+        <v>0.04023028561814105</v>
       </c>
       <c r="I42" t="n">
-        <v>0.05079165823331156</v>
+        <v>0.07535653968147711</v>
       </c>
       <c r="J42" t="n">
-        <v>0.05983510323199516</v>
+        <v>0.05918568790756729</v>
       </c>
       <c r="K42" t="n">
-        <v>0.01073989880922211</v>
+        <v>0.03487846732880742</v>
       </c>
       <c r="L42" t="n">
-        <v>0.09498469820506239</v>
+        <v>0.02976973692224839</v>
       </c>
       <c r="M42" t="n">
-        <v>0.002343275306154792</v>
+        <v>0.07429998344803707</v>
       </c>
       <c r="N42" t="n">
-        <v>0.01503541106432231</v>
+        <v>0.001441218284538884</v>
       </c>
       <c r="O42" t="n">
-        <v>0.05873795680746734</v>
+        <v>0.03234570179404028</v>
       </c>
       <c r="P42" t="n">
-        <v>0.0485057732344551</v>
+        <v>0.05144974806811916</v>
       </c>
       <c r="Q42" t="n">
-        <v>0.02350521168406287</v>
+        <v>0.008454010988861662</v>
       </c>
       <c r="R42" t="n">
-        <v>0.008200804433789552</v>
+        <v>0.06017284112082429</v>
       </c>
       <c r="S42" t="n">
-        <v>0.00629353792201226</v>
+        <v>0.05721860359227253</v>
       </c>
       <c r="T42" t="n">
-        <v>0.04912263407458665</v>
+        <v>0.04676305719094627</v>
       </c>
       <c r="U42" t="n">
-        <v>0.09011054774454653</v>
+        <v>0.04828551664780777</v>
       </c>
       <c r="V42" t="n">
-        <v>0.001341844756705604</v>
+        <v>0.007264961206629894</v>
       </c>
       <c r="W42" t="n">
-        <v>0.05949123685921776</v>
+        <v>0.06408391121355844</v>
       </c>
       <c r="X42" t="n">
-        <v>0.09659673952332554</v>
+        <v>0.0824287794577825</v>
       </c>
       <c r="Y42" t="n">
-        <v>0.04559385365881418</v>
+        <v>0.02083500871194793</v>
       </c>
       <c r="Z42" t="n">
-        <v>0.06980686158281871</v>
+        <v>0.08735949271232138</v>
       </c>
       <c r="AA42" t="n">
-        <v>0.01565151054263175</v>
+        <v>0.005833236655540769</v>
       </c>
       <c r="AB42" t="n">
-        <v>0.0003048705528048578</v>
+        <v>0.02065670331413156</v>
       </c>
       <c r="AC42" t="n">
-        <v>0.0233380487336705</v>
+        <v>0.03782356034534425</v>
       </c>
     </row>
     <row r="43">
@@ -4490,79 +4490,79 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>0.2476325746241688</v>
+        <v>0.2468487238771595</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1035392542891749</v>
+        <v>0.09735603095120438</v>
       </c>
       <c r="G43" t="n">
-        <v>0.05007446437454077</v>
+        <v>0.01113886388558372</v>
       </c>
       <c r="H43" t="n">
-        <v>0.03396598903464691</v>
+        <v>0.07902218624211289</v>
       </c>
       <c r="I43" t="n">
-        <v>0.03172072863100236</v>
+        <v>0.02521801701712219</v>
       </c>
       <c r="J43" t="n">
-        <v>0.05232313699350223</v>
+        <v>0.07420368784735018</v>
       </c>
       <c r="K43" t="n">
-        <v>0.01410051230557197</v>
+        <v>0.01187937429154285</v>
       </c>
       <c r="L43" t="n">
-        <v>0.03700536748675116</v>
+        <v>0.0506530174880703</v>
       </c>
       <c r="M43" t="n">
-        <v>0.0607273477975122</v>
+        <v>0.03890702036368043</v>
       </c>
       <c r="N43" t="n">
-        <v>0.0008182912017270567</v>
+        <v>0.01255939116101563</v>
       </c>
       <c r="O43" t="n">
-        <v>0.05098826639360138</v>
+        <v>0.03846270336112193</v>
       </c>
       <c r="P43" t="n">
-        <v>0.0180942348276047</v>
+        <v>0.03757774398513756</v>
       </c>
       <c r="Q43" t="n">
-        <v>0.04887434696804969</v>
+        <v>0.103209943909278</v>
       </c>
       <c r="R43" t="n">
-        <v>0.01710970604748615</v>
+        <v>0.0593140915748767</v>
       </c>
       <c r="S43" t="n">
-        <v>0.02120284960120338</v>
+        <v>0.005573345718948267</v>
       </c>
       <c r="T43" t="n">
-        <v>0.08251636706759223</v>
+        <v>0.01408151129707557</v>
       </c>
       <c r="U43" t="n">
-        <v>0.03913812825151927</v>
+        <v>0.001862658908501223</v>
       </c>
       <c r="V43" t="n">
-        <v>0.04551031651408129</v>
+        <v>0.03720793974569896</v>
       </c>
       <c r="W43" t="n">
-        <v>0.06390706378241964</v>
+        <v>0.004696776424472211</v>
       </c>
       <c r="X43" t="n">
-        <v>0.004262139039763681</v>
+        <v>0.0082006151313613</v>
       </c>
       <c r="Y43" t="n">
-        <v>0.07741177778532952</v>
+        <v>0.1021975449108685</v>
       </c>
       <c r="Z43" t="n">
-        <v>0.006733716944518338</v>
+        <v>0.06221124528363019</v>
       </c>
       <c r="AA43" t="n">
-        <v>0.0862818736664025</v>
+        <v>0.10311168958293</v>
       </c>
       <c r="AB43" t="n">
-        <v>0.05369412099599868</v>
+        <v>0.02135460091841701</v>
       </c>
       <c r="AC43" t="n">
-        <v>0.06301167152618659</v>
+        <v>0.06987325344147276</v>
       </c>
     </row>
     <row r="44">
@@ -4585,79 +4585,79 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>0.1881826805484764</v>
+        <v>0.1858501580174057</v>
       </c>
       <c r="F44" t="n">
-        <v>0.0387156954386242</v>
+        <v>0.07494871875040388</v>
       </c>
       <c r="G44" t="n">
-        <v>0.004222678607620917</v>
+        <v>0.006199653638732579</v>
       </c>
       <c r="H44" t="n">
-        <v>0.01218977741269927</v>
+        <v>0.01433554620611333</v>
       </c>
       <c r="I44" t="n">
-        <v>0.008917378624708728</v>
+        <v>0.02134378692682114</v>
       </c>
       <c r="J44" t="n">
-        <v>0.0512620886262261</v>
+        <v>0.05106719435989259</v>
       </c>
       <c r="K44" t="n">
-        <v>0.001391213492949759</v>
+        <v>0.04044775791307645</v>
       </c>
       <c r="L44" t="n">
-        <v>0.06453264788306377</v>
+        <v>0.07461501091136769</v>
       </c>
       <c r="M44" t="n">
-        <v>0.08771317205017906</v>
+        <v>0.07650018180200624</v>
       </c>
       <c r="N44" t="n">
-        <v>0.01858587730448177</v>
+        <v>0.01092117454741164</v>
       </c>
       <c r="O44" t="n">
-        <v>0.07035792713805394</v>
+        <v>0.06070878919421484</v>
       </c>
       <c r="P44" t="n">
-        <v>0.09014787595650761</v>
+        <v>0.03714457822735764</v>
       </c>
       <c r="Q44" t="n">
-        <v>0.06294266225165349</v>
+        <v>0.01521610947419152</v>
       </c>
       <c r="R44" t="n">
-        <v>0.01700624760938283</v>
+        <v>0.06592380223953052</v>
       </c>
       <c r="S44" t="n">
-        <v>0.01779076646306298</v>
+        <v>0.06145469067706348</v>
       </c>
       <c r="T44" t="n">
-        <v>0.07013760146759662</v>
+        <v>0.07418261977777038</v>
       </c>
       <c r="U44" t="n">
-        <v>0.01421291506696629</v>
+        <v>0.004810950505134077</v>
       </c>
       <c r="V44" t="n">
-        <v>0.0342633819644791</v>
+        <v>0.02103480402773415</v>
       </c>
       <c r="W44" t="n">
-        <v>0.05900646225083514</v>
+        <v>0.06639894694983277</v>
       </c>
       <c r="X44" t="n">
-        <v>0.08091618532572825</v>
+        <v>0.07270695775718569</v>
       </c>
       <c r="Y44" t="n">
-        <v>0.01600304110894064</v>
+        <v>0.005240851767346039</v>
       </c>
       <c r="Z44" t="n">
-        <v>0.08811977451193151</v>
+        <v>0.03338171339137784</v>
       </c>
       <c r="AA44" t="n">
-        <v>0.06239796769657689</v>
+        <v>0.07898176163275789</v>
       </c>
       <c r="AB44" t="n">
-        <v>0.02916666174773106</v>
+        <v>0.03243439932267754</v>
       </c>
       <c r="AC44" t="n">
-        <v>0.02617031558141085</v>
+        <v>0.02113111310401822</v>
       </c>
     </row>
     <row r="45">
@@ -4680,79 +4680,79 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>0.2221902638380586</v>
+        <v>0.248125309408518</v>
       </c>
       <c r="F45" t="n">
-        <v>0.0706248233922714</v>
+        <v>0.1000163777881211</v>
       </c>
       <c r="G45" t="n">
-        <v>0.01089672239928884</v>
+        <v>0.02820949754386769</v>
       </c>
       <c r="H45" t="n">
-        <v>0.009343756691940283</v>
+        <v>0.04807055445049872</v>
       </c>
       <c r="I45" t="n">
-        <v>0.08835029717165054</v>
+        <v>0.0083634851369861</v>
       </c>
       <c r="J45" t="n">
-        <v>0.03184208061305506</v>
+        <v>0.009229124605155284</v>
       </c>
       <c r="K45" t="n">
-        <v>0.03483727032320984</v>
+        <v>0.05053519782390611</v>
       </c>
       <c r="L45" t="n">
-        <v>0.008719550973804351</v>
+        <v>0.03904749046921839</v>
       </c>
       <c r="M45" t="n">
-        <v>0.01988874458117458</v>
+        <v>0.005280084551478179</v>
       </c>
       <c r="N45" t="n">
-        <v>0.003614133707416194</v>
+        <v>0.02093403078862359</v>
       </c>
       <c r="O45" t="n">
-        <v>0.04784312486625424</v>
+        <v>0.06668497266294597</v>
       </c>
       <c r="P45" t="n">
-        <v>0.07805723274689726</v>
+        <v>0.03923331120839917</v>
       </c>
       <c r="Q45" t="n">
-        <v>0.03042648371624635</v>
+        <v>0.0167027572769411</v>
       </c>
       <c r="R45" t="n">
-        <v>0.08717168484970374</v>
+        <v>0.05990190213049019</v>
       </c>
       <c r="S45" t="n">
-        <v>0.07647024940645959</v>
+        <v>0.04032924655143159</v>
       </c>
       <c r="T45" t="n">
-        <v>0.03517456898929946</v>
+        <v>0.0743869191981185</v>
       </c>
       <c r="U45" t="n">
-        <v>0.09836838648859865</v>
+        <v>0.1030079739742659</v>
       </c>
       <c r="V45" t="n">
-        <v>0.01404410734723971</v>
+        <v>0.05491514469633139</v>
       </c>
       <c r="W45" t="n">
-        <v>0.04776016607913246</v>
+        <v>0.05482706883224714</v>
       </c>
       <c r="X45" t="n">
-        <v>0.04568833683070798</v>
+        <v>0.00197545859602108</v>
       </c>
       <c r="Y45" t="n">
-        <v>0.04676851767950443</v>
+        <v>0.006436269422942215</v>
       </c>
       <c r="Z45" t="n">
-        <v>0.005956131896191106</v>
+        <v>0.06715059021525012</v>
       </c>
       <c r="AA45" t="n">
-        <v>0.1078478148245731</v>
+        <v>0.09862429999454207</v>
       </c>
       <c r="AB45" t="n">
-        <v>0.0003058144253807109</v>
+        <v>0.006138242082218375</v>
       </c>
       <c r="AC45" t="n">
-        <v>-0.01949309551712053</v>
+        <v>0.01823040605181612</v>
       </c>
     </row>
     <row r="46">
@@ -4775,79 +4775,79 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>0.1486135892480725</v>
+        <v>0.1516219393419009</v>
       </c>
       <c r="F46" t="n">
-        <v>0.08803947864937042</v>
+        <v>0.09056432114466753</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05925969776594452</v>
+        <v>0.06264155824881619</v>
       </c>
       <c r="H46" t="n">
-        <v>0.05392366304027864</v>
+        <v>0.0615736228843437</v>
       </c>
       <c r="I46" t="n">
-        <v>0.04632874575274485</v>
+        <v>0.06297956264428738</v>
       </c>
       <c r="J46" t="n">
-        <v>0.02092262556596212</v>
+        <v>0.01774305278192799</v>
       </c>
       <c r="K46" t="n">
-        <v>0.005877174112330758</v>
+        <v>0.0006698121952207573</v>
       </c>
       <c r="L46" t="n">
-        <v>0.02836327733343716</v>
+        <v>0.003276699052932476</v>
       </c>
       <c r="M46" t="n">
-        <v>0.03419889270539106</v>
+        <v>0.03323447201727482</v>
       </c>
       <c r="N46" t="n">
-        <v>0.03018161166100716</v>
+        <v>0.001783989717238306</v>
       </c>
       <c r="O46" t="n">
-        <v>0.0426727881353637</v>
+        <v>0.08519014920676692</v>
       </c>
       <c r="P46" t="n">
-        <v>0.07002500647275803</v>
+        <v>0.08543077199417742</v>
       </c>
       <c r="Q46" t="n">
-        <v>0.004057617628283576</v>
+        <v>0.004807820829545312</v>
       </c>
       <c r="R46" t="n">
-        <v>0.07503410646732937</v>
+        <v>0.05144698905916355</v>
       </c>
       <c r="S46" t="n">
-        <v>0.02142338893165826</v>
+        <v>0.01409624947513695</v>
       </c>
       <c r="T46" t="n">
-        <v>0.08207583046184816</v>
+        <v>0.03563708267810958</v>
       </c>
       <c r="U46" t="n">
-        <v>0.07140058614761795</v>
+        <v>0.04864536233163502</v>
       </c>
       <c r="V46" t="n">
-        <v>0.005587753358424112</v>
+        <v>0.01295128147313643</v>
       </c>
       <c r="W46" t="n">
-        <v>0.06245450657648688</v>
+        <v>0.05028689954454656</v>
       </c>
       <c r="X46" t="n">
-        <v>0.06316024658279472</v>
+        <v>0.04875964823877986</v>
       </c>
       <c r="Y46" t="n">
-        <v>0.04917498981602882</v>
+        <v>0.0880160566948857</v>
       </c>
       <c r="Z46" t="n">
-        <v>0.07992231938701461</v>
+        <v>0.0902210483951604</v>
       </c>
       <c r="AA46" t="n">
-        <v>0.0001228303051684067</v>
+        <v>0.04747004981731481</v>
       </c>
       <c r="AB46" t="n">
-        <v>0.005792863142756928</v>
+        <v>0.002573499574932363</v>
       </c>
       <c r="AC46" t="n">
-        <v>-0.05864209085215774</v>
+        <v>-0.03897816130772801</v>
       </c>
     </row>
     <row r="47">
@@ -4870,79 +4870,79 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>0.2087801572135738</v>
+        <v>0.205834339164981</v>
       </c>
       <c r="F47" t="n">
-        <v>0.09528799223248924</v>
+        <v>0.1092553055736685</v>
       </c>
       <c r="G47" t="n">
-        <v>0.09342498800183038</v>
+        <v>0.06321654446851473</v>
       </c>
       <c r="H47" t="n">
-        <v>0.04009717931566123</v>
+        <v>8.260098770394645e-06</v>
       </c>
       <c r="I47" t="n">
-        <v>0.02013642534583891</v>
+        <v>0.03084345702311221</v>
       </c>
       <c r="J47" t="n">
-        <v>0.03916372660190683</v>
+        <v>0.01740150394221776</v>
       </c>
       <c r="K47" t="n">
-        <v>0.01361661237347281</v>
+        <v>0.02100114270196851</v>
       </c>
       <c r="L47" t="n">
-        <v>0.04270883822131767</v>
+        <v>0.007187245639106538</v>
       </c>
       <c r="M47" t="n">
-        <v>0.09394490829639651</v>
+        <v>0.09806305311981781</v>
       </c>
       <c r="N47" t="n">
-        <v>0.01367810693340336</v>
+        <v>0.05353305500480224</v>
       </c>
       <c r="O47" t="n">
-        <v>0.02500199645373314</v>
+        <v>0.005682316641920824</v>
       </c>
       <c r="P47" t="n">
-        <v>0.0105258469842979</v>
+        <v>0.02324979828664078</v>
       </c>
       <c r="Q47" t="n">
-        <v>0.03560049886915312</v>
+        <v>0.08848603743189543</v>
       </c>
       <c r="R47" t="n">
-        <v>0.07261166024085353</v>
+        <v>0.05499213571115266</v>
       </c>
       <c r="S47" t="n">
-        <v>0.04721153985882547</v>
+        <v>0.05898753296464535</v>
       </c>
       <c r="T47" t="n">
-        <v>0.02430540657662429</v>
+        <v>0.05976959715540971</v>
       </c>
       <c r="U47" t="n">
-        <v>0.005348744319027984</v>
+        <v>0.03542643051998919</v>
       </c>
       <c r="V47" t="n">
-        <v>0.07298561707079236</v>
+        <v>0.05046031037260675</v>
       </c>
       <c r="W47" t="n">
-        <v>0.04248866619071341</v>
+        <v>0.006773265614617973</v>
       </c>
       <c r="X47" t="n">
-        <v>0.03288898032736144</v>
+        <v>0.0488003880828798</v>
       </c>
       <c r="Y47" t="n">
-        <v>0.0231796920127742</v>
+        <v>0.08537531496700129</v>
       </c>
       <c r="Z47" t="n">
-        <v>0.0898774549426362</v>
+        <v>0.02972438855771332</v>
       </c>
       <c r="AA47" t="n">
-        <v>0.0494994313855453</v>
+        <v>0.03466737371345232</v>
       </c>
       <c r="AB47" t="n">
-        <v>0.01641568744534483</v>
+        <v>0.01709554240809559</v>
       </c>
       <c r="AC47" t="n">
-        <v>-0.02481344624925357</v>
+        <v>-0.02149700464790572</v>
       </c>
     </row>
     <row r="48">
@@ -4965,79 +4965,79 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>0.1184519463680785</v>
+        <v>0.1194101808608166</v>
       </c>
       <c r="F48" t="n">
-        <v>0.03519899328776374</v>
+        <v>0.01435619723770482</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02046234670758327</v>
+        <v>0.07682984362519411</v>
       </c>
       <c r="H48" t="n">
-        <v>0.07210221051000272</v>
+        <v>0.07875239566760613</v>
       </c>
       <c r="I48" t="n">
-        <v>0.01805333158180288</v>
+        <v>0.01831517460327194</v>
       </c>
       <c r="J48" t="n">
-        <v>0.08068285575288386</v>
+        <v>0.06728535929066597</v>
       </c>
       <c r="K48" t="n">
-        <v>0.03865454359018056</v>
+        <v>0.07002267351543053</v>
       </c>
       <c r="L48" t="n">
-        <v>0.06076219643328949</v>
+        <v>0.01796567764239214</v>
       </c>
       <c r="M48" t="n">
-        <v>0.009763645875456221</v>
+        <v>0.01482347131973641</v>
       </c>
       <c r="N48" t="n">
-        <v>0.02256373640611897</v>
+        <v>0.0190225782780441</v>
       </c>
       <c r="O48" t="n">
-        <v>0.04639749288828152</v>
+        <v>0.06651341627571884</v>
       </c>
       <c r="P48" t="n">
-        <v>0.04561883736182126</v>
+        <v>0.07848439926423816</v>
       </c>
       <c r="Q48" t="n">
-        <v>0.0349238304207119</v>
+        <v>0.03337311671368923</v>
       </c>
       <c r="R48" t="n">
-        <v>0.06861941670185279</v>
+        <v>0.03613788682409547</v>
       </c>
       <c r="S48" t="n">
-        <v>0.08239262066532131</v>
+        <v>0.0432387154453175</v>
       </c>
       <c r="T48" t="n">
-        <v>0.06125921437155379</v>
+        <v>0.03667049202645808</v>
       </c>
       <c r="U48" t="n">
-        <v>0.0771842092072752</v>
+        <v>0.04897758533091498</v>
       </c>
       <c r="V48" t="n">
-        <v>0.004950754145753003</v>
+        <v>0.002473355820737853</v>
       </c>
       <c r="W48" t="n">
-        <v>0.07022203437366162</v>
+        <v>0.06448669186251486</v>
       </c>
       <c r="X48" t="n">
-        <v>0.04207718839703999</v>
+        <v>0.04879279026731476</v>
       </c>
       <c r="Y48" t="n">
-        <v>0.0488853801619801</v>
+        <v>0.02813910552680085</v>
       </c>
       <c r="Z48" t="n">
-        <v>0.0380315288274239</v>
+        <v>0.07058529876222486</v>
       </c>
       <c r="AA48" t="n">
-        <v>0.01837358540135569</v>
+        <v>0.0368277691579865</v>
       </c>
       <c r="AB48" t="n">
-        <v>0.002820046930886175</v>
+        <v>0.02792600554194187</v>
       </c>
       <c r="AC48" t="n">
-        <v>-0.1754285798906397</v>
+        <v>-0.1447771925066553</v>
       </c>
     </row>
     <row r="49">
@@ -5060,79 +5060,79 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>0.1537016938216733</v>
+        <v>0.1546841555551023</v>
       </c>
       <c r="F49" t="n">
-        <v>0.06175690798454649</v>
+        <v>0.03236470514462957</v>
       </c>
       <c r="G49" t="n">
-        <v>0.003396290495248033</v>
+        <v>0.02419435773393024</v>
       </c>
       <c r="H49" t="n">
-        <v>0.02046926679284042</v>
+        <v>0.02004415048326182</v>
       </c>
       <c r="I49" t="n">
-        <v>0.01461671299502992</v>
+        <v>0.02732174841266558</v>
       </c>
       <c r="J49" t="n">
-        <v>0.002674601989841086</v>
+        <v>0.001441754962218706</v>
       </c>
       <c r="K49" t="n">
-        <v>0.01734427910407158</v>
+        <v>0.04823196620778905</v>
       </c>
       <c r="L49" t="n">
-        <v>0.0009238248230632707</v>
+        <v>0.08913192392131516</v>
       </c>
       <c r="M49" t="n">
-        <v>0.08186995283723174</v>
+        <v>0.04722932158222962</v>
       </c>
       <c r="N49" t="n">
-        <v>0.01999643172518041</v>
+        <v>0.003768475814390681</v>
       </c>
       <c r="O49" t="n">
-        <v>0.0746172955133905</v>
+        <v>0.07450214501560598</v>
       </c>
       <c r="P49" t="n">
-        <v>0.02111887385964148</v>
+        <v>0.01190094876016103</v>
       </c>
       <c r="Q49" t="n">
-        <v>0.08683571219408266</v>
+        <v>0.1227156691970399</v>
       </c>
       <c r="R49" t="n">
-        <v>0.05321526283398879</v>
+        <v>0.06189283341811733</v>
       </c>
       <c r="S49" t="n">
-        <v>0.003785193114165023</v>
+        <v>0.01873421779072405</v>
       </c>
       <c r="T49" t="n">
-        <v>0.008559215159040375</v>
+        <v>0.07133183591773963</v>
       </c>
       <c r="U49" t="n">
-        <v>0.0545699040473599</v>
+        <v>0.03621442604655937</v>
       </c>
       <c r="V49" t="n">
-        <v>0.07181935385850612</v>
+        <v>0.03081919163897076</v>
       </c>
       <c r="W49" t="n">
-        <v>0.08557292104962927</v>
+        <v>0.004893862634087836</v>
       </c>
       <c r="X49" t="n">
-        <v>0.01435448076504142</v>
+        <v>0.06101127351184234</v>
       </c>
       <c r="Y49" t="n">
-        <v>0.0747162869376744</v>
+        <v>0.1023731242911732</v>
       </c>
       <c r="Z49" t="n">
-        <v>0.1063192986825035</v>
+        <v>0.01974213724473201</v>
       </c>
       <c r="AA49" t="n">
-        <v>0.01424019484446687</v>
+        <v>0.01166350456643718</v>
       </c>
       <c r="AB49" t="n">
-        <v>0.1072277383934568</v>
+        <v>0.07847642570437889</v>
       </c>
       <c r="AC49" t="n">
-        <v>-0.1097737721924263</v>
+        <v>-0.1528470071380833</v>
       </c>
     </row>
     <row r="50">
@@ -5155,79 +5155,79 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>0.1217962026194273</v>
+        <v>0.1210983660221204</v>
       </c>
       <c r="F50" t="n">
-        <v>0.01260944099323488</v>
+        <v>0.03968085173890219</v>
       </c>
       <c r="G50" t="n">
-        <v>0.07620227070473223</v>
+        <v>0.0442705542914834</v>
       </c>
       <c r="H50" t="n">
-        <v>0.02735028560155856</v>
+        <v>0.005163427804858299</v>
       </c>
       <c r="I50" t="n">
-        <v>0.03029131540239151</v>
+        <v>0.004684749977268072</v>
       </c>
       <c r="J50" t="n">
-        <v>0.07332100402691416</v>
+        <v>0.0487371188392112</v>
       </c>
       <c r="K50" t="n">
-        <v>0.005810845266028688</v>
+        <v>0.009425079328618489</v>
       </c>
       <c r="L50" t="n">
-        <v>0.05038372318325465</v>
+        <v>0.06255847504158245</v>
       </c>
       <c r="M50" t="n">
-        <v>0.09294051385206567</v>
+        <v>0.06426197290168999</v>
       </c>
       <c r="N50" t="n">
-        <v>0.001600045292029528</v>
+        <v>0.008751923888554577</v>
       </c>
       <c r="O50" t="n">
-        <v>0.05027343639587008</v>
+        <v>0.0492235273451674</v>
       </c>
       <c r="P50" t="n">
-        <v>0.01456340792325883</v>
+        <v>0.08409081950397548</v>
       </c>
       <c r="Q50" t="n">
-        <v>0.08075222426951464</v>
+        <v>0.01464793194990138</v>
       </c>
       <c r="R50" t="n">
-        <v>0.01920509338292365</v>
+        <v>0.05894482739588717</v>
       </c>
       <c r="S50" t="n">
-        <v>0.000318172391795665</v>
+        <v>0.0133402542711574</v>
       </c>
       <c r="T50" t="n">
-        <v>0.0161665611104073</v>
+        <v>0.001692454195249698</v>
       </c>
       <c r="U50" t="n">
-        <v>0.1012551354361301</v>
+        <v>0.07841866806401397</v>
       </c>
       <c r="V50" t="n">
-        <v>0.01737611161779886</v>
+        <v>0.02430804406819867</v>
       </c>
       <c r="W50" t="n">
-        <v>0.05016783415478922</v>
+        <v>0.07206107013143838</v>
       </c>
       <c r="X50" t="n">
-        <v>0.07988653154590812</v>
+        <v>0.07380179210015024</v>
       </c>
       <c r="Y50" t="n">
-        <v>0.01838343297172503</v>
+        <v>0.09140359061020137</v>
       </c>
       <c r="Z50" t="n">
-        <v>0.09801914738420793</v>
+        <v>0.0413384435017394</v>
       </c>
       <c r="AA50" t="n">
-        <v>0.06910466296297112</v>
+        <v>0.09469824681182583</v>
       </c>
       <c r="AB50" t="n">
-        <v>0.01401880413048956</v>
+        <v>0.01449617623892479</v>
       </c>
       <c r="AC50" t="n">
-        <v>0.1095416054381532</v>
+        <v>0.1053319682125969</v>
       </c>
     </row>
     <row r="51">
@@ -5250,79 +5250,79 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>0.1324821245065155</v>
+        <v>0.1351680120869191</v>
       </c>
       <c r="F51" t="n">
-        <v>0.06300243924094785</v>
+        <v>0.1096978733467371</v>
       </c>
       <c r="G51" t="n">
-        <v>0.07398491209599847</v>
+        <v>0.0003966567192913575</v>
       </c>
       <c r="H51" t="n">
-        <v>0.05894198503311054</v>
+        <v>0.001509485175252152</v>
       </c>
       <c r="I51" t="n">
-        <v>0.006060064599087829</v>
+        <v>0.05474003358749007</v>
       </c>
       <c r="J51" t="n">
-        <v>0.07844091585763507</v>
+        <v>0.02766790466858641</v>
       </c>
       <c r="K51" t="n">
-        <v>0.001669089111323943</v>
+        <v>0.01152370423268138</v>
       </c>
       <c r="L51" t="n">
-        <v>0.003433158065729614</v>
+        <v>0.08191821702235501</v>
       </c>
       <c r="M51" t="n">
-        <v>0.08451343936408523</v>
+        <v>0.08802483343893344</v>
       </c>
       <c r="N51" t="n">
-        <v>0.005400795730805564</v>
+        <v>0.003822757353782384</v>
       </c>
       <c r="O51" t="n">
-        <v>0.05406201303127194</v>
+        <v>0.08115025106454771</v>
       </c>
       <c r="P51" t="n">
-        <v>0.01620605461362413</v>
+        <v>0.02160666178737558</v>
       </c>
       <c r="Q51" t="n">
-        <v>0.03899689881200694</v>
+        <v>0.05392706674514854</v>
       </c>
       <c r="R51" t="n">
-        <v>0.07201105962094308</v>
+        <v>0.05204050369743429</v>
       </c>
       <c r="S51" t="n">
-        <v>0.01224880050311349</v>
+        <v>0.01939303544582443</v>
       </c>
       <c r="T51" t="n">
-        <v>0.06892423974789731</v>
+        <v>0.02456664679172545</v>
       </c>
       <c r="U51" t="n">
-        <v>0.03092960251374082</v>
+        <v>0.01682511868747666</v>
       </c>
       <c r="V51" t="n">
-        <v>0.002107207308043528</v>
+        <v>0.006230744484568662</v>
       </c>
       <c r="W51" t="n">
-        <v>0.03149033533297044</v>
+        <v>0.0004504992236246941</v>
       </c>
       <c r="X51" t="n">
-        <v>0.05023357862502068</v>
+        <v>0.1239945481486823</v>
       </c>
       <c r="Y51" t="n">
-        <v>0.08688674118425531</v>
+        <v>0.0100405345137687</v>
       </c>
       <c r="Z51" t="n">
-        <v>0.07145499277219028</v>
+        <v>0.1220863008896054</v>
       </c>
       <c r="AA51" t="n">
-        <v>0.00892250665155939</v>
+        <v>0.08804099921718193</v>
       </c>
       <c r="AB51" t="n">
-        <v>0.08007917018463857</v>
+        <v>0.0003456237579261364</v>
       </c>
       <c r="AC51" t="n">
-        <v>0.1544880758584554</v>
+        <v>0.1747138661350466</v>
       </c>
     </row>
     <row r="52">
@@ -5345,79 +5345,79 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>0.1445423018536949</v>
+        <v>0.1424716343132235</v>
       </c>
       <c r="F52" t="n">
-        <v>0.08646866731011271</v>
+        <v>0.02908189578497321</v>
       </c>
       <c r="G52" t="n">
-        <v>0.09363227804894733</v>
+        <v>0.04681646335201751</v>
       </c>
       <c r="H52" t="n">
-        <v>0.03368730852798401</v>
+        <v>0.01126368366978641</v>
       </c>
       <c r="I52" t="n">
-        <v>0.009601143835500986</v>
+        <v>0.02763035269165739</v>
       </c>
       <c r="J52" t="n">
-        <v>0.06486989190033654</v>
+        <v>0.05861534977503779</v>
       </c>
       <c r="K52" t="n">
-        <v>0.04533545864095632</v>
+        <v>0.006351286848709962</v>
       </c>
       <c r="L52" t="n">
-        <v>0.05602969713257645</v>
+        <v>0.0821218453728466</v>
       </c>
       <c r="M52" t="n">
-        <v>0.01196303114070805</v>
+        <v>0.04335602774301811</v>
       </c>
       <c r="N52" t="n">
-        <v>0.04036576599509249</v>
+        <v>0.08371930298789854</v>
       </c>
       <c r="O52" t="n">
-        <v>0.01681383919334149</v>
+        <v>0.00241582606621087</v>
       </c>
       <c r="P52" t="n">
-        <v>0.09427163007172627</v>
+        <v>0.07900032396687696</v>
       </c>
       <c r="Q52" t="n">
-        <v>0.09720992658373927</v>
+        <v>0.06113383371274326</v>
       </c>
       <c r="R52" t="n">
-        <v>0.05040038103661659</v>
+        <v>0.07333682228508165</v>
       </c>
       <c r="S52" t="n">
-        <v>0.003128888190718425</v>
+        <v>0.06637334339810647</v>
       </c>
       <c r="T52" t="n">
-        <v>0.0007310535492969278</v>
+        <v>0.0283451831937215</v>
       </c>
       <c r="U52" t="n">
-        <v>0.06774256873432492</v>
+        <v>0.04190176015209369</v>
       </c>
       <c r="V52" t="n">
-        <v>0.02242999168899944</v>
+        <v>0.02932981404318363</v>
       </c>
       <c r="W52" t="n">
-        <v>0.04849852073108332</v>
+        <v>0.07886789016277883</v>
       </c>
       <c r="X52" t="n">
-        <v>0.0004322155065069721</v>
+        <v>0.007518885283157292</v>
       </c>
       <c r="Y52" t="n">
-        <v>0.09036870795518212</v>
+        <v>0.08071031031974304</v>
       </c>
       <c r="Z52" t="n">
-        <v>0.006933396079303976</v>
+        <v>0.001927790676563443</v>
       </c>
       <c r="AA52" t="n">
-        <v>0.04561525929189492</v>
+        <v>0.04067202007094087</v>
       </c>
       <c r="AB52" t="n">
-        <v>0.01347037885505048</v>
+        <v>0.01950998844285293</v>
       </c>
       <c r="AC52" t="n">
-        <v>0.05169947435970361</v>
+        <v>0.05643414876138974</v>
       </c>
     </row>
     <row r="53">
@@ -5440,79 +5440,79 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>0.289570756190069</v>
+        <v>0.207047089695352</v>
       </c>
       <c r="F53" t="n">
-        <v>0.01437962220776893</v>
+        <v>0.04533328125447258</v>
       </c>
       <c r="G53" t="n">
-        <v>0.00351323831591328</v>
+        <v>0.0474169278339193</v>
       </c>
       <c r="H53" t="n">
-        <v>0.002591467230702041</v>
+        <v>0.02249831033336238</v>
       </c>
       <c r="I53" t="n">
-        <v>0.00453516289511671</v>
+        <v>0.009387992424719358</v>
       </c>
       <c r="J53" t="n">
-        <v>0.01513600697181474</v>
+        <v>0.04918736926464742</v>
       </c>
       <c r="K53" t="n">
-        <v>0.02589583570131914</v>
+        <v>0.004849318615068687</v>
       </c>
       <c r="L53" t="n">
-        <v>0.02138935997863203</v>
+        <v>0.00897962803912522</v>
       </c>
       <c r="M53" t="n">
-        <v>0.01494725458915547</v>
+        <v>0.106463553219562</v>
       </c>
       <c r="N53" t="n">
-        <v>0.004781217734961915</v>
+        <v>0.005247242481075711</v>
       </c>
       <c r="O53" t="n">
-        <v>0.05154697773948636</v>
+        <v>0.01725053253747177</v>
       </c>
       <c r="P53" t="n">
-        <v>0.03512655614289464</v>
+        <v>0.008863110849621037</v>
       </c>
       <c r="Q53" t="n">
-        <v>0.08913009952247007</v>
+        <v>0.09478726023810706</v>
       </c>
       <c r="R53" t="n">
-        <v>0.07314361563609607</v>
+        <v>0.05630577894250223</v>
       </c>
       <c r="S53" t="n">
-        <v>0.01708687376581698</v>
+        <v>0.03204942454163248</v>
       </c>
       <c r="T53" t="n">
-        <v>0.07635743816229393</v>
+        <v>0.04606543075490267</v>
       </c>
       <c r="U53" t="n">
-        <v>0.007682484055540348</v>
+        <v>0.04170190272426304</v>
       </c>
       <c r="V53" t="n">
-        <v>0.05945073405513565</v>
+        <v>0.03925091277210501</v>
       </c>
       <c r="W53" t="n">
-        <v>0.07281609342820283</v>
+        <v>0.05478942400526034</v>
       </c>
       <c r="X53" t="n">
-        <v>0.09812041740918669</v>
+        <v>0.04827113645026126</v>
       </c>
       <c r="Y53" t="n">
-        <v>0.1043929193177347</v>
+        <v>0.09739781280068727</v>
       </c>
       <c r="Z53" t="n">
-        <v>0.01456690579810764</v>
+        <v>0.04817587576286664</v>
       </c>
       <c r="AA53" t="n">
-        <v>0.1048944667845895</v>
+        <v>0.08772034894515569</v>
       </c>
       <c r="AB53" t="n">
-        <v>0.08851525255706026</v>
+        <v>0.02800742520921077</v>
       </c>
       <c r="AC53" t="n">
-        <v>0.08215057575192232</v>
+        <v>0.075264696479983</v>
       </c>
     </row>
     <row r="54">
@@ -5535,79 +5535,79 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>0.1329577852454472</v>
+        <v>0.1315700591465695</v>
       </c>
       <c r="F54" t="n">
-        <v>0.06746994539231799</v>
+        <v>0.0363661190481335</v>
       </c>
       <c r="G54" t="n">
-        <v>0.009912193795126183</v>
+        <v>0.03773333646157843</v>
       </c>
       <c r="H54" t="n">
-        <v>0.099928420865567</v>
+        <v>0.05646302763214177</v>
       </c>
       <c r="I54" t="n">
-        <v>0.02689461925338834</v>
+        <v>0.04624080466517705</v>
       </c>
       <c r="J54" t="n">
-        <v>0.06377198041777715</v>
+        <v>0.04809362131014798</v>
       </c>
       <c r="K54" t="n">
-        <v>0.06695837016973889</v>
+        <v>0.001505927216543996</v>
       </c>
       <c r="L54" t="n">
-        <v>0.04181621007038284</v>
+        <v>0.005195514505824289</v>
       </c>
       <c r="M54" t="n">
-        <v>0.08853885881517265</v>
+        <v>0.07266176479690011</v>
       </c>
       <c r="N54" t="n">
-        <v>0.0133950730666122</v>
+        <v>0.03064329459540903</v>
       </c>
       <c r="O54" t="n">
-        <v>0.0062623084480477</v>
+        <v>0.03381290290330353</v>
       </c>
       <c r="P54" t="n">
-        <v>0.06037844434811667</v>
+        <v>0.09113397655529173</v>
       </c>
       <c r="Q54" t="n">
-        <v>0.1007398405888643</v>
+        <v>0.1043823014731116</v>
       </c>
       <c r="R54" t="n">
-        <v>0.0658331507549318</v>
+        <v>0.09612109633917645</v>
       </c>
       <c r="S54" t="n">
-        <v>0.007444449713326983</v>
+        <v>0.02884304451476631</v>
       </c>
       <c r="T54" t="n">
-        <v>0.002447730695570916</v>
+        <v>0.03673957161194838</v>
       </c>
       <c r="U54" t="n">
-        <v>0.06720706015446777</v>
+        <v>0.07436188605162482</v>
       </c>
       <c r="V54" t="n">
-        <v>0.01075021954047664</v>
+        <v>0.02487060315391361</v>
       </c>
       <c r="W54" t="n">
-        <v>0.07242840863041887</v>
+        <v>0.04314867764036198</v>
       </c>
       <c r="X54" t="n">
-        <v>0.04697071637405629</v>
+        <v>0.00810721068846232</v>
       </c>
       <c r="Y54" t="n">
-        <v>0.0175558415892735</v>
+        <v>0.0578978401416512</v>
       </c>
       <c r="Z54" t="n">
-        <v>0.01144677154058865</v>
+        <v>0.03544372837840581</v>
       </c>
       <c r="AA54" t="n">
-        <v>0.05074939543901936</v>
+        <v>0.01087993044378145</v>
       </c>
       <c r="AB54" t="n">
-        <v>0.001099990336757248</v>
+        <v>0.01935381987234456</v>
       </c>
       <c r="AC54" t="n">
-        <v>-0.09712432492805938</v>
+        <v>-0.0448042233425162</v>
       </c>
     </row>
     <row r="55">
@@ -5630,79 +5630,79 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>0.1449897735569774</v>
+        <v>0.1558071311446202</v>
       </c>
       <c r="F55" t="n">
-        <v>0.04347265969040805</v>
+        <v>0.09572246597688844</v>
       </c>
       <c r="G55" t="n">
-        <v>0.003159887943269071</v>
+        <v>0.02618826830128199</v>
       </c>
       <c r="H55" t="n">
-        <v>0.0449722364425983</v>
+        <v>0.02350575283196285</v>
       </c>
       <c r="I55" t="n">
-        <v>0.0181873327975905</v>
+        <v>0.03452926123222058</v>
       </c>
       <c r="J55" t="n">
-        <v>0.05680790499120153</v>
+        <v>0.00212453182506528</v>
       </c>
       <c r="K55" t="n">
-        <v>0.0001633300432644258</v>
+        <v>0.005706164808298754</v>
       </c>
       <c r="L55" t="n">
-        <v>0.01767228016616366</v>
+        <v>0.003259546488654183</v>
       </c>
       <c r="M55" t="n">
-        <v>0.07967434847658295</v>
+        <v>0.1036816608254445</v>
       </c>
       <c r="N55" t="n">
-        <v>0.09259025984754558</v>
+        <v>0.02313721249251274</v>
       </c>
       <c r="O55" t="n">
-        <v>0.09253480256907556</v>
+        <v>0.007258524454307757</v>
       </c>
       <c r="P55" t="n">
-        <v>0.006491964901245722</v>
+        <v>0.07024414151164281</v>
       </c>
       <c r="Q55" t="n">
-        <v>0.1041077736161549</v>
+        <v>0.03833318891909113</v>
       </c>
       <c r="R55" t="n">
-        <v>0.09430069385319426</v>
+        <v>0.07807490705853</v>
       </c>
       <c r="S55" t="n">
-        <v>0.02049320143000758</v>
+        <v>0.03249118460684056</v>
       </c>
       <c r="T55" t="n">
-        <v>0.003200434247931048</v>
+        <v>0.04808646153752247</v>
       </c>
       <c r="U55" t="n">
-        <v>0.003696365943870922</v>
+        <v>0.07880752502809969</v>
       </c>
       <c r="V55" t="n">
-        <v>0.08531028589384088</v>
+        <v>0.07411108583982785</v>
       </c>
       <c r="W55" t="n">
-        <v>0.07841060128569523</v>
+        <v>0.0301446917682218</v>
       </c>
       <c r="X55" t="n">
-        <v>0.0177520202327483</v>
+        <v>0.05479990157474315</v>
       </c>
       <c r="Y55" t="n">
-        <v>0.09388404713326214</v>
+        <v>0.09665660285447189</v>
       </c>
       <c r="Z55" t="n">
-        <v>0.004419726397442205</v>
+        <v>0.05568449070246722</v>
       </c>
       <c r="AA55" t="n">
-        <v>0.03385032247016794</v>
+        <v>0.0165351168703572</v>
       </c>
       <c r="AB55" t="n">
-        <v>0.00484751962673927</v>
+        <v>0.0009173124915469567</v>
       </c>
       <c r="AC55" t="n">
-        <v>-0.01329752380200852</v>
+        <v>-0.03429888082898155</v>
       </c>
     </row>
     <row r="56">
@@ -5725,79 +5725,79 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>0.2031791534032902</v>
+        <v>0.2083372791888846</v>
       </c>
       <c r="F56" t="n">
-        <v>0.04944586423354488</v>
+        <v>0.02372174719954423</v>
       </c>
       <c r="G56" t="n">
-        <v>0.00774816978714081</v>
+        <v>0.03594953898495339</v>
       </c>
       <c r="H56" t="n">
-        <v>0.1072830577726311</v>
+        <v>0.01330358151559118</v>
       </c>
       <c r="I56" t="n">
-        <v>0.02017567796920373</v>
+        <v>0.02900838433875949</v>
       </c>
       <c r="J56" t="n">
-        <v>0.05027300842971576</v>
+        <v>0.007558331612584117</v>
       </c>
       <c r="K56" t="n">
-        <v>0.004722338185183209</v>
+        <v>0.06588356378717652</v>
       </c>
       <c r="L56" t="n">
-        <v>0.008238156594396334</v>
+        <v>0.02088374134067232</v>
       </c>
       <c r="M56" t="n">
-        <v>0.01377996668989168</v>
+        <v>0.01299014694912537</v>
       </c>
       <c r="N56" t="n">
-        <v>0.01381567440193954</v>
+        <v>0.00168053390531928</v>
       </c>
       <c r="O56" t="n">
-        <v>0.004999035035909487</v>
+        <v>0.04800076026707994</v>
       </c>
       <c r="P56" t="n">
-        <v>0.1137686677607449</v>
+        <v>0.06126778811134785</v>
       </c>
       <c r="Q56" t="n">
-        <v>0.0534978508871281</v>
+        <v>0.08697709351995303</v>
       </c>
       <c r="R56" t="n">
-        <v>0.1126057962203605</v>
+        <v>0.1055001150400236</v>
       </c>
       <c r="S56" t="n">
-        <v>0.09638528372270445</v>
+        <v>0.03047937700020077</v>
       </c>
       <c r="T56" t="n">
-        <v>0.01489982719464764</v>
+        <v>0.009307564030192941</v>
       </c>
       <c r="U56" t="n">
-        <v>0.1127171807440558</v>
+        <v>0.09401914589823347</v>
       </c>
       <c r="V56" t="n">
-        <v>0.02477851109947544</v>
+        <v>0.06076499012756207</v>
       </c>
       <c r="W56" t="n">
-        <v>0.07833941319150681</v>
+        <v>0.07148636724511073</v>
       </c>
       <c r="X56" t="n">
-        <v>0.003517717382034635</v>
+        <v>0.03548837346992021</v>
       </c>
       <c r="Y56" t="n">
-        <v>0.008337578319067654</v>
+        <v>0.05175672202395321</v>
       </c>
       <c r="Z56" t="n">
-        <v>0.06924690528922241</v>
+        <v>0.0901270877033914</v>
       </c>
       <c r="AA56" t="n">
-        <v>0.0273914767265131</v>
+        <v>0.001214392059105981</v>
       </c>
       <c r="AB56" t="n">
-        <v>0.004032842362982109</v>
+        <v>0.04263065387019883</v>
       </c>
       <c r="AC56" t="n">
-        <v>0.06330801553388377</v>
+        <v>0.0822884497442096</v>
       </c>
     </row>
     <row r="57">
@@ -5820,82 +5820,82 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>0.2156003210727331</v>
+        <v>0.2088676223065902</v>
       </c>
       <c r="F57" t="n">
-        <v>0.08471302931113937</v>
+        <v>0.09493830488466412</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02630666639897383</v>
+        <v>0.001672798097136793</v>
       </c>
       <c r="H57" t="n">
-        <v>0.04104264890484637</v>
+        <v>0.005477245753974774</v>
       </c>
       <c r="I57" t="n">
-        <v>0.05402685741035436</v>
+        <v>0.02240929285588238</v>
       </c>
       <c r="J57" t="n">
-        <v>0.002447253649825443</v>
+        <v>0.007456989395163271</v>
       </c>
       <c r="K57" t="n">
-        <v>0.04443080349980329</v>
+        <v>0.01308924794553552</v>
       </c>
       <c r="L57" t="n">
-        <v>0.007903230358985753</v>
+        <v>0.02264345290492712</v>
       </c>
       <c r="M57" t="n">
-        <v>0.06623784707780976</v>
+        <v>0.04362860968848427</v>
       </c>
       <c r="N57" t="n">
-        <v>0.01948172507499415</v>
+        <v>0.01184478194533673</v>
       </c>
       <c r="O57" t="n">
-        <v>0.08956777190174792</v>
+        <v>0.05718364846145555</v>
       </c>
       <c r="P57" t="n">
-        <v>0.00342341007110581</v>
+        <v>0.07345551211894219</v>
       </c>
       <c r="Q57" t="n">
-        <v>0.0517773193624769</v>
+        <v>0.05692681411167919</v>
       </c>
       <c r="R57" t="n">
-        <v>0.08714957654397597</v>
+        <v>0.08796576232529185</v>
       </c>
       <c r="S57" t="n">
-        <v>0.0008638462649576332</v>
+        <v>0.04838174253643581</v>
       </c>
       <c r="T57" t="n">
-        <v>0.08659137577603712</v>
+        <v>0.0908770229064193</v>
       </c>
       <c r="U57" t="n">
-        <v>0.03609361833261296</v>
+        <v>0.002724507030062216</v>
       </c>
       <c r="V57" t="n">
-        <v>0.02549868468271263</v>
+        <v>0.0186421396867104</v>
       </c>
       <c r="W57" t="n">
-        <v>0.05420493798639522</v>
+        <v>0.09626615047464879</v>
       </c>
       <c r="X57" t="n">
-        <v>0.04999934516217038</v>
+        <v>0.04635862996955012</v>
       </c>
       <c r="Y57" t="n">
-        <v>0.06970069576177951</v>
+        <v>0.08714394971617477</v>
       </c>
       <c r="Z57" t="n">
-        <v>0.0388126050367005</v>
+        <v>0.08239283645816801</v>
       </c>
       <c r="AA57" t="n">
-        <v>0.04299650894303257</v>
+        <v>0.01352839392261705</v>
       </c>
       <c r="AB57" t="n">
-        <v>0.01673024248756259</v>
+        <v>0.01499216681073958</v>
       </c>
       <c r="AC57" t="n">
-        <v>0.09896715712799001</v>
+        <v>0.08370933566470429</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>